--- a/5. WS/1. Bộ phận bảo hành/1. Thực hiện sửa chữa bảo hành/nam2021/Thang1/02.XuLyBH/XLBH2101_Techglobal.xlsx
+++ b/5. WS/1. Bộ phận bảo hành/1. Thực hiện sửa chữa bảo hành/nam2021/Thang1/02.XuLyBH/XLBH2101_Techglobal.xlsx
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="595" uniqueCount="124">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="600" uniqueCount="125">
   <si>
     <t>STT</t>
   </si>
@@ -309,9 +309,6 @@
     <t>LE.2.00.---28.200624</t>
   </si>
   <si>
-    <t>Thiết bị không nhận sim</t>
-  </si>
-  <si>
     <t>Không khắc phục được</t>
   </si>
   <si>
@@ -418,6 +415,12 @@
   </si>
   <si>
     <t>W.2.00.---21.200630</t>
+  </si>
+  <si>
+    <t>Thiết bị chốt GPS kém</t>
+  </si>
+  <si>
+    <t>Xử lý phần cứng</t>
   </si>
 </sst>
 </file>
@@ -871,80 +874,11 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255" wrapText="1"/>
     </xf>
     <xf numFmtId="4" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -972,6 +906,75 @@
     </xf>
     <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1293,7 +1296,7 @@
     <col min="6" max="6" width="15.85546875" style="22" customWidth="1"/>
     <col min="7" max="7" width="17" style="22" customWidth="1"/>
     <col min="8" max="8" width="35.42578125" style="22" customWidth="1"/>
-    <col min="9" max="9" width="45.28515625" style="100" customWidth="1"/>
+    <col min="9" max="9" width="45.28515625" style="77" customWidth="1"/>
     <col min="10" max="10" width="53" style="22" customWidth="1"/>
     <col min="11" max="11" width="33.42578125" style="22" customWidth="1"/>
     <col min="12" max="12" width="30.7109375" style="28" customWidth="1"/>
@@ -1313,45 +1316,45 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:22" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="68" t="s">
+      <c r="A1" s="84" t="s">
         <v>67</v>
       </c>
-      <c r="B1" s="68"/>
-      <c r="C1" s="68"/>
-      <c r="D1" s="68"/>
-      <c r="E1" s="68"/>
-      <c r="F1" s="68"/>
-      <c r="G1" s="68"/>
-      <c r="H1" s="68"/>
-      <c r="I1" s="68"/>
-      <c r="J1" s="68"/>
-      <c r="K1" s="68"/>
-      <c r="L1" s="68"/>
-      <c r="M1" s="68"/>
-      <c r="N1" s="68"/>
-      <c r="O1" s="68"/>
-      <c r="P1" s="68"/>
-      <c r="Q1" s="68"/>
-      <c r="R1" s="68"/>
-      <c r="S1" s="68"/>
-      <c r="T1" s="68"/>
-      <c r="U1" s="68"/>
-      <c r="V1" s="68"/>
+      <c r="B1" s="84"/>
+      <c r="C1" s="84"/>
+      <c r="D1" s="84"/>
+      <c r="E1" s="84"/>
+      <c r="F1" s="84"/>
+      <c r="G1" s="84"/>
+      <c r="H1" s="84"/>
+      <c r="I1" s="84"/>
+      <c r="J1" s="84"/>
+      <c r="K1" s="84"/>
+      <c r="L1" s="84"/>
+      <c r="M1" s="84"/>
+      <c r="N1" s="84"/>
+      <c r="O1" s="84"/>
+      <c r="P1" s="84"/>
+      <c r="Q1" s="84"/>
+      <c r="R1" s="84"/>
+      <c r="S1" s="84"/>
+      <c r="T1" s="84"/>
+      <c r="U1" s="84"/>
+      <c r="V1" s="84"/>
     </row>
     <row r="2" spans="1:22" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="69" t="s">
+      <c r="A2" s="85" t="s">
         <v>10</v>
       </c>
-      <c r="B2" s="70"/>
-      <c r="C2" s="70"/>
-      <c r="D2" s="70"/>
-      <c r="E2" s="71" t="s">
+      <c r="B2" s="86"/>
+      <c r="C2" s="86"/>
+      <c r="D2" s="86"/>
+      <c r="E2" s="87" t="s">
         <v>68</v>
       </c>
-      <c r="F2" s="71"/>
+      <c r="F2" s="87"/>
       <c r="G2" s="6"/>
       <c r="H2" s="23"/>
-      <c r="I2" s="93"/>
+      <c r="I2" s="70"/>
       <c r="J2" s="23"/>
       <c r="K2" s="23"/>
       <c r="L2" s="24"/>
@@ -1375,7 +1378,7 @@
       <c r="F3" s="8"/>
       <c r="G3" s="8"/>
       <c r="H3" s="8"/>
-      <c r="I3" s="94"/>
+      <c r="I3" s="71"/>
       <c r="J3" s="8"/>
       <c r="K3" s="8"/>
       <c r="L3" s="9"/>
@@ -1391,57 +1394,57 @@
       <c r="V3" s="30"/>
     </row>
     <row r="4" spans="1:22" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="72" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="67" t="s">
+      <c r="A4" s="88" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="82" t="s">
         <v>9</v>
       </c>
-      <c r="C4" s="67"/>
-      <c r="D4" s="67"/>
-      <c r="E4" s="67"/>
-      <c r="F4" s="67"/>
-      <c r="G4" s="67"/>
-      <c r="H4" s="67"/>
-      <c r="I4" s="67"/>
-      <c r="J4" s="67" t="s">
+      <c r="C4" s="82"/>
+      <c r="D4" s="82"/>
+      <c r="E4" s="82"/>
+      <c r="F4" s="82"/>
+      <c r="G4" s="82"/>
+      <c r="H4" s="82"/>
+      <c r="I4" s="82"/>
+      <c r="J4" s="82" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="67" t="s">
+      <c r="K4" s="82" t="s">
         <v>12</v>
       </c>
-      <c r="L4" s="67"/>
-      <c r="M4" s="73" t="s">
+      <c r="L4" s="82"/>
+      <c r="M4" s="89" t="s">
         <v>43</v>
       </c>
-      <c r="N4" s="73" t="s">
+      <c r="N4" s="89" t="s">
         <v>11</v>
       </c>
-      <c r="O4" s="67" t="s">
+      <c r="O4" s="82" t="s">
         <v>8</v>
       </c>
-      <c r="P4" s="78" t="s">
+      <c r="P4" s="81" t="s">
         <v>15</v>
       </c>
-      <c r="Q4" s="67" t="s">
+      <c r="Q4" s="82" t="s">
         <v>40</v>
       </c>
-      <c r="R4" s="67" t="s">
+      <c r="R4" s="82" t="s">
         <v>62</v>
       </c>
-      <c r="S4" s="79" t="s">
+      <c r="S4" s="83" t="s">
         <v>63</v>
       </c>
       <c r="T4" s="29"/>
-      <c r="U4" s="67" t="s">
+      <c r="U4" s="82" t="s">
         <v>40</v>
       </c>
-      <c r="V4" s="67" t="s">
+      <c r="V4" s="82" t="s">
         <v>62</v>
       </c>
     </row>
     <row r="5" spans="1:22" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="72"/>
+      <c r="A5" s="88"/>
       <c r="B5" s="65" t="s">
         <v>1</v>
       </c>
@@ -1463,26 +1466,26 @@
       <c r="H5" s="65" t="s">
         <v>7</v>
       </c>
-      <c r="I5" s="95" t="s">
+      <c r="I5" s="72" t="s">
         <v>16</v>
       </c>
-      <c r="J5" s="67"/>
+      <c r="J5" s="82"/>
       <c r="K5" s="65" t="s">
         <v>13</v>
       </c>
       <c r="L5" s="65" t="s">
         <v>14</v>
       </c>
-      <c r="M5" s="74"/>
-      <c r="N5" s="74"/>
-      <c r="O5" s="67"/>
-      <c r="P5" s="78"/>
-      <c r="Q5" s="67"/>
-      <c r="R5" s="67"/>
-      <c r="S5" s="79"/>
+      <c r="M5" s="90"/>
+      <c r="N5" s="90"/>
+      <c r="O5" s="82"/>
+      <c r="P5" s="81"/>
+      <c r="Q5" s="82"/>
+      <c r="R5" s="82"/>
+      <c r="S5" s="83"/>
       <c r="T5" s="29"/>
-      <c r="U5" s="67"/>
-      <c r="V5" s="67"/>
+      <c r="U5" s="82"/>
+      <c r="V5" s="82"/>
     </row>
     <row r="6" spans="1:22" s="14" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="4">
@@ -1498,25 +1501,25 @@
       <c r="E6" s="60" t="s">
         <v>83</v>
       </c>
-      <c r="F6" s="86"/>
+      <c r="F6" s="68"/>
       <c r="G6" s="54" t="s">
         <v>82</v>
       </c>
       <c r="H6" s="11" t="s">
-        <v>116</v>
-      </c>
-      <c r="I6" s="96" t="s">
-        <v>113</v>
+        <v>115</v>
+      </c>
+      <c r="I6" s="73" t="s">
+        <v>112</v>
       </c>
       <c r="J6" s="56"/>
       <c r="K6" s="59" t="s">
+        <v>113</v>
+      </c>
+      <c r="L6" s="56" t="s">
+        <v>116</v>
+      </c>
+      <c r="M6" s="56" t="s">
         <v>114</v>
-      </c>
-      <c r="L6" s="56" t="s">
-        <v>117</v>
-      </c>
-      <c r="M6" s="56" t="s">
-        <v>115</v>
       </c>
       <c r="N6" s="58"/>
       <c r="O6" s="56"/>
@@ -1525,7 +1528,7 @@
       <c r="R6" s="54"/>
       <c r="S6" s="4"/>
       <c r="T6" s="64"/>
-      <c r="U6" s="75" t="s">
+      <c r="U6" s="78" t="s">
         <v>19</v>
       </c>
       <c r="V6" s="4" t="s">
@@ -1543,7 +1546,7 @@
       <c r="F7" s="54"/>
       <c r="G7" s="54"/>
       <c r="H7" s="54"/>
-      <c r="I7" s="96"/>
+      <c r="I7" s="73"/>
       <c r="J7" s="56"/>
       <c r="K7" s="1"/>
       <c r="L7" s="56"/>
@@ -1555,7 +1558,7 @@
       <c r="R7" s="54"/>
       <c r="S7" s="4"/>
       <c r="T7" s="64"/>
-      <c r="U7" s="76"/>
+      <c r="U7" s="79"/>
       <c r="V7" s="4" t="s">
         <v>36</v>
       </c>
@@ -1571,7 +1574,7 @@
       <c r="F8" s="54"/>
       <c r="G8" s="54"/>
       <c r="H8" s="54"/>
-      <c r="I8" s="96"/>
+      <c r="I8" s="73"/>
       <c r="J8" s="56"/>
       <c r="K8" s="57"/>
       <c r="L8" s="56"/>
@@ -1583,7 +1586,7 @@
       <c r="R8" s="54"/>
       <c r="S8" s="4"/>
       <c r="T8" s="64"/>
-      <c r="U8" s="76"/>
+      <c r="U8" s="79"/>
       <c r="V8" s="4" t="s">
         <v>22</v>
       </c>
@@ -1599,7 +1602,7 @@
       <c r="F9" s="54"/>
       <c r="G9" s="54"/>
       <c r="H9" s="2"/>
-      <c r="I9" s="96"/>
+      <c r="I9" s="73"/>
       <c r="J9" s="56"/>
       <c r="K9" s="56"/>
       <c r="L9" s="56"/>
@@ -1611,7 +1614,7 @@
       <c r="R9" s="54"/>
       <c r="S9" s="4"/>
       <c r="T9" s="64"/>
-      <c r="U9" s="76"/>
+      <c r="U9" s="79"/>
       <c r="V9" s="4" t="s">
         <v>60</v>
       </c>
@@ -1627,7 +1630,7 @@
       <c r="F10" s="54"/>
       <c r="G10" s="54"/>
       <c r="H10" s="2"/>
-      <c r="I10" s="96"/>
+      <c r="I10" s="73"/>
       <c r="J10" s="56"/>
       <c r="K10" s="1"/>
       <c r="L10" s="56"/>
@@ -1639,7 +1642,7 @@
       <c r="R10" s="54"/>
       <c r="S10" s="4"/>
       <c r="T10" s="64"/>
-      <c r="U10" s="76"/>
+      <c r="U10" s="79"/>
       <c r="V10" s="4" t="s">
         <v>32</v>
       </c>
@@ -1655,7 +1658,7 @@
       <c r="F11" s="54"/>
       <c r="G11" s="54"/>
       <c r="H11" s="2"/>
-      <c r="I11" s="96"/>
+      <c r="I11" s="73"/>
       <c r="J11" s="56"/>
       <c r="K11" s="1"/>
       <c r="L11" s="56"/>
@@ -1667,7 +1670,7 @@
       <c r="R11" s="54"/>
       <c r="S11" s="4"/>
       <c r="T11" s="64"/>
-      <c r="U11" s="76"/>
+      <c r="U11" s="79"/>
       <c r="V11" s="4" t="s">
         <v>31</v>
       </c>
@@ -1683,7 +1686,7 @@
       <c r="F12" s="54"/>
       <c r="G12" s="54"/>
       <c r="H12" s="1"/>
-      <c r="I12" s="97"/>
+      <c r="I12" s="74"/>
       <c r="J12" s="56"/>
       <c r="K12" s="1"/>
       <c r="L12" s="56"/>
@@ -1695,7 +1698,7 @@
       <c r="R12" s="54"/>
       <c r="S12" s="4"/>
       <c r="T12" s="64"/>
-      <c r="U12" s="75" t="s">
+      <c r="U12" s="78" t="s">
         <v>20</v>
       </c>
       <c r="V12" s="4" t="s">
@@ -1713,7 +1716,7 @@
       <c r="F13" s="54"/>
       <c r="G13" s="54"/>
       <c r="H13" s="15"/>
-      <c r="I13" s="96"/>
+      <c r="I13" s="73"/>
       <c r="J13" s="1"/>
       <c r="K13" s="1"/>
       <c r="L13" s="56"/>
@@ -1725,7 +1728,7 @@
       <c r="R13" s="11"/>
       <c r="S13" s="4"/>
       <c r="T13" s="64"/>
-      <c r="U13" s="76"/>
+      <c r="U13" s="79"/>
       <c r="V13" s="4" t="s">
         <v>38</v>
       </c>
@@ -1741,7 +1744,7 @@
       <c r="F14" s="54"/>
       <c r="G14" s="54"/>
       <c r="H14" s="1"/>
-      <c r="I14" s="96"/>
+      <c r="I14" s="73"/>
       <c r="J14" s="56"/>
       <c r="K14" s="1"/>
       <c r="L14" s="56"/>
@@ -1753,7 +1756,7 @@
       <c r="R14" s="54"/>
       <c r="S14" s="4"/>
       <c r="T14" s="64"/>
-      <c r="U14" s="76"/>
+      <c r="U14" s="79"/>
       <c r="V14" s="4" t="s">
         <v>37</v>
       </c>
@@ -1769,7 +1772,7 @@
       <c r="F15" s="54"/>
       <c r="G15" s="54"/>
       <c r="H15" s="1"/>
-      <c r="I15" s="97"/>
+      <c r="I15" s="74"/>
       <c r="J15" s="56"/>
       <c r="K15" s="1"/>
       <c r="L15" s="56"/>
@@ -1781,7 +1784,7 @@
       <c r="R15" s="54"/>
       <c r="S15" s="4"/>
       <c r="T15" s="16"/>
-      <c r="U15" s="76"/>
+      <c r="U15" s="79"/>
       <c r="V15" s="4" t="s">
         <v>25</v>
       </c>
@@ -1797,7 +1800,7 @@
       <c r="F16" s="54"/>
       <c r="G16" s="54"/>
       <c r="H16" s="1"/>
-      <c r="I16" s="97"/>
+      <c r="I16" s="74"/>
       <c r="J16" s="1"/>
       <c r="K16" s="1"/>
       <c r="L16" s="56"/>
@@ -1809,7 +1812,7 @@
       <c r="R16" s="54"/>
       <c r="S16" s="4"/>
       <c r="T16" s="16"/>
-      <c r="U16" s="77"/>
+      <c r="U16" s="80"/>
       <c r="V16" s="4" t="s">
         <v>26</v>
       </c>
@@ -1825,7 +1828,7 @@
       <c r="F17" s="54"/>
       <c r="G17" s="54"/>
       <c r="H17" s="1"/>
-      <c r="I17" s="96"/>
+      <c r="I17" s="73"/>
       <c r="J17" s="56"/>
       <c r="K17" s="1"/>
       <c r="L17" s="1"/>
@@ -1851,7 +1854,7 @@
       <c r="F18" s="54"/>
       <c r="G18" s="54"/>
       <c r="H18" s="1"/>
-      <c r="I18" s="97"/>
+      <c r="I18" s="74"/>
       <c r="J18" s="1"/>
       <c r="K18" s="1"/>
       <c r="L18" s="1"/>
@@ -1877,7 +1880,7 @@
       <c r="F19" s="54"/>
       <c r="G19" s="54"/>
       <c r="H19" s="1"/>
-      <c r="I19" s="97"/>
+      <c r="I19" s="74"/>
       <c r="J19" s="1"/>
       <c r="K19" s="1"/>
       <c r="L19" s="1"/>
@@ -1907,7 +1910,7 @@
       <c r="F20" s="54"/>
       <c r="G20" s="54"/>
       <c r="H20" s="1"/>
-      <c r="I20" s="97"/>
+      <c r="I20" s="74"/>
       <c r="J20" s="1"/>
       <c r="K20" s="1"/>
       <c r="L20" s="1"/>
@@ -1938,7 +1941,7 @@
       <c r="F21" s="54"/>
       <c r="G21" s="54"/>
       <c r="H21" s="1"/>
-      <c r="I21" s="97"/>
+      <c r="I21" s="74"/>
       <c r="J21" s="1"/>
       <c r="K21" s="1"/>
       <c r="L21" s="1"/>
@@ -1969,7 +1972,7 @@
       <c r="F22" s="54"/>
       <c r="G22" s="54"/>
       <c r="H22" s="11"/>
-      <c r="I22" s="97"/>
+      <c r="I22" s="74"/>
       <c r="J22" s="11"/>
       <c r="K22" s="11"/>
       <c r="L22" s="1"/>
@@ -2000,7 +2003,7 @@
       <c r="F23" s="54"/>
       <c r="G23" s="54"/>
       <c r="H23" s="11"/>
-      <c r="I23" s="97"/>
+      <c r="I23" s="74"/>
       <c r="J23" s="1"/>
       <c r="K23" s="11"/>
       <c r="L23" s="11"/>
@@ -2026,7 +2029,7 @@
       <c r="F24" s="54"/>
       <c r="G24" s="54"/>
       <c r="H24" s="11"/>
-      <c r="I24" s="97"/>
+      <c r="I24" s="74"/>
       <c r="J24" s="1"/>
       <c r="K24" s="11"/>
       <c r="L24" s="11"/>
@@ -2052,7 +2055,7 @@
       <c r="F25" s="54"/>
       <c r="G25" s="54"/>
       <c r="H25" s="11"/>
-      <c r="I25" s="97"/>
+      <c r="I25" s="74"/>
       <c r="J25" s="1"/>
       <c r="K25" s="11"/>
       <c r="L25" s="11"/>
@@ -2082,7 +2085,7 @@
       <c r="F26" s="54"/>
       <c r="G26" s="54"/>
       <c r="H26" s="11"/>
-      <c r="I26" s="97"/>
+      <c r="I26" s="74"/>
       <c r="J26" s="1"/>
       <c r="K26" s="11"/>
       <c r="L26" s="11"/>
@@ -2113,7 +2116,7 @@
       <c r="F27" s="54"/>
       <c r="G27" s="54"/>
       <c r="H27" s="11"/>
-      <c r="I27" s="97"/>
+      <c r="I27" s="74"/>
       <c r="J27" s="1"/>
       <c r="K27" s="11"/>
       <c r="L27" s="11"/>
@@ -2144,7 +2147,7 @@
       <c r="F28" s="54"/>
       <c r="G28" s="54"/>
       <c r="H28" s="1"/>
-      <c r="I28" s="97"/>
+      <c r="I28" s="74"/>
       <c r="J28" s="1"/>
       <c r="K28" s="1"/>
       <c r="L28" s="11"/>
@@ -2175,7 +2178,7 @@
       <c r="F29" s="54"/>
       <c r="G29" s="54"/>
       <c r="H29" s="1"/>
-      <c r="I29" s="97"/>
+      <c r="I29" s="74"/>
       <c r="J29" s="1"/>
       <c r="K29" s="1"/>
       <c r="L29" s="11"/>
@@ -2206,7 +2209,7 @@
       <c r="F30" s="11"/>
       <c r="G30" s="11"/>
       <c r="H30" s="1"/>
-      <c r="I30" s="97"/>
+      <c r="I30" s="74"/>
       <c r="J30" s="1"/>
       <c r="K30" s="1"/>
       <c r="L30" s="1"/>
@@ -2237,7 +2240,7 @@
       <c r="F31" s="11"/>
       <c r="G31" s="11"/>
       <c r="H31" s="1"/>
-      <c r="I31" s="97"/>
+      <c r="I31" s="74"/>
       <c r="J31" s="1"/>
       <c r="K31" s="1"/>
       <c r="L31" s="1"/>
@@ -2268,7 +2271,7 @@
       <c r="F32" s="11"/>
       <c r="G32" s="11"/>
       <c r="H32" s="1"/>
-      <c r="I32" s="97"/>
+      <c r="I32" s="74"/>
       <c r="J32" s="1"/>
       <c r="K32" s="1"/>
       <c r="L32" s="1"/>
@@ -2299,7 +2302,7 @@
       <c r="F33" s="11"/>
       <c r="G33" s="11"/>
       <c r="H33" s="1"/>
-      <c r="I33" s="97"/>
+      <c r="I33" s="74"/>
       <c r="J33" s="1"/>
       <c r="K33" s="1"/>
       <c r="L33" s="1"/>
@@ -2330,7 +2333,7 @@
       <c r="F34" s="11"/>
       <c r="G34" s="11"/>
       <c r="H34" s="1"/>
-      <c r="I34" s="97"/>
+      <c r="I34" s="74"/>
       <c r="J34" s="1"/>
       <c r="K34" s="1"/>
       <c r="L34" s="1"/>
@@ -2361,7 +2364,7 @@
       <c r="F35" s="11"/>
       <c r="G35" s="11"/>
       <c r="H35" s="1"/>
-      <c r="I35" s="97"/>
+      <c r="I35" s="74"/>
       <c r="J35" s="1"/>
       <c r="K35" s="1"/>
       <c r="L35" s="1"/>
@@ -2392,7 +2395,7 @@
       <c r="F36" s="11"/>
       <c r="G36" s="11"/>
       <c r="H36" s="1"/>
-      <c r="I36" s="97"/>
+      <c r="I36" s="74"/>
       <c r="J36" s="1"/>
       <c r="K36" s="1"/>
       <c r="L36" s="1"/>
@@ -2423,7 +2426,7 @@
       <c r="F37" s="11"/>
       <c r="G37" s="11"/>
       <c r="H37" s="1"/>
-      <c r="I37" s="97"/>
+      <c r="I37" s="74"/>
       <c r="J37" s="1"/>
       <c r="K37" s="1"/>
       <c r="L37" s="1"/>
@@ -2454,7 +2457,7 @@
       <c r="F38" s="11"/>
       <c r="G38" s="11"/>
       <c r="H38" s="1"/>
-      <c r="I38" s="97"/>
+      <c r="I38" s="74"/>
       <c r="J38" s="1"/>
       <c r="K38" s="1"/>
       <c r="L38" s="1"/>
@@ -2480,7 +2483,7 @@
       <c r="F39" s="11"/>
       <c r="G39" s="11"/>
       <c r="H39" s="1"/>
-      <c r="I39" s="97"/>
+      <c r="I39" s="74"/>
       <c r="J39" s="1"/>
       <c r="K39" s="1"/>
       <c r="L39" s="1"/>
@@ -2506,7 +2509,7 @@
       <c r="F40" s="11"/>
       <c r="G40" s="11"/>
       <c r="H40" s="1"/>
-      <c r="I40" s="97"/>
+      <c r="I40" s="74"/>
       <c r="J40" s="1"/>
       <c r="K40" s="1"/>
       <c r="L40" s="1"/>
@@ -2537,7 +2540,7 @@
       <c r="F41" s="11"/>
       <c r="G41" s="11"/>
       <c r="H41" s="1"/>
-      <c r="I41" s="97"/>
+      <c r="I41" s="74"/>
       <c r="J41" s="1"/>
       <c r="K41" s="1"/>
       <c r="L41" s="1"/>
@@ -2568,7 +2571,7 @@
       <c r="F42" s="11"/>
       <c r="G42" s="11"/>
       <c r="H42" s="1"/>
-      <c r="I42" s="97"/>
+      <c r="I42" s="74"/>
       <c r="J42" s="1"/>
       <c r="K42" s="1"/>
       <c r="L42" s="1"/>
@@ -2594,7 +2597,7 @@
       <c r="F43" s="11"/>
       <c r="G43" s="11"/>
       <c r="H43" s="1"/>
-      <c r="I43" s="97"/>
+      <c r="I43" s="74"/>
       <c r="J43" s="1"/>
       <c r="K43" s="1"/>
       <c r="L43" s="1"/>
@@ -2620,7 +2623,7 @@
       <c r="F44" s="11"/>
       <c r="G44" s="11"/>
       <c r="H44" s="1"/>
-      <c r="I44" s="97"/>
+      <c r="I44" s="74"/>
       <c r="J44" s="1"/>
       <c r="K44" s="1"/>
       <c r="L44" s="1"/>
@@ -2656,7 +2659,7 @@
       <c r="F45" s="11"/>
       <c r="G45" s="11"/>
       <c r="H45" s="1"/>
-      <c r="I45" s="97"/>
+      <c r="I45" s="74"/>
       <c r="J45" s="1"/>
       <c r="K45" s="1"/>
       <c r="L45" s="1"/>
@@ -2692,7 +2695,7 @@
       <c r="F46" s="11"/>
       <c r="G46" s="11"/>
       <c r="H46" s="1"/>
-      <c r="I46" s="97"/>
+      <c r="I46" s="74"/>
       <c r="J46" s="1"/>
       <c r="K46" s="1"/>
       <c r="L46" s="1"/>
@@ -2731,7 +2734,7 @@
       <c r="F47" s="11"/>
       <c r="G47" s="11"/>
       <c r="H47" s="1"/>
-      <c r="I47" s="97"/>
+      <c r="I47" s="74"/>
       <c r="J47" s="1"/>
       <c r="K47" s="1"/>
       <c r="L47" s="1"/>
@@ -2770,7 +2773,7 @@
       <c r="F48" s="11"/>
       <c r="G48" s="11"/>
       <c r="H48" s="1"/>
-      <c r="I48" s="97"/>
+      <c r="I48" s="74"/>
       <c r="J48" s="1"/>
       <c r="K48" s="1"/>
       <c r="L48" s="1"/>
@@ -2812,7 +2815,7 @@
       <c r="F49" s="11"/>
       <c r="G49" s="11"/>
       <c r="H49" s="1"/>
-      <c r="I49" s="97"/>
+      <c r="I49" s="74"/>
       <c r="J49" s="1"/>
       <c r="K49" s="1"/>
       <c r="L49" s="1"/>
@@ -2824,9 +2827,9 @@
       <c r="R49" s="11"/>
       <c r="S49" s="4"/>
       <c r="T49" s="39"/>
-      <c r="U49" s="85"/>
-      <c r="V49" s="85"/>
-      <c r="W49" s="85"/>
+      <c r="U49" s="67"/>
+      <c r="V49" s="67"/>
+      <c r="W49" s="67"/>
       <c r="X49" s="37"/>
     </row>
     <row r="50" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -2840,7 +2843,7 @@
       <c r="F50" s="66"/>
       <c r="G50" s="66"/>
       <c r="H50" s="36"/>
-      <c r="I50" s="98"/>
+      <c r="I50" s="75"/>
       <c r="J50" s="36"/>
       <c r="K50" s="36"/>
       <c r="L50" s="36"/>
@@ -2852,9 +2855,9 @@
       <c r="R50" s="66"/>
       <c r="S50" s="33"/>
       <c r="T50" s="39"/>
-      <c r="U50" s="85"/>
-      <c r="V50" s="85"/>
-      <c r="W50" s="85"/>
+      <c r="U50" s="67"/>
+      <c r="V50" s="67"/>
+      <c r="W50" s="67"/>
       <c r="X50" s="37"/>
     </row>
     <row r="51" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -2868,7 +2871,7 @@
       <c r="F51" s="11"/>
       <c r="G51" s="11"/>
       <c r="H51" s="1"/>
-      <c r="I51" s="97"/>
+      <c r="I51" s="74"/>
       <c r="J51" s="1"/>
       <c r="K51" s="1"/>
       <c r="L51" s="1"/>
@@ -2880,9 +2883,9 @@
       <c r="R51" s="11"/>
       <c r="S51" s="11"/>
       <c r="T51" s="39"/>
-      <c r="U51" s="85"/>
-      <c r="V51" s="85"/>
-      <c r="W51" s="85"/>
+      <c r="U51" s="67"/>
+      <c r="V51" s="67"/>
+      <c r="W51" s="67"/>
       <c r="X51" s="37"/>
     </row>
     <row r="52" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -2896,7 +2899,7 @@
       <c r="F52" s="37"/>
       <c r="G52" s="37"/>
       <c r="H52" s="37"/>
-      <c r="I52" s="99"/>
+      <c r="I52" s="76"/>
       <c r="J52" s="37"/>
       <c r="K52" s="37"/>
       <c r="L52" s="38"/>
@@ -2908,9 +2911,9 @@
       <c r="R52" s="37"/>
       <c r="S52" s="37"/>
       <c r="T52" s="39"/>
-      <c r="U52" s="85"/>
-      <c r="V52" s="85"/>
-      <c r="W52" s="85"/>
+      <c r="U52" s="67"/>
+      <c r="V52" s="67"/>
+      <c r="W52" s="67"/>
       <c r="X52" s="37"/>
     </row>
     <row r="53" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -2924,7 +2927,7 @@
       <c r="F53" s="37"/>
       <c r="G53" s="37"/>
       <c r="H53" s="37"/>
-      <c r="I53" s="99"/>
+      <c r="I53" s="76"/>
       <c r="J53" s="37"/>
       <c r="K53" s="37"/>
       <c r="L53" s="38"/>
@@ -2936,9 +2939,9 @@
       <c r="R53" s="37"/>
       <c r="S53" s="37"/>
       <c r="T53" s="39"/>
-      <c r="U53" s="85"/>
-      <c r="V53" s="85"/>
-      <c r="W53" s="85"/>
+      <c r="U53" s="67"/>
+      <c r="V53" s="67"/>
+      <c r="W53" s="67"/>
       <c r="X53" s="37"/>
     </row>
     <row r="54" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -2952,7 +2955,7 @@
       <c r="F54" s="37"/>
       <c r="G54" s="37"/>
       <c r="H54" s="37"/>
-      <c r="I54" s="99"/>
+      <c r="I54" s="76"/>
       <c r="J54" s="37"/>
       <c r="K54" s="37"/>
       <c r="L54" s="38"/>
@@ -2964,9 +2967,9 @@
       <c r="R54" s="37"/>
       <c r="S54" s="37"/>
       <c r="T54" s="39"/>
-      <c r="U54" s="85"/>
-      <c r="V54" s="85"/>
-      <c r="W54" s="85"/>
+      <c r="U54" s="67"/>
+      <c r="V54" s="67"/>
+      <c r="W54" s="67"/>
       <c r="X54" s="37"/>
     </row>
     <row r="55" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -2980,7 +2983,7 @@
       <c r="F55" s="37"/>
       <c r="G55" s="37"/>
       <c r="H55" s="37"/>
-      <c r="I55" s="99"/>
+      <c r="I55" s="76"/>
       <c r="J55" s="37"/>
       <c r="K55" s="37"/>
       <c r="L55" s="38"/>
@@ -2992,9 +2995,9 @@
       <c r="R55" s="37"/>
       <c r="S55" s="37"/>
       <c r="T55" s="42"/>
-      <c r="U55" s="85"/>
-      <c r="V55" s="85"/>
-      <c r="W55" s="85"/>
+      <c r="U55" s="67"/>
+      <c r="V55" s="67"/>
+      <c r="W55" s="67"/>
       <c r="X55" s="37"/>
     </row>
     <row r="56" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -3007,13 +3010,6 @@
     </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="U6:U11"/>
-    <mergeCell ref="U12:U16"/>
-    <mergeCell ref="P4:P5"/>
-    <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="R4:R5"/>
-    <mergeCell ref="S4:S5"/>
-    <mergeCell ref="U4:U5"/>
     <mergeCell ref="V4:V5"/>
     <mergeCell ref="A1:V1"/>
     <mergeCell ref="A2:D2"/>
@@ -3025,6 +3021,13 @@
     <mergeCell ref="M4:M5"/>
     <mergeCell ref="N4:N5"/>
     <mergeCell ref="O4:O5"/>
+    <mergeCell ref="U6:U11"/>
+    <mergeCell ref="U12:U16"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="S4:S5"/>
+    <mergeCell ref="U4:U5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -3036,7 +3039,7 @@
   <dimension ref="A1:X57"/>
   <sheetViews>
     <sheetView showZeros="0" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6:E6"/>
+      <selection activeCell="H53" sqref="H53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -3049,7 +3052,7 @@
     <col min="6" max="6" width="15.85546875" style="22" customWidth="1"/>
     <col min="7" max="7" width="17" style="22" customWidth="1"/>
     <col min="8" max="8" width="35.42578125" style="22" customWidth="1"/>
-    <col min="9" max="9" width="45.28515625" style="100" customWidth="1"/>
+    <col min="9" max="9" width="45.28515625" style="77" customWidth="1"/>
     <col min="10" max="10" width="53" style="22" customWidth="1"/>
     <col min="11" max="11" width="33.42578125" style="22" customWidth="1"/>
     <col min="12" max="12" width="30.7109375" style="28" customWidth="1"/>
@@ -3069,45 +3072,45 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:22" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="68" t="s">
+      <c r="A1" s="84" t="s">
         <v>67</v>
       </c>
-      <c r="B1" s="68"/>
-      <c r="C1" s="68"/>
-      <c r="D1" s="68"/>
-      <c r="E1" s="68"/>
-      <c r="F1" s="68"/>
-      <c r="G1" s="68"/>
-      <c r="H1" s="68"/>
-      <c r="I1" s="68"/>
-      <c r="J1" s="68"/>
-      <c r="K1" s="68"/>
-      <c r="L1" s="68"/>
-      <c r="M1" s="68"/>
-      <c r="N1" s="68"/>
-      <c r="O1" s="68"/>
-      <c r="P1" s="68"/>
-      <c r="Q1" s="68"/>
-      <c r="R1" s="68"/>
-      <c r="S1" s="68"/>
-      <c r="T1" s="68"/>
-      <c r="U1" s="68"/>
-      <c r="V1" s="68"/>
+      <c r="B1" s="84"/>
+      <c r="C1" s="84"/>
+      <c r="D1" s="84"/>
+      <c r="E1" s="84"/>
+      <c r="F1" s="84"/>
+      <c r="G1" s="84"/>
+      <c r="H1" s="84"/>
+      <c r="I1" s="84"/>
+      <c r="J1" s="84"/>
+      <c r="K1" s="84"/>
+      <c r="L1" s="84"/>
+      <c r="M1" s="84"/>
+      <c r="N1" s="84"/>
+      <c r="O1" s="84"/>
+      <c r="P1" s="84"/>
+      <c r="Q1" s="84"/>
+      <c r="R1" s="84"/>
+      <c r="S1" s="84"/>
+      <c r="T1" s="84"/>
+      <c r="U1" s="84"/>
+      <c r="V1" s="84"/>
     </row>
     <row r="2" spans="1:22" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="69" t="s">
+      <c r="A2" s="85" t="s">
         <v>10</v>
       </c>
-      <c r="B2" s="70"/>
-      <c r="C2" s="70"/>
-      <c r="D2" s="70"/>
-      <c r="E2" s="71" t="s">
+      <c r="B2" s="86"/>
+      <c r="C2" s="86"/>
+      <c r="D2" s="86"/>
+      <c r="E2" s="87" t="s">
         <v>68</v>
       </c>
-      <c r="F2" s="71"/>
+      <c r="F2" s="87"/>
       <c r="G2" s="6"/>
       <c r="H2" s="23"/>
-      <c r="I2" s="93"/>
+      <c r="I2" s="70"/>
       <c r="J2" s="23"/>
       <c r="K2" s="23"/>
       <c r="L2" s="24"/>
@@ -3131,7 +3134,7 @@
       <c r="F3" s="8"/>
       <c r="G3" s="8"/>
       <c r="H3" s="8"/>
-      <c r="I3" s="94"/>
+      <c r="I3" s="71"/>
       <c r="J3" s="8"/>
       <c r="K3" s="8"/>
       <c r="L3" s="9"/>
@@ -3147,57 +3150,57 @@
       <c r="V3" s="30"/>
     </row>
     <row r="4" spans="1:22" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="72" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="67" t="s">
+      <c r="A4" s="88" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="82" t="s">
         <v>9</v>
       </c>
-      <c r="C4" s="67"/>
-      <c r="D4" s="67"/>
-      <c r="E4" s="67"/>
-      <c r="F4" s="67"/>
-      <c r="G4" s="67"/>
-      <c r="H4" s="67"/>
-      <c r="I4" s="67"/>
-      <c r="J4" s="67" t="s">
+      <c r="C4" s="82"/>
+      <c r="D4" s="82"/>
+      <c r="E4" s="82"/>
+      <c r="F4" s="82"/>
+      <c r="G4" s="82"/>
+      <c r="H4" s="82"/>
+      <c r="I4" s="82"/>
+      <c r="J4" s="82" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="67" t="s">
+      <c r="K4" s="82" t="s">
         <v>12</v>
       </c>
-      <c r="L4" s="67"/>
-      <c r="M4" s="73" t="s">
+      <c r="L4" s="82"/>
+      <c r="M4" s="89" t="s">
         <v>43</v>
       </c>
-      <c r="N4" s="73" t="s">
+      <c r="N4" s="89" t="s">
         <v>11</v>
       </c>
-      <c r="O4" s="67" t="s">
+      <c r="O4" s="82" t="s">
         <v>8</v>
       </c>
-      <c r="P4" s="78" t="s">
+      <c r="P4" s="81" t="s">
         <v>15</v>
       </c>
-      <c r="Q4" s="67" t="s">
+      <c r="Q4" s="82" t="s">
         <v>40</v>
       </c>
-      <c r="R4" s="67" t="s">
+      <c r="R4" s="82" t="s">
         <v>62</v>
       </c>
-      <c r="S4" s="79" t="s">
+      <c r="S4" s="83" t="s">
         <v>63</v>
       </c>
       <c r="T4" s="29"/>
-      <c r="U4" s="67" t="s">
+      <c r="U4" s="82" t="s">
         <v>40</v>
       </c>
-      <c r="V4" s="67" t="s">
+      <c r="V4" s="82" t="s">
         <v>62</v>
       </c>
     </row>
     <row r="5" spans="1:22" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="72"/>
+      <c r="A5" s="88"/>
       <c r="B5" s="65" t="s">
         <v>1</v>
       </c>
@@ -3219,26 +3222,26 @@
       <c r="H5" s="65" t="s">
         <v>7</v>
       </c>
-      <c r="I5" s="95" t="s">
+      <c r="I5" s="72" t="s">
         <v>16</v>
       </c>
-      <c r="J5" s="67"/>
+      <c r="J5" s="82"/>
       <c r="K5" s="65" t="s">
         <v>13</v>
       </c>
       <c r="L5" s="65" t="s">
         <v>14</v>
       </c>
-      <c r="M5" s="74"/>
-      <c r="N5" s="74"/>
-      <c r="O5" s="67"/>
-      <c r="P5" s="78"/>
-      <c r="Q5" s="67"/>
-      <c r="R5" s="67"/>
-      <c r="S5" s="79"/>
+      <c r="M5" s="90"/>
+      <c r="N5" s="90"/>
+      <c r="O5" s="82"/>
+      <c r="P5" s="81"/>
+      <c r="Q5" s="82"/>
+      <c r="R5" s="82"/>
+      <c r="S5" s="83"/>
       <c r="T5" s="29"/>
-      <c r="U5" s="67"/>
-      <c r="V5" s="67"/>
+      <c r="U5" s="82"/>
+      <c r="V5" s="82"/>
     </row>
     <row r="6" spans="1:22" s="14" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="4">
@@ -3254,18 +3257,18 @@
       <c r="E6" s="55">
         <v>867717030417993</v>
       </c>
-      <c r="F6" s="86"/>
+      <c r="F6" s="68"/>
       <c r="G6" s="54" t="s">
         <v>82</v>
       </c>
       <c r="H6" s="11"/>
-      <c r="I6" s="96" t="s">
+      <c r="I6" s="73" t="s">
         <v>85</v>
       </c>
       <c r="J6" s="56" t="s">
-        <v>95</v>
-      </c>
-      <c r="K6" s="92" t="s">
+        <v>94</v>
+      </c>
+      <c r="K6" s="69" t="s">
         <v>86</v>
       </c>
       <c r="L6" s="56"/>
@@ -3277,7 +3280,7 @@
       <c r="R6" s="54"/>
       <c r="S6" s="4"/>
       <c r="T6" s="64"/>
-      <c r="U6" s="75" t="s">
+      <c r="U6" s="78" t="s">
         <v>19</v>
       </c>
       <c r="V6" s="4" t="s">
@@ -3298,23 +3301,23 @@
       <c r="E7" s="55">
         <v>867717030624812</v>
       </c>
-      <c r="F7" s="86"/>
+      <c r="F7" s="68"/>
       <c r="G7" s="54" t="s">
         <v>82</v>
       </c>
       <c r="H7" s="54"/>
-      <c r="I7" s="96"/>
+      <c r="I7" s="73"/>
       <c r="J7" s="56" t="s">
         <v>84</v>
       </c>
       <c r="K7" s="1"/>
       <c r="L7" s="56"/>
       <c r="M7" s="56" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="N7" s="1"/>
       <c r="O7" s="56" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="P7" s="1" t="s">
         <v>76</v>
@@ -3327,7 +3330,7 @@
       </c>
       <c r="S7" s="4"/>
       <c r="T7" s="64"/>
-      <c r="U7" s="76"/>
+      <c r="U7" s="79"/>
       <c r="V7" s="4" t="s">
         <v>36</v>
       </c>
@@ -3343,7 +3346,7 @@
       <c r="F8" s="54"/>
       <c r="G8" s="54"/>
       <c r="H8" s="54"/>
-      <c r="I8" s="96"/>
+      <c r="I8" s="73"/>
       <c r="J8" s="56"/>
       <c r="K8" s="57"/>
       <c r="L8" s="56"/>
@@ -3355,7 +3358,7 @@
       <c r="R8" s="54"/>
       <c r="S8" s="4"/>
       <c r="T8" s="64"/>
-      <c r="U8" s="76"/>
+      <c r="U8" s="79"/>
       <c r="V8" s="4" t="s">
         <v>22</v>
       </c>
@@ -3371,7 +3374,7 @@
       <c r="F9" s="54"/>
       <c r="G9" s="54"/>
       <c r="H9" s="2"/>
-      <c r="I9" s="96"/>
+      <c r="I9" s="73"/>
       <c r="J9" s="56"/>
       <c r="K9" s="56"/>
       <c r="L9" s="56"/>
@@ -3383,7 +3386,7 @@
       <c r="R9" s="54"/>
       <c r="S9" s="4"/>
       <c r="T9" s="64"/>
-      <c r="U9" s="76"/>
+      <c r="U9" s="79"/>
       <c r="V9" s="4" t="s">
         <v>60</v>
       </c>
@@ -3399,7 +3402,7 @@
       <c r="F10" s="54"/>
       <c r="G10" s="54"/>
       <c r="H10" s="2"/>
-      <c r="I10" s="96"/>
+      <c r="I10" s="73"/>
       <c r="J10" s="56"/>
       <c r="K10" s="1"/>
       <c r="L10" s="56"/>
@@ -3411,7 +3414,7 @@
       <c r="R10" s="54"/>
       <c r="S10" s="4"/>
       <c r="T10" s="64"/>
-      <c r="U10" s="76"/>
+      <c r="U10" s="79"/>
       <c r="V10" s="4" t="s">
         <v>32</v>
       </c>
@@ -3427,7 +3430,7 @@
       <c r="F11" s="54"/>
       <c r="G11" s="54"/>
       <c r="H11" s="2"/>
-      <c r="I11" s="96"/>
+      <c r="I11" s="73"/>
       <c r="J11" s="56"/>
       <c r="K11" s="1"/>
       <c r="L11" s="56"/>
@@ -3439,7 +3442,7 @@
       <c r="R11" s="54"/>
       <c r="S11" s="4"/>
       <c r="T11" s="64"/>
-      <c r="U11" s="76"/>
+      <c r="U11" s="79"/>
       <c r="V11" s="4" t="s">
         <v>31</v>
       </c>
@@ -3455,7 +3458,7 @@
       <c r="F12" s="54"/>
       <c r="G12" s="54"/>
       <c r="H12" s="1"/>
-      <c r="I12" s="97"/>
+      <c r="I12" s="74"/>
       <c r="J12" s="56"/>
       <c r="K12" s="1"/>
       <c r="L12" s="56"/>
@@ -3467,7 +3470,7 @@
       <c r="R12" s="54"/>
       <c r="S12" s="4"/>
       <c r="T12" s="64"/>
-      <c r="U12" s="75" t="s">
+      <c r="U12" s="78" t="s">
         <v>20</v>
       </c>
       <c r="V12" s="4" t="s">
@@ -3485,7 +3488,7 @@
       <c r="F13" s="54"/>
       <c r="G13" s="54"/>
       <c r="H13" s="15"/>
-      <c r="I13" s="96"/>
+      <c r="I13" s="73"/>
       <c r="J13" s="1"/>
       <c r="K13" s="1"/>
       <c r="L13" s="56"/>
@@ -3497,7 +3500,7 @@
       <c r="R13" s="11"/>
       <c r="S13" s="4"/>
       <c r="T13" s="64"/>
-      <c r="U13" s="76"/>
+      <c r="U13" s="79"/>
       <c r="V13" s="4" t="s">
         <v>38</v>
       </c>
@@ -3513,7 +3516,7 @@
       <c r="F14" s="54"/>
       <c r="G14" s="54"/>
       <c r="H14" s="1"/>
-      <c r="I14" s="96"/>
+      <c r="I14" s="73"/>
       <c r="J14" s="56"/>
       <c r="K14" s="1"/>
       <c r="L14" s="56"/>
@@ -3525,7 +3528,7 @@
       <c r="R14" s="54"/>
       <c r="S14" s="4"/>
       <c r="T14" s="64"/>
-      <c r="U14" s="76"/>
+      <c r="U14" s="79"/>
       <c r="V14" s="4" t="s">
         <v>37</v>
       </c>
@@ -3541,7 +3544,7 @@
       <c r="F15" s="54"/>
       <c r="G15" s="54"/>
       <c r="H15" s="1"/>
-      <c r="I15" s="97"/>
+      <c r="I15" s="74"/>
       <c r="J15" s="56"/>
       <c r="K15" s="1"/>
       <c r="L15" s="56"/>
@@ -3553,7 +3556,7 @@
       <c r="R15" s="54"/>
       <c r="S15" s="4"/>
       <c r="T15" s="16"/>
-      <c r="U15" s="76"/>
+      <c r="U15" s="79"/>
       <c r="V15" s="4" t="s">
         <v>25</v>
       </c>
@@ -3569,7 +3572,7 @@
       <c r="F16" s="54"/>
       <c r="G16" s="54"/>
       <c r="H16" s="1"/>
-      <c r="I16" s="97"/>
+      <c r="I16" s="74"/>
       <c r="J16" s="1"/>
       <c r="K16" s="1"/>
       <c r="L16" s="56"/>
@@ -3581,7 +3584,7 @@
       <c r="R16" s="54"/>
       <c r="S16" s="4"/>
       <c r="T16" s="16"/>
-      <c r="U16" s="77"/>
+      <c r="U16" s="80"/>
       <c r="V16" s="4" t="s">
         <v>26</v>
       </c>
@@ -3597,7 +3600,7 @@
       <c r="F17" s="54"/>
       <c r="G17" s="54"/>
       <c r="H17" s="1"/>
-      <c r="I17" s="96"/>
+      <c r="I17" s="73"/>
       <c r="J17" s="56"/>
       <c r="K17" s="1"/>
       <c r="L17" s="1"/>
@@ -3623,7 +3626,7 @@
       <c r="F18" s="54"/>
       <c r="G18" s="54"/>
       <c r="H18" s="1"/>
-      <c r="I18" s="97"/>
+      <c r="I18" s="74"/>
       <c r="J18" s="1"/>
       <c r="K18" s="1"/>
       <c r="L18" s="1"/>
@@ -3649,7 +3652,7 @@
       <c r="F19" s="54"/>
       <c r="G19" s="54"/>
       <c r="H19" s="1"/>
-      <c r="I19" s="97"/>
+      <c r="I19" s="74"/>
       <c r="J19" s="1"/>
       <c r="K19" s="1"/>
       <c r="L19" s="1"/>
@@ -3679,7 +3682,7 @@
       <c r="F20" s="54"/>
       <c r="G20" s="54"/>
       <c r="H20" s="1"/>
-      <c r="I20" s="97"/>
+      <c r="I20" s="74"/>
       <c r="J20" s="1"/>
       <c r="K20" s="1"/>
       <c r="L20" s="1"/>
@@ -3710,7 +3713,7 @@
       <c r="F21" s="54"/>
       <c r="G21" s="54"/>
       <c r="H21" s="1"/>
-      <c r="I21" s="97"/>
+      <c r="I21" s="74"/>
       <c r="J21" s="1"/>
       <c r="K21" s="1"/>
       <c r="L21" s="1"/>
@@ -3741,7 +3744,7 @@
       <c r="F22" s="54"/>
       <c r="G22" s="54"/>
       <c r="H22" s="11"/>
-      <c r="I22" s="97"/>
+      <c r="I22" s="74"/>
       <c r="J22" s="11"/>
       <c r="K22" s="11"/>
       <c r="L22" s="1"/>
@@ -3772,7 +3775,7 @@
       <c r="F23" s="54"/>
       <c r="G23" s="54"/>
       <c r="H23" s="11"/>
-      <c r="I23" s="97"/>
+      <c r="I23" s="74"/>
       <c r="J23" s="1"/>
       <c r="K23" s="11"/>
       <c r="L23" s="11"/>
@@ -3798,7 +3801,7 @@
       <c r="F24" s="54"/>
       <c r="G24" s="54"/>
       <c r="H24" s="11"/>
-      <c r="I24" s="97"/>
+      <c r="I24" s="74"/>
       <c r="J24" s="1"/>
       <c r="K24" s="11"/>
       <c r="L24" s="11"/>
@@ -3824,7 +3827,7 @@
       <c r="F25" s="54"/>
       <c r="G25" s="54"/>
       <c r="H25" s="11"/>
-      <c r="I25" s="97"/>
+      <c r="I25" s="74"/>
       <c r="J25" s="1"/>
       <c r="K25" s="11"/>
       <c r="L25" s="11"/>
@@ -3854,7 +3857,7 @@
       <c r="F26" s="54"/>
       <c r="G26" s="54"/>
       <c r="H26" s="11"/>
-      <c r="I26" s="97"/>
+      <c r="I26" s="74"/>
       <c r="J26" s="1"/>
       <c r="K26" s="11"/>
       <c r="L26" s="11"/>
@@ -3885,7 +3888,7 @@
       <c r="F27" s="54"/>
       <c r="G27" s="54"/>
       <c r="H27" s="11"/>
-      <c r="I27" s="97"/>
+      <c r="I27" s="74"/>
       <c r="J27" s="1"/>
       <c r="K27" s="11"/>
       <c r="L27" s="11"/>
@@ -3916,7 +3919,7 @@
       <c r="F28" s="54"/>
       <c r="G28" s="54"/>
       <c r="H28" s="1"/>
-      <c r="I28" s="97"/>
+      <c r="I28" s="74"/>
       <c r="J28" s="1"/>
       <c r="K28" s="1"/>
       <c r="L28" s="11"/>
@@ -3947,7 +3950,7 @@
       <c r="F29" s="54"/>
       <c r="G29" s="54"/>
       <c r="H29" s="1"/>
-      <c r="I29" s="97"/>
+      <c r="I29" s="74"/>
       <c r="J29" s="1"/>
       <c r="K29" s="1"/>
       <c r="L29" s="11"/>
@@ -3978,7 +3981,7 @@
       <c r="F30" s="11"/>
       <c r="G30" s="11"/>
       <c r="H30" s="1"/>
-      <c r="I30" s="97"/>
+      <c r="I30" s="74"/>
       <c r="J30" s="1"/>
       <c r="K30" s="1"/>
       <c r="L30" s="1"/>
@@ -4009,7 +4012,7 @@
       <c r="F31" s="11"/>
       <c r="G31" s="11"/>
       <c r="H31" s="1"/>
-      <c r="I31" s="97"/>
+      <c r="I31" s="74"/>
       <c r="J31" s="1"/>
       <c r="K31" s="1"/>
       <c r="L31" s="1"/>
@@ -4040,7 +4043,7 @@
       <c r="F32" s="11"/>
       <c r="G32" s="11"/>
       <c r="H32" s="1"/>
-      <c r="I32" s="97"/>
+      <c r="I32" s="74"/>
       <c r="J32" s="1"/>
       <c r="K32" s="1"/>
       <c r="L32" s="1"/>
@@ -4071,7 +4074,7 @@
       <c r="F33" s="11"/>
       <c r="G33" s="11"/>
       <c r="H33" s="1"/>
-      <c r="I33" s="97"/>
+      <c r="I33" s="74"/>
       <c r="J33" s="1"/>
       <c r="K33" s="1"/>
       <c r="L33" s="1"/>
@@ -4102,7 +4105,7 @@
       <c r="F34" s="11"/>
       <c r="G34" s="11"/>
       <c r="H34" s="1"/>
-      <c r="I34" s="97"/>
+      <c r="I34" s="74"/>
       <c r="J34" s="1"/>
       <c r="K34" s="1"/>
       <c r="L34" s="1"/>
@@ -4133,7 +4136,7 @@
       <c r="F35" s="11"/>
       <c r="G35" s="11"/>
       <c r="H35" s="1"/>
-      <c r="I35" s="97"/>
+      <c r="I35" s="74"/>
       <c r="J35" s="1"/>
       <c r="K35" s="1"/>
       <c r="L35" s="1"/>
@@ -4164,7 +4167,7 @@
       <c r="F36" s="11"/>
       <c r="G36" s="11"/>
       <c r="H36" s="1"/>
-      <c r="I36" s="97"/>
+      <c r="I36" s="74"/>
       <c r="J36" s="1"/>
       <c r="K36" s="1"/>
       <c r="L36" s="1"/>
@@ -4195,7 +4198,7 @@
       <c r="F37" s="11"/>
       <c r="G37" s="11"/>
       <c r="H37" s="1"/>
-      <c r="I37" s="97"/>
+      <c r="I37" s="74"/>
       <c r="J37" s="1"/>
       <c r="K37" s="1"/>
       <c r="L37" s="1"/>
@@ -4226,7 +4229,7 @@
       <c r="F38" s="11"/>
       <c r="G38" s="11"/>
       <c r="H38" s="1"/>
-      <c r="I38" s="97"/>
+      <c r="I38" s="74"/>
       <c r="J38" s="1"/>
       <c r="K38" s="1"/>
       <c r="L38" s="1"/>
@@ -4252,7 +4255,7 @@
       <c r="F39" s="11"/>
       <c r="G39" s="11"/>
       <c r="H39" s="1"/>
-      <c r="I39" s="97"/>
+      <c r="I39" s="74"/>
       <c r="J39" s="1"/>
       <c r="K39" s="1"/>
       <c r="L39" s="1"/>
@@ -4278,7 +4281,7 @@
       <c r="F40" s="11"/>
       <c r="G40" s="11"/>
       <c r="H40" s="1"/>
-      <c r="I40" s="97"/>
+      <c r="I40" s="74"/>
       <c r="J40" s="1"/>
       <c r="K40" s="1"/>
       <c r="L40" s="1"/>
@@ -4309,7 +4312,7 @@
       <c r="F41" s="11"/>
       <c r="G41" s="11"/>
       <c r="H41" s="1"/>
-      <c r="I41" s="97"/>
+      <c r="I41" s="74"/>
       <c r="J41" s="1"/>
       <c r="K41" s="1"/>
       <c r="L41" s="1"/>
@@ -4340,7 +4343,7 @@
       <c r="F42" s="11"/>
       <c r="G42" s="11"/>
       <c r="H42" s="1"/>
-      <c r="I42" s="97"/>
+      <c r="I42" s="74"/>
       <c r="J42" s="1"/>
       <c r="K42" s="1"/>
       <c r="L42" s="1"/>
@@ -4366,7 +4369,7 @@
       <c r="F43" s="11"/>
       <c r="G43" s="11"/>
       <c r="H43" s="1"/>
-      <c r="I43" s="97"/>
+      <c r="I43" s="74"/>
       <c r="J43" s="1"/>
       <c r="K43" s="1"/>
       <c r="L43" s="1"/>
@@ -4392,7 +4395,7 @@
       <c r="F44" s="11"/>
       <c r="G44" s="11"/>
       <c r="H44" s="1"/>
-      <c r="I44" s="97"/>
+      <c r="I44" s="74"/>
       <c r="J44" s="1"/>
       <c r="K44" s="1"/>
       <c r="L44" s="1"/>
@@ -4428,7 +4431,7 @@
       <c r="F45" s="11"/>
       <c r="G45" s="11"/>
       <c r="H45" s="1"/>
-      <c r="I45" s="97"/>
+      <c r="I45" s="74"/>
       <c r="J45" s="1"/>
       <c r="K45" s="1"/>
       <c r="L45" s="1"/>
@@ -4464,7 +4467,7 @@
       <c r="F46" s="11"/>
       <c r="G46" s="11"/>
       <c r="H46" s="1"/>
-      <c r="I46" s="97"/>
+      <c r="I46" s="74"/>
       <c r="J46" s="1"/>
       <c r="K46" s="1"/>
       <c r="L46" s="1"/>
@@ -4503,7 +4506,7 @@
       <c r="F47" s="11"/>
       <c r="G47" s="11"/>
       <c r="H47" s="1"/>
-      <c r="I47" s="97"/>
+      <c r="I47" s="74"/>
       <c r="J47" s="1"/>
       <c r="K47" s="1"/>
       <c r="L47" s="1"/>
@@ -4542,7 +4545,7 @@
       <c r="F48" s="11"/>
       <c r="G48" s="11"/>
       <c r="H48" s="1"/>
-      <c r="I48" s="97"/>
+      <c r="I48" s="74"/>
       <c r="J48" s="1"/>
       <c r="K48" s="1"/>
       <c r="L48" s="1"/>
@@ -4584,7 +4587,7 @@
       <c r="F49" s="11"/>
       <c r="G49" s="11"/>
       <c r="H49" s="1"/>
-      <c r="I49" s="97"/>
+      <c r="I49" s="74"/>
       <c r="J49" s="1"/>
       <c r="K49" s="1"/>
       <c r="L49" s="1"/>
@@ -4596,9 +4599,9 @@
       <c r="R49" s="11"/>
       <c r="S49" s="4"/>
       <c r="T49" s="39"/>
-      <c r="U49" s="85"/>
-      <c r="V49" s="85"/>
-      <c r="W49" s="85"/>
+      <c r="U49" s="67"/>
+      <c r="V49" s="67"/>
+      <c r="W49" s="67"/>
       <c r="X49" s="37"/>
     </row>
     <row r="50" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -4612,7 +4615,7 @@
       <c r="F50" s="66"/>
       <c r="G50" s="66"/>
       <c r="H50" s="36"/>
-      <c r="I50" s="98"/>
+      <c r="I50" s="75"/>
       <c r="J50" s="36"/>
       <c r="K50" s="36"/>
       <c r="L50" s="36"/>
@@ -4624,9 +4627,9 @@
       <c r="R50" s="66"/>
       <c r="S50" s="33"/>
       <c r="T50" s="39"/>
-      <c r="U50" s="85"/>
-      <c r="V50" s="85"/>
-      <c r="W50" s="85"/>
+      <c r="U50" s="67"/>
+      <c r="V50" s="67"/>
+      <c r="W50" s="67"/>
       <c r="X50" s="37"/>
     </row>
     <row r="51" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -4640,7 +4643,7 @@
       <c r="F51" s="11"/>
       <c r="G51" s="11"/>
       <c r="H51" s="1"/>
-      <c r="I51" s="97"/>
+      <c r="I51" s="74"/>
       <c r="J51" s="1"/>
       <c r="K51" s="1"/>
       <c r="L51" s="1"/>
@@ -4652,9 +4655,9 @@
       <c r="R51" s="11"/>
       <c r="S51" s="11"/>
       <c r="T51" s="39"/>
-      <c r="U51" s="85"/>
-      <c r="V51" s="85"/>
-      <c r="W51" s="85"/>
+      <c r="U51" s="67"/>
+      <c r="V51" s="67"/>
+      <c r="W51" s="67"/>
       <c r="X51" s="37"/>
     </row>
     <row r="52" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -4668,7 +4671,7 @@
       <c r="F52" s="37"/>
       <c r="G52" s="37"/>
       <c r="H52" s="37"/>
-      <c r="I52" s="99"/>
+      <c r="I52" s="76"/>
       <c r="J52" s="37"/>
       <c r="K52" s="37"/>
       <c r="L52" s="38"/>
@@ -4680,9 +4683,9 @@
       <c r="R52" s="37"/>
       <c r="S52" s="37"/>
       <c r="T52" s="39"/>
-      <c r="U52" s="85"/>
-      <c r="V52" s="85"/>
-      <c r="W52" s="85"/>
+      <c r="U52" s="67"/>
+      <c r="V52" s="67"/>
+      <c r="W52" s="67"/>
       <c r="X52" s="37"/>
     </row>
     <row r="53" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -4696,7 +4699,7 @@
       <c r="F53" s="37"/>
       <c r="G53" s="37"/>
       <c r="H53" s="37"/>
-      <c r="I53" s="99"/>
+      <c r="I53" s="76"/>
       <c r="J53" s="37"/>
       <c r="K53" s="37"/>
       <c r="L53" s="38"/>
@@ -4708,9 +4711,9 @@
       <c r="R53" s="37"/>
       <c r="S53" s="37"/>
       <c r="T53" s="39"/>
-      <c r="U53" s="85"/>
-      <c r="V53" s="85"/>
-      <c r="W53" s="85"/>
+      <c r="U53" s="67"/>
+      <c r="V53" s="67"/>
+      <c r="W53" s="67"/>
       <c r="X53" s="37"/>
     </row>
     <row r="54" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -4724,7 +4727,7 @@
       <c r="F54" s="37"/>
       <c r="G54" s="37"/>
       <c r="H54" s="37"/>
-      <c r="I54" s="99"/>
+      <c r="I54" s="76"/>
       <c r="J54" s="37"/>
       <c r="K54" s="37"/>
       <c r="L54" s="38"/>
@@ -4736,9 +4739,9 @@
       <c r="R54" s="37"/>
       <c r="S54" s="37"/>
       <c r="T54" s="39"/>
-      <c r="U54" s="85"/>
-      <c r="V54" s="85"/>
-      <c r="W54" s="85"/>
+      <c r="U54" s="67"/>
+      <c r="V54" s="67"/>
+      <c r="W54" s="67"/>
       <c r="X54" s="37"/>
     </row>
     <row r="55" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -4752,7 +4755,7 @@
       <c r="F55" s="37"/>
       <c r="G55" s="37"/>
       <c r="H55" s="37"/>
-      <c r="I55" s="99"/>
+      <c r="I55" s="76"/>
       <c r="J55" s="37"/>
       <c r="K55" s="37"/>
       <c r="L55" s="38"/>
@@ -4764,9 +4767,9 @@
       <c r="R55" s="37"/>
       <c r="S55" s="37"/>
       <c r="T55" s="42"/>
-      <c r="U55" s="85"/>
-      <c r="V55" s="85"/>
-      <c r="W55" s="85"/>
+      <c r="U55" s="67"/>
+      <c r="V55" s="67"/>
+      <c r="W55" s="67"/>
       <c r="X55" s="37"/>
     </row>
     <row r="56" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -4779,13 +4782,6 @@
     </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="U6:U11"/>
-    <mergeCell ref="U12:U16"/>
-    <mergeCell ref="P4:P5"/>
-    <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="R4:R5"/>
-    <mergeCell ref="S4:S5"/>
-    <mergeCell ref="U4:U5"/>
     <mergeCell ref="V4:V5"/>
     <mergeCell ref="A1:V1"/>
     <mergeCell ref="A2:D2"/>
@@ -4797,6 +4793,13 @@
     <mergeCell ref="M4:M5"/>
     <mergeCell ref="N4:N5"/>
     <mergeCell ref="O4:O5"/>
+    <mergeCell ref="U6:U11"/>
+    <mergeCell ref="U12:U16"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="S4:S5"/>
+    <mergeCell ref="U4:U5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -4808,7 +4811,7 @@
   <dimension ref="A1:X57"/>
   <sheetViews>
     <sheetView showZeros="0" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6:B9"/>
+      <selection activeCell="G52" sqref="G52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -4841,42 +4844,42 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:22" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="68" t="s">
+      <c r="A1" s="84" t="s">
         <v>67</v>
       </c>
-      <c r="B1" s="68"/>
-      <c r="C1" s="68"/>
-      <c r="D1" s="68"/>
-      <c r="E1" s="68"/>
-      <c r="F1" s="68"/>
-      <c r="G1" s="68"/>
-      <c r="H1" s="68"/>
-      <c r="I1" s="68"/>
-      <c r="J1" s="68"/>
-      <c r="K1" s="68"/>
-      <c r="L1" s="68"/>
-      <c r="M1" s="68"/>
-      <c r="N1" s="68"/>
-      <c r="O1" s="68"/>
-      <c r="P1" s="68"/>
-      <c r="Q1" s="68"/>
-      <c r="R1" s="68"/>
-      <c r="S1" s="68"/>
-      <c r="T1" s="68"/>
-      <c r="U1" s="68"/>
-      <c r="V1" s="68"/>
+      <c r="B1" s="84"/>
+      <c r="C1" s="84"/>
+      <c r="D1" s="84"/>
+      <c r="E1" s="84"/>
+      <c r="F1" s="84"/>
+      <c r="G1" s="84"/>
+      <c r="H1" s="84"/>
+      <c r="I1" s="84"/>
+      <c r="J1" s="84"/>
+      <c r="K1" s="84"/>
+      <c r="L1" s="84"/>
+      <c r="M1" s="84"/>
+      <c r="N1" s="84"/>
+      <c r="O1" s="84"/>
+      <c r="P1" s="84"/>
+      <c r="Q1" s="84"/>
+      <c r="R1" s="84"/>
+      <c r="S1" s="84"/>
+      <c r="T1" s="84"/>
+      <c r="U1" s="84"/>
+      <c r="V1" s="84"/>
     </row>
     <row r="2" spans="1:22" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="69" t="s">
+      <c r="A2" s="85" t="s">
         <v>10</v>
       </c>
-      <c r="B2" s="70"/>
-      <c r="C2" s="70"/>
-      <c r="D2" s="70"/>
-      <c r="E2" s="71" t="s">
+      <c r="B2" s="86"/>
+      <c r="C2" s="86"/>
+      <c r="D2" s="86"/>
+      <c r="E2" s="87" t="s">
         <v>68</v>
       </c>
-      <c r="F2" s="71"/>
+      <c r="F2" s="87"/>
       <c r="G2" s="6"/>
       <c r="H2" s="23"/>
       <c r="I2" s="23"/>
@@ -4919,57 +4922,57 @@
       <c r="V3" s="30"/>
     </row>
     <row r="4" spans="1:22" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="72" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="67" t="s">
+      <c r="A4" s="88" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="82" t="s">
         <v>9</v>
       </c>
-      <c r="C4" s="67"/>
-      <c r="D4" s="67"/>
-      <c r="E4" s="67"/>
-      <c r="F4" s="67"/>
-      <c r="G4" s="67"/>
-      <c r="H4" s="67"/>
-      <c r="I4" s="67"/>
-      <c r="J4" s="67" t="s">
+      <c r="C4" s="82"/>
+      <c r="D4" s="82"/>
+      <c r="E4" s="82"/>
+      <c r="F4" s="82"/>
+      <c r="G4" s="82"/>
+      <c r="H4" s="82"/>
+      <c r="I4" s="82"/>
+      <c r="J4" s="82" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="67" t="s">
+      <c r="K4" s="82" t="s">
         <v>12</v>
       </c>
-      <c r="L4" s="67"/>
-      <c r="M4" s="73" t="s">
+      <c r="L4" s="82"/>
+      <c r="M4" s="89" t="s">
         <v>43</v>
       </c>
-      <c r="N4" s="73" t="s">
+      <c r="N4" s="89" t="s">
         <v>11</v>
       </c>
-      <c r="O4" s="67" t="s">
+      <c r="O4" s="82" t="s">
         <v>8</v>
       </c>
-      <c r="P4" s="78" t="s">
+      <c r="P4" s="81" t="s">
         <v>15</v>
       </c>
-      <c r="Q4" s="67" t="s">
+      <c r="Q4" s="82" t="s">
         <v>40</v>
       </c>
-      <c r="R4" s="67" t="s">
+      <c r="R4" s="82" t="s">
         <v>62</v>
       </c>
-      <c r="S4" s="79" t="s">
+      <c r="S4" s="83" t="s">
         <v>63</v>
       </c>
       <c r="T4" s="29"/>
-      <c r="U4" s="67" t="s">
+      <c r="U4" s="82" t="s">
         <v>40</v>
       </c>
-      <c r="V4" s="67" t="s">
+      <c r="V4" s="82" t="s">
         <v>62</v>
       </c>
     </row>
     <row r="5" spans="1:22" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="72"/>
+      <c r="A5" s="88"/>
       <c r="B5" s="65" t="s">
         <v>1</v>
       </c>
@@ -4994,23 +4997,23 @@
       <c r="I5" s="65" t="s">
         <v>16</v>
       </c>
-      <c r="J5" s="67"/>
+      <c r="J5" s="82"/>
       <c r="K5" s="65" t="s">
         <v>13</v>
       </c>
       <c r="L5" s="65" t="s">
         <v>14</v>
       </c>
-      <c r="M5" s="74"/>
-      <c r="N5" s="74"/>
-      <c r="O5" s="67"/>
-      <c r="P5" s="78"/>
-      <c r="Q5" s="67"/>
-      <c r="R5" s="67"/>
-      <c r="S5" s="79"/>
+      <c r="M5" s="90"/>
+      <c r="N5" s="90"/>
+      <c r="O5" s="82"/>
+      <c r="P5" s="81"/>
+      <c r="Q5" s="82"/>
+      <c r="R5" s="82"/>
+      <c r="S5" s="83"/>
       <c r="T5" s="29"/>
-      <c r="U5" s="67"/>
-      <c r="V5" s="67"/>
+      <c r="U5" s="82"/>
+      <c r="V5" s="82"/>
     </row>
     <row r="6" spans="1:22" s="14" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="4">
@@ -5026,7 +5029,7 @@
       <c r="E6" s="55">
         <v>861693036096345</v>
       </c>
-      <c r="F6" s="86"/>
+      <c r="F6" s="68"/>
       <c r="G6" s="54" t="s">
         <v>82</v>
       </c>
@@ -5043,7 +5046,7 @@
       <c r="R6" s="54"/>
       <c r="S6" s="4"/>
       <c r="T6" s="64"/>
-      <c r="U6" s="75" t="s">
+      <c r="U6" s="78" t="s">
         <v>19</v>
       </c>
       <c r="V6" s="4" t="s">
@@ -5064,7 +5067,7 @@
       <c r="E7" s="55">
         <v>867330029942128</v>
       </c>
-      <c r="F7" s="86"/>
+      <c r="F7" s="68"/>
       <c r="G7" s="54" t="s">
         <v>82</v>
       </c>
@@ -5081,7 +5084,7 @@
       <c r="R7" s="54"/>
       <c r="S7" s="4"/>
       <c r="T7" s="64"/>
-      <c r="U7" s="76"/>
+      <c r="U7" s="79"/>
       <c r="V7" s="4" t="s">
         <v>36</v>
       </c>
@@ -5100,7 +5103,7 @@
       <c r="E8" s="55">
         <v>861693037607785</v>
       </c>
-      <c r="F8" s="86"/>
+      <c r="F8" s="68"/>
       <c r="G8" s="54" t="s">
         <v>82</v>
       </c>
@@ -5117,7 +5120,7 @@
       <c r="R8" s="54"/>
       <c r="S8" s="4"/>
       <c r="T8" s="64"/>
-      <c r="U8" s="76"/>
+      <c r="U8" s="79"/>
       <c r="V8" s="4" t="s">
         <v>22</v>
       </c>
@@ -5136,7 +5139,7 @@
       <c r="E9" s="55">
         <v>866593020394372</v>
       </c>
-      <c r="F9" s="86"/>
+      <c r="F9" s="68"/>
       <c r="G9" s="54" t="s">
         <v>82</v>
       </c>
@@ -5153,7 +5156,7 @@
       <c r="R9" s="54"/>
       <c r="S9" s="4"/>
       <c r="T9" s="64"/>
-      <c r="U9" s="76"/>
+      <c r="U9" s="79"/>
       <c r="V9" s="4" t="s">
         <v>60</v>
       </c>
@@ -5181,7 +5184,7 @@
       <c r="R10" s="54"/>
       <c r="S10" s="4"/>
       <c r="T10" s="64"/>
-      <c r="U10" s="76"/>
+      <c r="U10" s="79"/>
       <c r="V10" s="4" t="s">
         <v>32</v>
       </c>
@@ -5209,7 +5212,7 @@
       <c r="R11" s="54"/>
       <c r="S11" s="4"/>
       <c r="T11" s="64"/>
-      <c r="U11" s="76"/>
+      <c r="U11" s="79"/>
       <c r="V11" s="4" t="s">
         <v>31</v>
       </c>
@@ -5237,7 +5240,7 @@
       <c r="R12" s="54"/>
       <c r="S12" s="4"/>
       <c r="T12" s="64"/>
-      <c r="U12" s="75" t="s">
+      <c r="U12" s="78" t="s">
         <v>20</v>
       </c>
       <c r="V12" s="4" t="s">
@@ -5267,7 +5270,7 @@
       <c r="R13" s="11"/>
       <c r="S13" s="4"/>
       <c r="T13" s="64"/>
-      <c r="U13" s="76"/>
+      <c r="U13" s="79"/>
       <c r="V13" s="4" t="s">
         <v>38</v>
       </c>
@@ -5295,7 +5298,7 @@
       <c r="R14" s="54"/>
       <c r="S14" s="4"/>
       <c r="T14" s="64"/>
-      <c r="U14" s="76"/>
+      <c r="U14" s="79"/>
       <c r="V14" s="4" t="s">
         <v>37</v>
       </c>
@@ -5323,7 +5326,7 @@
       <c r="R15" s="54"/>
       <c r="S15" s="4"/>
       <c r="T15" s="16"/>
-      <c r="U15" s="76"/>
+      <c r="U15" s="79"/>
       <c r="V15" s="4" t="s">
         <v>25</v>
       </c>
@@ -5351,7 +5354,7 @@
       <c r="R16" s="54"/>
       <c r="S16" s="4"/>
       <c r="T16" s="16"/>
-      <c r="U16" s="77"/>
+      <c r="U16" s="80"/>
       <c r="V16" s="4" t="s">
         <v>26</v>
       </c>
@@ -6369,9 +6372,9 @@
       <c r="R49" s="11"/>
       <c r="S49" s="4"/>
       <c r="T49" s="39"/>
-      <c r="U49" s="85"/>
-      <c r="V49" s="85"/>
-      <c r="W49" s="85"/>
+      <c r="U49" s="67"/>
+      <c r="V49" s="67"/>
+      <c r="W49" s="67"/>
       <c r="X49" s="37"/>
     </row>
     <row r="50" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -6397,9 +6400,9 @@
       <c r="R50" s="66"/>
       <c r="S50" s="33"/>
       <c r="T50" s="39"/>
-      <c r="U50" s="85"/>
-      <c r="V50" s="85"/>
-      <c r="W50" s="85"/>
+      <c r="U50" s="67"/>
+      <c r="V50" s="67"/>
+      <c r="W50" s="67"/>
       <c r="X50" s="37"/>
     </row>
     <row r="51" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -6425,9 +6428,9 @@
       <c r="R51" s="11"/>
       <c r="S51" s="11"/>
       <c r="T51" s="39"/>
-      <c r="U51" s="85"/>
-      <c r="V51" s="85"/>
-      <c r="W51" s="85"/>
+      <c r="U51" s="67"/>
+      <c r="V51" s="67"/>
+      <c r="W51" s="67"/>
       <c r="X51" s="37"/>
     </row>
     <row r="52" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -6453,9 +6456,9 @@
       <c r="R52" s="37"/>
       <c r="S52" s="37"/>
       <c r="T52" s="39"/>
-      <c r="U52" s="85"/>
-      <c r="V52" s="85"/>
-      <c r="W52" s="85"/>
+      <c r="U52" s="67"/>
+      <c r="V52" s="67"/>
+      <c r="W52" s="67"/>
       <c r="X52" s="37"/>
     </row>
     <row r="53" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -6481,9 +6484,9 @@
       <c r="R53" s="37"/>
       <c r="S53" s="37"/>
       <c r="T53" s="39"/>
-      <c r="U53" s="85"/>
-      <c r="V53" s="85"/>
-      <c r="W53" s="85"/>
+      <c r="U53" s="67"/>
+      <c r="V53" s="67"/>
+      <c r="W53" s="67"/>
       <c r="X53" s="37"/>
     </row>
     <row r="54" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -6509,9 +6512,9 @@
       <c r="R54" s="37"/>
       <c r="S54" s="37"/>
       <c r="T54" s="39"/>
-      <c r="U54" s="85"/>
-      <c r="V54" s="85"/>
-      <c r="W54" s="85"/>
+      <c r="U54" s="67"/>
+      <c r="V54" s="67"/>
+      <c r="W54" s="67"/>
       <c r="X54" s="37"/>
     </row>
     <row r="55" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -6537,9 +6540,9 @@
       <c r="R55" s="37"/>
       <c r="S55" s="37"/>
       <c r="T55" s="42"/>
-      <c r="U55" s="85"/>
-      <c r="V55" s="85"/>
-      <c r="W55" s="85"/>
+      <c r="U55" s="67"/>
+      <c r="V55" s="67"/>
+      <c r="W55" s="67"/>
       <c r="X55" s="37"/>
     </row>
     <row r="56" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -6552,13 +6555,6 @@
     </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="U6:U11"/>
-    <mergeCell ref="U12:U16"/>
-    <mergeCell ref="P4:P5"/>
-    <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="R4:R5"/>
-    <mergeCell ref="S4:S5"/>
-    <mergeCell ref="U4:U5"/>
     <mergeCell ref="V4:V5"/>
     <mergeCell ref="A1:V1"/>
     <mergeCell ref="A2:D2"/>
@@ -6570,6 +6566,13 @@
     <mergeCell ref="M4:M5"/>
     <mergeCell ref="N4:N5"/>
     <mergeCell ref="O4:O5"/>
+    <mergeCell ref="U6:U11"/>
+    <mergeCell ref="U12:U16"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="S4:S5"/>
+    <mergeCell ref="U4:U5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -6594,7 +6597,7 @@
     <col min="6" max="6" width="15.85546875" style="22" customWidth="1"/>
     <col min="7" max="7" width="17" style="22" customWidth="1"/>
     <col min="8" max="8" width="35.42578125" style="22" customWidth="1"/>
-    <col min="9" max="9" width="45.28515625" style="100" customWidth="1"/>
+    <col min="9" max="9" width="45.28515625" style="77" customWidth="1"/>
     <col min="10" max="10" width="53" style="22" customWidth="1"/>
     <col min="11" max="11" width="33.42578125" style="22" customWidth="1"/>
     <col min="12" max="12" width="30.7109375" style="28" customWidth="1"/>
@@ -6614,45 +6617,45 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:22" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="68" t="s">
+      <c r="A1" s="84" t="s">
         <v>67</v>
       </c>
-      <c r="B1" s="68"/>
-      <c r="C1" s="68"/>
-      <c r="D1" s="68"/>
-      <c r="E1" s="68"/>
-      <c r="F1" s="68"/>
-      <c r="G1" s="68"/>
-      <c r="H1" s="68"/>
-      <c r="I1" s="68"/>
-      <c r="J1" s="68"/>
-      <c r="K1" s="68"/>
-      <c r="L1" s="68"/>
-      <c r="M1" s="68"/>
-      <c r="N1" s="68"/>
-      <c r="O1" s="68"/>
-      <c r="P1" s="68"/>
-      <c r="Q1" s="68"/>
-      <c r="R1" s="68"/>
-      <c r="S1" s="68"/>
-      <c r="T1" s="68"/>
-      <c r="U1" s="68"/>
-      <c r="V1" s="68"/>
+      <c r="B1" s="84"/>
+      <c r="C1" s="84"/>
+      <c r="D1" s="84"/>
+      <c r="E1" s="84"/>
+      <c r="F1" s="84"/>
+      <c r="G1" s="84"/>
+      <c r="H1" s="84"/>
+      <c r="I1" s="84"/>
+      <c r="J1" s="84"/>
+      <c r="K1" s="84"/>
+      <c r="L1" s="84"/>
+      <c r="M1" s="84"/>
+      <c r="N1" s="84"/>
+      <c r="O1" s="84"/>
+      <c r="P1" s="84"/>
+      <c r="Q1" s="84"/>
+      <c r="R1" s="84"/>
+      <c r="S1" s="84"/>
+      <c r="T1" s="84"/>
+      <c r="U1" s="84"/>
+      <c r="V1" s="84"/>
     </row>
     <row r="2" spans="1:22" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="69" t="s">
+      <c r="A2" s="85" t="s">
         <v>10</v>
       </c>
-      <c r="B2" s="70"/>
-      <c r="C2" s="70"/>
-      <c r="D2" s="70"/>
-      <c r="E2" s="71" t="s">
+      <c r="B2" s="86"/>
+      <c r="C2" s="86"/>
+      <c r="D2" s="86"/>
+      <c r="E2" s="87" t="s">
         <v>68</v>
       </c>
-      <c r="F2" s="71"/>
+      <c r="F2" s="87"/>
       <c r="G2" s="6"/>
       <c r="H2" s="23"/>
-      <c r="I2" s="93"/>
+      <c r="I2" s="70"/>
       <c r="J2" s="23"/>
       <c r="K2" s="23"/>
       <c r="L2" s="24"/>
@@ -6676,7 +6679,7 @@
       <c r="F3" s="8"/>
       <c r="G3" s="8"/>
       <c r="H3" s="8"/>
-      <c r="I3" s="94"/>
+      <c r="I3" s="71"/>
       <c r="J3" s="8"/>
       <c r="K3" s="8"/>
       <c r="L3" s="9"/>
@@ -6692,57 +6695,57 @@
       <c r="V3" s="30"/>
     </row>
     <row r="4" spans="1:22" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="72" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="67" t="s">
+      <c r="A4" s="88" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="82" t="s">
         <v>9</v>
       </c>
-      <c r="C4" s="67"/>
-      <c r="D4" s="67"/>
-      <c r="E4" s="67"/>
-      <c r="F4" s="67"/>
-      <c r="G4" s="67"/>
-      <c r="H4" s="67"/>
-      <c r="I4" s="67"/>
-      <c r="J4" s="67" t="s">
+      <c r="C4" s="82"/>
+      <c r="D4" s="82"/>
+      <c r="E4" s="82"/>
+      <c r="F4" s="82"/>
+      <c r="G4" s="82"/>
+      <c r="H4" s="82"/>
+      <c r="I4" s="82"/>
+      <c r="J4" s="82" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="67" t="s">
+      <c r="K4" s="82" t="s">
         <v>12</v>
       </c>
-      <c r="L4" s="67"/>
-      <c r="M4" s="73" t="s">
+      <c r="L4" s="82"/>
+      <c r="M4" s="89" t="s">
         <v>43</v>
       </c>
-      <c r="N4" s="73" t="s">
+      <c r="N4" s="89" t="s">
         <v>11</v>
       </c>
-      <c r="O4" s="67" t="s">
+      <c r="O4" s="82" t="s">
         <v>8</v>
       </c>
-      <c r="P4" s="78" t="s">
+      <c r="P4" s="81" t="s">
         <v>15</v>
       </c>
-      <c r="Q4" s="67" t="s">
+      <c r="Q4" s="82" t="s">
         <v>40</v>
       </c>
-      <c r="R4" s="67" t="s">
+      <c r="R4" s="82" t="s">
         <v>62</v>
       </c>
-      <c r="S4" s="79" t="s">
+      <c r="S4" s="83" t="s">
         <v>63</v>
       </c>
       <c r="T4" s="29"/>
-      <c r="U4" s="67" t="s">
+      <c r="U4" s="82" t="s">
         <v>40</v>
       </c>
-      <c r="V4" s="67" t="s">
+      <c r="V4" s="82" t="s">
         <v>62</v>
       </c>
     </row>
     <row r="5" spans="1:22" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="72"/>
+      <c r="A5" s="88"/>
       <c r="B5" s="65" t="s">
         <v>1</v>
       </c>
@@ -6764,26 +6767,26 @@
       <c r="H5" s="65" t="s">
         <v>7</v>
       </c>
-      <c r="I5" s="95" t="s">
+      <c r="I5" s="72" t="s">
         <v>16</v>
       </c>
-      <c r="J5" s="67"/>
+      <c r="J5" s="82"/>
       <c r="K5" s="65" t="s">
         <v>13</v>
       </c>
       <c r="L5" s="65" t="s">
         <v>14</v>
       </c>
-      <c r="M5" s="74"/>
-      <c r="N5" s="74"/>
-      <c r="O5" s="67"/>
-      <c r="P5" s="78"/>
-      <c r="Q5" s="67"/>
-      <c r="R5" s="67"/>
-      <c r="S5" s="79"/>
+      <c r="M5" s="90"/>
+      <c r="N5" s="90"/>
+      <c r="O5" s="82"/>
+      <c r="P5" s="81"/>
+      <c r="Q5" s="82"/>
+      <c r="R5" s="82"/>
+      <c r="S5" s="83"/>
       <c r="T5" s="29"/>
-      <c r="U5" s="67"/>
-      <c r="V5" s="67"/>
+      <c r="U5" s="82"/>
+      <c r="V5" s="82"/>
     </row>
     <row r="6" spans="1:22" s="14" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="4">
@@ -6799,44 +6802,44 @@
       <c r="E6" s="55">
         <v>868926033958676</v>
       </c>
-      <c r="F6" s="86"/>
+      <c r="F6" s="68"/>
       <c r="G6" s="54" t="s">
         <v>82</v>
       </c>
       <c r="H6" s="11"/>
-      <c r="I6" s="96" t="s">
+      <c r="I6" s="73" t="s">
         <v>85</v>
       </c>
       <c r="J6" s="56" t="s">
+        <v>119</v>
+      </c>
+      <c r="K6" s="59" t="s">
+        <v>118</v>
+      </c>
+      <c r="L6" s="56" t="s">
+        <v>122</v>
+      </c>
+      <c r="M6" s="56" t="s">
         <v>120</v>
-      </c>
-      <c r="K6" s="59" t="s">
-        <v>119</v>
-      </c>
-      <c r="L6" s="56" t="s">
-        <v>123</v>
-      </c>
-      <c r="M6" s="56" t="s">
-        <v>121</v>
       </c>
       <c r="N6" s="58"/>
       <c r="O6" s="56" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="P6" s="56" t="s">
         <v>76</v>
       </c>
       <c r="Q6" s="3" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="R6" s="54" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="S6" s="4" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="T6" s="64"/>
-      <c r="U6" s="75" t="s">
+      <c r="U6" s="78" t="s">
         <v>19</v>
       </c>
       <c r="V6" s="4" t="s">
@@ -6854,7 +6857,7 @@
       <c r="F7" s="54"/>
       <c r="G7" s="54"/>
       <c r="H7" s="54"/>
-      <c r="I7" s="96"/>
+      <c r="I7" s="73"/>
       <c r="J7" s="56"/>
       <c r="K7" s="1"/>
       <c r="L7" s="56"/>
@@ -6866,7 +6869,7 @@
       <c r="R7" s="54"/>
       <c r="S7" s="4"/>
       <c r="T7" s="64"/>
-      <c r="U7" s="76"/>
+      <c r="U7" s="79"/>
       <c r="V7" s="4" t="s">
         <v>36</v>
       </c>
@@ -6882,7 +6885,7 @@
       <c r="F8" s="54"/>
       <c r="G8" s="54"/>
       <c r="H8" s="54"/>
-      <c r="I8" s="96"/>
+      <c r="I8" s="73"/>
       <c r="J8" s="56"/>
       <c r="K8" s="57"/>
       <c r="L8" s="56"/>
@@ -6894,7 +6897,7 @@
       <c r="R8" s="54"/>
       <c r="S8" s="4"/>
       <c r="T8" s="64"/>
-      <c r="U8" s="76"/>
+      <c r="U8" s="79"/>
       <c r="V8" s="4" t="s">
         <v>22</v>
       </c>
@@ -6910,7 +6913,7 @@
       <c r="F9" s="54"/>
       <c r="G9" s="54"/>
       <c r="H9" s="2"/>
-      <c r="I9" s="96"/>
+      <c r="I9" s="73"/>
       <c r="J9" s="56"/>
       <c r="K9" s="56"/>
       <c r="L9" s="56"/>
@@ -6922,7 +6925,7 @@
       <c r="R9" s="54"/>
       <c r="S9" s="4"/>
       <c r="T9" s="64"/>
-      <c r="U9" s="76"/>
+      <c r="U9" s="79"/>
       <c r="V9" s="4" t="s">
         <v>60</v>
       </c>
@@ -6938,7 +6941,7 @@
       <c r="F10" s="54"/>
       <c r="G10" s="54"/>
       <c r="H10" s="2"/>
-      <c r="I10" s="96"/>
+      <c r="I10" s="73"/>
       <c r="J10" s="56"/>
       <c r="K10" s="1"/>
       <c r="L10" s="56"/>
@@ -6950,7 +6953,7 @@
       <c r="R10" s="54"/>
       <c r="S10" s="4"/>
       <c r="T10" s="64"/>
-      <c r="U10" s="76"/>
+      <c r="U10" s="79"/>
       <c r="V10" s="4" t="s">
         <v>32</v>
       </c>
@@ -6966,7 +6969,7 @@
       <c r="F11" s="54"/>
       <c r="G11" s="54"/>
       <c r="H11" s="2"/>
-      <c r="I11" s="96"/>
+      <c r="I11" s="73"/>
       <c r="J11" s="56"/>
       <c r="K11" s="1"/>
       <c r="L11" s="56"/>
@@ -6978,7 +6981,7 @@
       <c r="R11" s="54"/>
       <c r="S11" s="4"/>
       <c r="T11" s="64"/>
-      <c r="U11" s="76"/>
+      <c r="U11" s="79"/>
       <c r="V11" s="4" t="s">
         <v>31</v>
       </c>
@@ -6994,7 +6997,7 @@
       <c r="F12" s="54"/>
       <c r="G12" s="54"/>
       <c r="H12" s="1"/>
-      <c r="I12" s="97"/>
+      <c r="I12" s="74"/>
       <c r="J12" s="56"/>
       <c r="K12" s="1"/>
       <c r="L12" s="56"/>
@@ -7006,7 +7009,7 @@
       <c r="R12" s="54"/>
       <c r="S12" s="4"/>
       <c r="T12" s="64"/>
-      <c r="U12" s="75" t="s">
+      <c r="U12" s="78" t="s">
         <v>20</v>
       </c>
       <c r="V12" s="4" t="s">
@@ -7024,7 +7027,7 @@
       <c r="F13" s="54"/>
       <c r="G13" s="54"/>
       <c r="H13" s="15"/>
-      <c r="I13" s="96"/>
+      <c r="I13" s="73"/>
       <c r="J13" s="1"/>
       <c r="K13" s="1"/>
       <c r="L13" s="56"/>
@@ -7036,7 +7039,7 @@
       <c r="R13" s="11"/>
       <c r="S13" s="4"/>
       <c r="T13" s="64"/>
-      <c r="U13" s="76"/>
+      <c r="U13" s="79"/>
       <c r="V13" s="4" t="s">
         <v>38</v>
       </c>
@@ -7052,7 +7055,7 @@
       <c r="F14" s="54"/>
       <c r="G14" s="54"/>
       <c r="H14" s="1"/>
-      <c r="I14" s="96"/>
+      <c r="I14" s="73"/>
       <c r="J14" s="56"/>
       <c r="K14" s="1"/>
       <c r="L14" s="56"/>
@@ -7064,7 +7067,7 @@
       <c r="R14" s="54"/>
       <c r="S14" s="4"/>
       <c r="T14" s="64"/>
-      <c r="U14" s="76"/>
+      <c r="U14" s="79"/>
       <c r="V14" s="4" t="s">
         <v>37</v>
       </c>
@@ -7080,7 +7083,7 @@
       <c r="F15" s="54"/>
       <c r="G15" s="54"/>
       <c r="H15" s="1"/>
-      <c r="I15" s="97"/>
+      <c r="I15" s="74"/>
       <c r="J15" s="56"/>
       <c r="K15" s="1"/>
       <c r="L15" s="56"/>
@@ -7092,7 +7095,7 @@
       <c r="R15" s="54"/>
       <c r="S15" s="4"/>
       <c r="T15" s="16"/>
-      <c r="U15" s="76"/>
+      <c r="U15" s="79"/>
       <c r="V15" s="4" t="s">
         <v>25</v>
       </c>
@@ -7108,7 +7111,7 @@
       <c r="F16" s="54"/>
       <c r="G16" s="54"/>
       <c r="H16" s="1"/>
-      <c r="I16" s="97"/>
+      <c r="I16" s="74"/>
       <c r="J16" s="1"/>
       <c r="K16" s="1"/>
       <c r="L16" s="56"/>
@@ -7120,7 +7123,7 @@
       <c r="R16" s="54"/>
       <c r="S16" s="4"/>
       <c r="T16" s="16"/>
-      <c r="U16" s="77"/>
+      <c r="U16" s="80"/>
       <c r="V16" s="4" t="s">
         <v>26</v>
       </c>
@@ -7136,7 +7139,7 @@
       <c r="F17" s="54"/>
       <c r="G17" s="54"/>
       <c r="H17" s="1"/>
-      <c r="I17" s="96"/>
+      <c r="I17" s="73"/>
       <c r="J17" s="56"/>
       <c r="K17" s="1"/>
       <c r="L17" s="1"/>
@@ -7162,7 +7165,7 @@
       <c r="F18" s="54"/>
       <c r="G18" s="54"/>
       <c r="H18" s="1"/>
-      <c r="I18" s="97"/>
+      <c r="I18" s="74"/>
       <c r="J18" s="1"/>
       <c r="K18" s="1"/>
       <c r="L18" s="1"/>
@@ -7188,7 +7191,7 @@
       <c r="F19" s="54"/>
       <c r="G19" s="54"/>
       <c r="H19" s="1"/>
-      <c r="I19" s="97"/>
+      <c r="I19" s="74"/>
       <c r="J19" s="1"/>
       <c r="K19" s="1"/>
       <c r="L19" s="1"/>
@@ -7218,7 +7221,7 @@
       <c r="F20" s="54"/>
       <c r="G20" s="54"/>
       <c r="H20" s="1"/>
-      <c r="I20" s="97"/>
+      <c r="I20" s="74"/>
       <c r="J20" s="1"/>
       <c r="K20" s="1"/>
       <c r="L20" s="1"/>
@@ -7249,7 +7252,7 @@
       <c r="F21" s="54"/>
       <c r="G21" s="54"/>
       <c r="H21" s="1"/>
-      <c r="I21" s="97"/>
+      <c r="I21" s="74"/>
       <c r="J21" s="1"/>
       <c r="K21" s="1"/>
       <c r="L21" s="1"/>
@@ -7280,7 +7283,7 @@
       <c r="F22" s="54"/>
       <c r="G22" s="54"/>
       <c r="H22" s="11"/>
-      <c r="I22" s="97"/>
+      <c r="I22" s="74"/>
       <c r="J22" s="11"/>
       <c r="K22" s="11"/>
       <c r="L22" s="1"/>
@@ -7311,7 +7314,7 @@
       <c r="F23" s="54"/>
       <c r="G23" s="54"/>
       <c r="H23" s="11"/>
-      <c r="I23" s="97"/>
+      <c r="I23" s="74"/>
       <c r="J23" s="1"/>
       <c r="K23" s="11"/>
       <c r="L23" s="11"/>
@@ -7337,7 +7340,7 @@
       <c r="F24" s="54"/>
       <c r="G24" s="54"/>
       <c r="H24" s="11"/>
-      <c r="I24" s="97"/>
+      <c r="I24" s="74"/>
       <c r="J24" s="1"/>
       <c r="K24" s="11"/>
       <c r="L24" s="11"/>
@@ -7363,7 +7366,7 @@
       <c r="F25" s="54"/>
       <c r="G25" s="54"/>
       <c r="H25" s="11"/>
-      <c r="I25" s="97"/>
+      <c r="I25" s="74"/>
       <c r="J25" s="1"/>
       <c r="K25" s="11"/>
       <c r="L25" s="11"/>
@@ -7393,7 +7396,7 @@
       <c r="F26" s="54"/>
       <c r="G26" s="54"/>
       <c r="H26" s="11"/>
-      <c r="I26" s="97"/>
+      <c r="I26" s="74"/>
       <c r="J26" s="1"/>
       <c r="K26" s="11"/>
       <c r="L26" s="11"/>
@@ -7424,7 +7427,7 @@
       <c r="F27" s="54"/>
       <c r="G27" s="54"/>
       <c r="H27" s="11"/>
-      <c r="I27" s="97"/>
+      <c r="I27" s="74"/>
       <c r="J27" s="1"/>
       <c r="K27" s="11"/>
       <c r="L27" s="11"/>
@@ -7455,7 +7458,7 @@
       <c r="F28" s="54"/>
       <c r="G28" s="54"/>
       <c r="H28" s="1"/>
-      <c r="I28" s="97"/>
+      <c r="I28" s="74"/>
       <c r="J28" s="1"/>
       <c r="K28" s="1"/>
       <c r="L28" s="11"/>
@@ -7486,7 +7489,7 @@
       <c r="F29" s="54"/>
       <c r="G29" s="54"/>
       <c r="H29" s="1"/>
-      <c r="I29" s="97"/>
+      <c r="I29" s="74"/>
       <c r="J29" s="1"/>
       <c r="K29" s="1"/>
       <c r="L29" s="11"/>
@@ -7517,7 +7520,7 @@
       <c r="F30" s="11"/>
       <c r="G30" s="11"/>
       <c r="H30" s="1"/>
-      <c r="I30" s="97"/>
+      <c r="I30" s="74"/>
       <c r="J30" s="1"/>
       <c r="K30" s="1"/>
       <c r="L30" s="1"/>
@@ -7548,7 +7551,7 @@
       <c r="F31" s="11"/>
       <c r="G31" s="11"/>
       <c r="H31" s="1"/>
-      <c r="I31" s="97"/>
+      <c r="I31" s="74"/>
       <c r="J31" s="1"/>
       <c r="K31" s="1"/>
       <c r="L31" s="1"/>
@@ -7579,7 +7582,7 @@
       <c r="F32" s="11"/>
       <c r="G32" s="11"/>
       <c r="H32" s="1"/>
-      <c r="I32" s="97"/>
+      <c r="I32" s="74"/>
       <c r="J32" s="1"/>
       <c r="K32" s="1"/>
       <c r="L32" s="1"/>
@@ -7610,7 +7613,7 @@
       <c r="F33" s="11"/>
       <c r="G33" s="11"/>
       <c r="H33" s="1"/>
-      <c r="I33" s="97"/>
+      <c r="I33" s="74"/>
       <c r="J33" s="1"/>
       <c r="K33" s="1"/>
       <c r="L33" s="1"/>
@@ -7641,7 +7644,7 @@
       <c r="F34" s="11"/>
       <c r="G34" s="11"/>
       <c r="H34" s="1"/>
-      <c r="I34" s="97"/>
+      <c r="I34" s="74"/>
       <c r="J34" s="1"/>
       <c r="K34" s="1"/>
       <c r="L34" s="1"/>
@@ -7672,7 +7675,7 @@
       <c r="F35" s="11"/>
       <c r="G35" s="11"/>
       <c r="H35" s="1"/>
-      <c r="I35" s="97"/>
+      <c r="I35" s="74"/>
       <c r="J35" s="1"/>
       <c r="K35" s="1"/>
       <c r="L35" s="1"/>
@@ -7703,7 +7706,7 @@
       <c r="F36" s="11"/>
       <c r="G36" s="11"/>
       <c r="H36" s="1"/>
-      <c r="I36" s="97"/>
+      <c r="I36" s="74"/>
       <c r="J36" s="1"/>
       <c r="K36" s="1"/>
       <c r="L36" s="1"/>
@@ -7734,7 +7737,7 @@
       <c r="F37" s="11"/>
       <c r="G37" s="11"/>
       <c r="H37" s="1"/>
-      <c r="I37" s="97"/>
+      <c r="I37" s="74"/>
       <c r="J37" s="1"/>
       <c r="K37" s="1"/>
       <c r="L37" s="1"/>
@@ -7765,7 +7768,7 @@
       <c r="F38" s="11"/>
       <c r="G38" s="11"/>
       <c r="H38" s="1"/>
-      <c r="I38" s="97"/>
+      <c r="I38" s="74"/>
       <c r="J38" s="1"/>
       <c r="K38" s="1"/>
       <c r="L38" s="1"/>
@@ -7791,7 +7794,7 @@
       <c r="F39" s="11"/>
       <c r="G39" s="11"/>
       <c r="H39" s="1"/>
-      <c r="I39" s="97"/>
+      <c r="I39" s="74"/>
       <c r="J39" s="1"/>
       <c r="K39" s="1"/>
       <c r="L39" s="1"/>
@@ -7817,7 +7820,7 @@
       <c r="F40" s="11"/>
       <c r="G40" s="11"/>
       <c r="H40" s="1"/>
-      <c r="I40" s="97"/>
+      <c r="I40" s="74"/>
       <c r="J40" s="1"/>
       <c r="K40" s="1"/>
       <c r="L40" s="1"/>
@@ -7848,7 +7851,7 @@
       <c r="F41" s="11"/>
       <c r="G41" s="11"/>
       <c r="H41" s="1"/>
-      <c r="I41" s="97"/>
+      <c r="I41" s="74"/>
       <c r="J41" s="1"/>
       <c r="K41" s="1"/>
       <c r="L41" s="1"/>
@@ -7879,7 +7882,7 @@
       <c r="F42" s="11"/>
       <c r="G42" s="11"/>
       <c r="H42" s="1"/>
-      <c r="I42" s="97"/>
+      <c r="I42" s="74"/>
       <c r="J42" s="1"/>
       <c r="K42" s="1"/>
       <c r="L42" s="1"/>
@@ -7905,7 +7908,7 @@
       <c r="F43" s="11"/>
       <c r="G43" s="11"/>
       <c r="H43" s="1"/>
-      <c r="I43" s="97"/>
+      <c r="I43" s="74"/>
       <c r="J43" s="1"/>
       <c r="K43" s="1"/>
       <c r="L43" s="1"/>
@@ -7931,7 +7934,7 @@
       <c r="F44" s="11"/>
       <c r="G44" s="11"/>
       <c r="H44" s="1"/>
-      <c r="I44" s="97"/>
+      <c r="I44" s="74"/>
       <c r="J44" s="1"/>
       <c r="K44" s="1"/>
       <c r="L44" s="1"/>
@@ -7967,7 +7970,7 @@
       <c r="F45" s="11"/>
       <c r="G45" s="11"/>
       <c r="H45" s="1"/>
-      <c r="I45" s="97"/>
+      <c r="I45" s="74"/>
       <c r="J45" s="1"/>
       <c r="K45" s="1"/>
       <c r="L45" s="1"/>
@@ -8003,7 +8006,7 @@
       <c r="F46" s="11"/>
       <c r="G46" s="11"/>
       <c r="H46" s="1"/>
-      <c r="I46" s="97"/>
+      <c r="I46" s="74"/>
       <c r="J46" s="1"/>
       <c r="K46" s="1"/>
       <c r="L46" s="1"/>
@@ -8042,7 +8045,7 @@
       <c r="F47" s="11"/>
       <c r="G47" s="11"/>
       <c r="H47" s="1"/>
-      <c r="I47" s="97"/>
+      <c r="I47" s="74"/>
       <c r="J47" s="1"/>
       <c r="K47" s="1"/>
       <c r="L47" s="1"/>
@@ -8081,7 +8084,7 @@
       <c r="F48" s="11"/>
       <c r="G48" s="11"/>
       <c r="H48" s="1"/>
-      <c r="I48" s="97"/>
+      <c r="I48" s="74"/>
       <c r="J48" s="1"/>
       <c r="K48" s="1"/>
       <c r="L48" s="1"/>
@@ -8123,7 +8126,7 @@
       <c r="F49" s="11"/>
       <c r="G49" s="11"/>
       <c r="H49" s="1"/>
-      <c r="I49" s="97"/>
+      <c r="I49" s="74"/>
       <c r="J49" s="1"/>
       <c r="K49" s="1"/>
       <c r="L49" s="1"/>
@@ -8135,9 +8138,9 @@
       <c r="R49" s="11"/>
       <c r="S49" s="4"/>
       <c r="T49" s="39"/>
-      <c r="U49" s="85"/>
-      <c r="V49" s="85"/>
-      <c r="W49" s="85"/>
+      <c r="U49" s="67"/>
+      <c r="V49" s="67"/>
+      <c r="W49" s="67"/>
       <c r="X49" s="37"/>
     </row>
     <row r="50" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -8151,7 +8154,7 @@
       <c r="F50" s="66"/>
       <c r="G50" s="66"/>
       <c r="H50" s="36"/>
-      <c r="I50" s="98"/>
+      <c r="I50" s="75"/>
       <c r="J50" s="36"/>
       <c r="K50" s="36"/>
       <c r="L50" s="36"/>
@@ -8163,9 +8166,9 @@
       <c r="R50" s="66"/>
       <c r="S50" s="33"/>
       <c r="T50" s="39"/>
-      <c r="U50" s="85"/>
-      <c r="V50" s="85"/>
-      <c r="W50" s="85"/>
+      <c r="U50" s="67"/>
+      <c r="V50" s="67"/>
+      <c r="W50" s="67"/>
       <c r="X50" s="37"/>
     </row>
     <row r="51" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -8179,7 +8182,7 @@
       <c r="F51" s="11"/>
       <c r="G51" s="11"/>
       <c r="H51" s="1"/>
-      <c r="I51" s="97"/>
+      <c r="I51" s="74"/>
       <c r="J51" s="1"/>
       <c r="K51" s="1"/>
       <c r="L51" s="1"/>
@@ -8191,9 +8194,9 @@
       <c r="R51" s="11"/>
       <c r="S51" s="11"/>
       <c r="T51" s="39"/>
-      <c r="U51" s="85"/>
-      <c r="V51" s="85"/>
-      <c r="W51" s="85"/>
+      <c r="U51" s="67"/>
+      <c r="V51" s="67"/>
+      <c r="W51" s="67"/>
       <c r="X51" s="37"/>
     </row>
     <row r="52" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -8207,7 +8210,7 @@
       <c r="F52" s="37"/>
       <c r="G52" s="37"/>
       <c r="H52" s="37"/>
-      <c r="I52" s="99"/>
+      <c r="I52" s="76"/>
       <c r="J52" s="37"/>
       <c r="K52" s="37"/>
       <c r="L52" s="38"/>
@@ -8219,9 +8222,9 @@
       <c r="R52" s="37"/>
       <c r="S52" s="37"/>
       <c r="T52" s="39"/>
-      <c r="U52" s="85"/>
-      <c r="V52" s="85"/>
-      <c r="W52" s="85"/>
+      <c r="U52" s="67"/>
+      <c r="V52" s="67"/>
+      <c r="W52" s="67"/>
       <c r="X52" s="37"/>
     </row>
     <row r="53" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -8235,7 +8238,7 @@
       <c r="F53" s="37"/>
       <c r="G53" s="37"/>
       <c r="H53" s="37"/>
-      <c r="I53" s="99"/>
+      <c r="I53" s="76"/>
       <c r="J53" s="37"/>
       <c r="K53" s="37"/>
       <c r="L53" s="38"/>
@@ -8247,9 +8250,9 @@
       <c r="R53" s="37"/>
       <c r="S53" s="37"/>
       <c r="T53" s="39"/>
-      <c r="U53" s="85"/>
-      <c r="V53" s="85"/>
-      <c r="W53" s="85"/>
+      <c r="U53" s="67"/>
+      <c r="V53" s="67"/>
+      <c r="W53" s="67"/>
       <c r="X53" s="37"/>
     </row>
     <row r="54" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -8263,7 +8266,7 @@
       <c r="F54" s="37"/>
       <c r="G54" s="37"/>
       <c r="H54" s="37"/>
-      <c r="I54" s="99"/>
+      <c r="I54" s="76"/>
       <c r="J54" s="37"/>
       <c r="K54" s="37"/>
       <c r="L54" s="38"/>
@@ -8275,9 +8278,9 @@
       <c r="R54" s="37"/>
       <c r="S54" s="37"/>
       <c r="T54" s="39"/>
-      <c r="U54" s="85"/>
-      <c r="V54" s="85"/>
-      <c r="W54" s="85"/>
+      <c r="U54" s="67"/>
+      <c r="V54" s="67"/>
+      <c r="W54" s="67"/>
       <c r="X54" s="37"/>
     </row>
     <row r="55" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -8291,7 +8294,7 @@
       <c r="F55" s="37"/>
       <c r="G55" s="37"/>
       <c r="H55" s="37"/>
-      <c r="I55" s="99"/>
+      <c r="I55" s="76"/>
       <c r="J55" s="37"/>
       <c r="K55" s="37"/>
       <c r="L55" s="38"/>
@@ -8303,9 +8306,9 @@
       <c r="R55" s="37"/>
       <c r="S55" s="37"/>
       <c r="T55" s="42"/>
-      <c r="U55" s="85"/>
-      <c r="V55" s="85"/>
-      <c r="W55" s="85"/>
+      <c r="U55" s="67"/>
+      <c r="V55" s="67"/>
+      <c r="W55" s="67"/>
       <c r="X55" s="37"/>
     </row>
     <row r="56" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -8318,13 +8321,6 @@
     </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="U6:U11"/>
-    <mergeCell ref="U12:U16"/>
-    <mergeCell ref="P4:P5"/>
-    <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="R4:R5"/>
-    <mergeCell ref="S4:S5"/>
-    <mergeCell ref="U4:U5"/>
     <mergeCell ref="V4:V5"/>
     <mergeCell ref="A1:V1"/>
     <mergeCell ref="A2:D2"/>
@@ -8336,6 +8332,13 @@
     <mergeCell ref="M4:M5"/>
     <mergeCell ref="N4:N5"/>
     <mergeCell ref="O4:O5"/>
+    <mergeCell ref="U6:U11"/>
+    <mergeCell ref="U12:U16"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="S4:S5"/>
+    <mergeCell ref="U4:U5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -8347,7 +8350,7 @@
   <dimension ref="A1:X57"/>
   <sheetViews>
     <sheetView showZeros="0" tabSelected="1" topLeftCell="D1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="I6" sqref="I6"/>
+      <selection activeCell="Q8" sqref="Q8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -8360,7 +8363,7 @@
     <col min="6" max="6" width="15.85546875" style="22" customWidth="1"/>
     <col min="7" max="7" width="17" style="22" customWidth="1"/>
     <col min="8" max="8" width="35.42578125" style="22" customWidth="1"/>
-    <col min="9" max="9" width="45.28515625" style="100" customWidth="1"/>
+    <col min="9" max="9" width="45.28515625" style="77" customWidth="1"/>
     <col min="10" max="10" width="53" style="22" customWidth="1"/>
     <col min="11" max="11" width="33.42578125" style="22" customWidth="1"/>
     <col min="12" max="12" width="30.7109375" style="28" customWidth="1"/>
@@ -8380,45 +8383,45 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:22" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="68" t="s">
+      <c r="A1" s="84" t="s">
         <v>67</v>
       </c>
-      <c r="B1" s="68"/>
-      <c r="C1" s="68"/>
-      <c r="D1" s="68"/>
-      <c r="E1" s="68"/>
-      <c r="F1" s="68"/>
-      <c r="G1" s="68"/>
-      <c r="H1" s="68"/>
-      <c r="I1" s="68"/>
-      <c r="J1" s="68"/>
-      <c r="K1" s="68"/>
-      <c r="L1" s="68"/>
-      <c r="M1" s="68"/>
-      <c r="N1" s="68"/>
-      <c r="O1" s="68"/>
-      <c r="P1" s="68"/>
-      <c r="Q1" s="68"/>
-      <c r="R1" s="68"/>
-      <c r="S1" s="68"/>
-      <c r="T1" s="68"/>
-      <c r="U1" s="68"/>
-      <c r="V1" s="68"/>
+      <c r="B1" s="84"/>
+      <c r="C1" s="84"/>
+      <c r="D1" s="84"/>
+      <c r="E1" s="84"/>
+      <c r="F1" s="84"/>
+      <c r="G1" s="84"/>
+      <c r="H1" s="84"/>
+      <c r="I1" s="84"/>
+      <c r="J1" s="84"/>
+      <c r="K1" s="84"/>
+      <c r="L1" s="84"/>
+      <c r="M1" s="84"/>
+      <c r="N1" s="84"/>
+      <c r="O1" s="84"/>
+      <c r="P1" s="84"/>
+      <c r="Q1" s="84"/>
+      <c r="R1" s="84"/>
+      <c r="S1" s="84"/>
+      <c r="T1" s="84"/>
+      <c r="U1" s="84"/>
+      <c r="V1" s="84"/>
     </row>
     <row r="2" spans="1:22" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="69" t="s">
+      <c r="A2" s="85" t="s">
         <v>10</v>
       </c>
-      <c r="B2" s="70"/>
-      <c r="C2" s="70"/>
-      <c r="D2" s="70"/>
-      <c r="E2" s="71" t="s">
+      <c r="B2" s="86"/>
+      <c r="C2" s="86"/>
+      <c r="D2" s="86"/>
+      <c r="E2" s="87" t="s">
         <v>68</v>
       </c>
-      <c r="F2" s="71"/>
+      <c r="F2" s="87"/>
       <c r="G2" s="6"/>
       <c r="H2" s="23"/>
-      <c r="I2" s="93"/>
+      <c r="I2" s="70"/>
       <c r="J2" s="23"/>
       <c r="K2" s="23"/>
       <c r="L2" s="24"/>
@@ -8442,7 +8445,7 @@
       <c r="F3" s="8"/>
       <c r="G3" s="8"/>
       <c r="H3" s="8"/>
-      <c r="I3" s="94"/>
+      <c r="I3" s="71"/>
       <c r="J3" s="8"/>
       <c r="K3" s="8"/>
       <c r="L3" s="9"/>
@@ -8458,57 +8461,57 @@
       <c r="V3" s="30"/>
     </row>
     <row r="4" spans="1:22" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="90" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="87" t="s">
+      <c r="A4" s="91" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="93" t="s">
         <v>9</v>
       </c>
-      <c r="C4" s="89"/>
-      <c r="D4" s="89"/>
-      <c r="E4" s="89"/>
-      <c r="F4" s="89"/>
-      <c r="G4" s="89"/>
-      <c r="H4" s="89"/>
-      <c r="I4" s="88"/>
-      <c r="J4" s="73" t="s">
+      <c r="C4" s="94"/>
+      <c r="D4" s="94"/>
+      <c r="E4" s="94"/>
+      <c r="F4" s="94"/>
+      <c r="G4" s="94"/>
+      <c r="H4" s="94"/>
+      <c r="I4" s="95"/>
+      <c r="J4" s="89" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="87" t="s">
+      <c r="K4" s="93" t="s">
         <v>12</v>
       </c>
-      <c r="L4" s="88"/>
-      <c r="M4" s="73" t="s">
+      <c r="L4" s="95"/>
+      <c r="M4" s="89" t="s">
         <v>43</v>
       </c>
-      <c r="N4" s="73" t="s">
+      <c r="N4" s="89" t="s">
         <v>11</v>
       </c>
-      <c r="O4" s="67" t="s">
+      <c r="O4" s="82" t="s">
         <v>8</v>
       </c>
-      <c r="P4" s="78" t="s">
+      <c r="P4" s="81" t="s">
         <v>15</v>
       </c>
-      <c r="Q4" s="67" t="s">
+      <c r="Q4" s="82" t="s">
         <v>40</v>
       </c>
-      <c r="R4" s="67" t="s">
+      <c r="R4" s="82" t="s">
         <v>62</v>
       </c>
-      <c r="S4" s="79" t="s">
+      <c r="S4" s="83" t="s">
         <v>63</v>
       </c>
       <c r="T4" s="29"/>
-      <c r="U4" s="67" t="s">
+      <c r="U4" s="82" t="s">
         <v>40</v>
       </c>
-      <c r="V4" s="67" t="s">
+      <c r="V4" s="82" t="s">
         <v>62</v>
       </c>
     </row>
     <row r="5" spans="1:22" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="91"/>
+      <c r="A5" s="92"/>
       <c r="B5" s="65" t="s">
         <v>1</v>
       </c>
@@ -8530,26 +8533,26 @@
       <c r="H5" s="65" t="s">
         <v>7</v>
       </c>
-      <c r="I5" s="95" t="s">
+      <c r="I5" s="72" t="s">
         <v>16</v>
       </c>
-      <c r="J5" s="74"/>
+      <c r="J5" s="90"/>
       <c r="K5" s="65" t="s">
         <v>13</v>
       </c>
       <c r="L5" s="65" t="s">
         <v>14</v>
       </c>
-      <c r="M5" s="74"/>
-      <c r="N5" s="74"/>
-      <c r="O5" s="67"/>
-      <c r="P5" s="78"/>
-      <c r="Q5" s="67"/>
-      <c r="R5" s="67"/>
-      <c r="S5" s="79"/>
+      <c r="M5" s="90"/>
+      <c r="N5" s="90"/>
+      <c r="O5" s="82"/>
+      <c r="P5" s="81"/>
+      <c r="Q5" s="82"/>
+      <c r="R5" s="82"/>
+      <c r="S5" s="83"/>
       <c r="T5" s="29"/>
-      <c r="U5" s="67"/>
-      <c r="V5" s="67"/>
+      <c r="U5" s="82"/>
+      <c r="V5" s="82"/>
     </row>
     <row r="6" spans="1:22" s="14" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="4">
@@ -8565,13 +8568,13 @@
       <c r="E6" s="55">
         <v>868183037819989</v>
       </c>
-      <c r="F6" s="86"/>
+      <c r="F6" s="68"/>
       <c r="G6" s="54" t="s">
         <v>72</v>
       </c>
       <c r="H6" s="11"/>
-      <c r="I6" s="96" t="s">
-        <v>118</v>
+      <c r="I6" s="73" t="s">
+        <v>117</v>
       </c>
       <c r="J6" s="56"/>
       <c r="K6" s="1" t="s">
@@ -8586,7 +8589,7 @@
       <c r="R6" s="54"/>
       <c r="S6" s="4"/>
       <c r="T6" s="64"/>
-      <c r="U6" s="75" t="s">
+      <c r="U6" s="78" t="s">
         <v>19</v>
       </c>
       <c r="V6" s="4" t="s">
@@ -8607,30 +8610,40 @@
       <c r="E7" s="55">
         <v>868183038549452</v>
       </c>
-      <c r="F7" s="86"/>
+      <c r="F7" s="68"/>
       <c r="G7" s="54" t="s">
         <v>72</v>
       </c>
       <c r="H7" s="54"/>
-      <c r="I7" s="96" t="s">
-        <v>118</v>
+      <c r="I7" s="73" t="s">
+        <v>117</v>
       </c>
       <c r="J7" s="56" t="s">
-        <v>87</v>
+        <v>123</v>
       </c>
       <c r="K7" s="1" t="s">
         <v>86</v>
       </c>
       <c r="L7" s="56"/>
-      <c r="M7" s="56"/>
+      <c r="M7" s="56" t="s">
+        <v>124</v>
+      </c>
       <c r="N7" s="3"/>
-      <c r="O7" s="56"/>
-      <c r="P7" s="56"/>
-      <c r="Q7" s="3"/>
-      <c r="R7" s="54"/>
+      <c r="O7" s="56" t="s">
+        <v>90</v>
+      </c>
+      <c r="P7" s="56" t="s">
+        <v>76</v>
+      </c>
+      <c r="Q7" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="R7" s="54" t="s">
+        <v>31</v>
+      </c>
       <c r="S7" s="4"/>
       <c r="T7" s="64"/>
-      <c r="U7" s="76"/>
+      <c r="U7" s="79"/>
       <c r="V7" s="4" t="s">
         <v>36</v>
       </c>
@@ -8649,42 +8662,42 @@
       <c r="E8" s="55">
         <v>868183034630199</v>
       </c>
-      <c r="F8" s="86"/>
+      <c r="F8" s="68"/>
       <c r="G8" s="54" t="s">
         <v>82</v>
       </c>
       <c r="H8" s="54"/>
-      <c r="I8" s="96" t="s">
-        <v>102</v>
+      <c r="I8" s="73" t="s">
+        <v>101</v>
       </c>
       <c r="J8" s="56" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="K8" s="57" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="L8" s="56" t="s">
         <v>86</v>
       </c>
       <c r="M8" s="56" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="N8" s="1"/>
       <c r="O8" s="56" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="P8" s="1" t="s">
         <v>76</v>
       </c>
       <c r="Q8" s="3" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="R8" s="54" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="S8" s="4"/>
       <c r="T8" s="64"/>
-      <c r="U8" s="76"/>
+      <c r="U8" s="79"/>
       <c r="V8" s="4" t="s">
         <v>22</v>
       </c>
@@ -8703,42 +8716,42 @@
       <c r="E9" s="55">
         <v>868183038074170</v>
       </c>
-      <c r="F9" s="86"/>
+      <c r="F9" s="68"/>
       <c r="G9" s="54" t="s">
         <v>72</v>
       </c>
       <c r="H9" s="2"/>
-      <c r="I9" s="96" t="s">
-        <v>104</v>
+      <c r="I9" s="73" t="s">
+        <v>103</v>
       </c>
       <c r="J9" s="56" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="K9" s="56" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="L9" s="56" t="s">
         <v>86</v>
       </c>
       <c r="M9" s="56" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="N9" s="1"/>
       <c r="O9" s="56" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="P9" s="1" t="s">
         <v>76</v>
       </c>
       <c r="Q9" s="3" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="R9" s="54" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="S9" s="4"/>
       <c r="T9" s="64"/>
-      <c r="U9" s="76"/>
+      <c r="U9" s="79"/>
       <c r="V9" s="4" t="s">
         <v>60</v>
       </c>
@@ -8757,19 +8770,19 @@
       <c r="E10" s="55">
         <v>867717030626163</v>
       </c>
-      <c r="F10" s="86"/>
+      <c r="F10" s="68"/>
       <c r="G10" s="54" t="s">
         <v>82</v>
       </c>
       <c r="H10" s="2"/>
-      <c r="I10" s="96" t="s">
-        <v>97</v>
+      <c r="I10" s="73" t="s">
+        <v>96</v>
       </c>
       <c r="J10" s="56" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="K10" s="1" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="L10" s="56" t="s">
         <v>86</v>
@@ -8782,7 +8795,7 @@
       <c r="R10" s="54"/>
       <c r="S10" s="4"/>
       <c r="T10" s="64"/>
-      <c r="U10" s="76"/>
+      <c r="U10" s="79"/>
       <c r="V10" s="4" t="s">
         <v>32</v>
       </c>
@@ -8801,25 +8814,25 @@
       <c r="E11" s="55">
         <v>868183094567599</v>
       </c>
-      <c r="F11" s="86"/>
+      <c r="F11" s="68"/>
       <c r="G11" s="54" t="s">
         <v>72</v>
       </c>
       <c r="H11" s="2"/>
-      <c r="I11" s="96" t="s">
-        <v>94</v>
+      <c r="I11" s="73" t="s">
+        <v>93</v>
       </c>
       <c r="J11" s="56" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="K11" s="1" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="L11" s="56" t="s">
         <v>86</v>
       </c>
       <c r="M11" s="56" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="N11" s="1"/>
       <c r="O11" s="56"/>
@@ -8827,7 +8840,7 @@
         <v>76</v>
       </c>
       <c r="Q11" s="3" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="R11" s="54" t="s">
         <v>25</v>
@@ -8836,7 +8849,7 @@
         <v>24</v>
       </c>
       <c r="T11" s="64"/>
-      <c r="U11" s="76"/>
+      <c r="U11" s="79"/>
       <c r="V11" s="4" t="s">
         <v>31</v>
       </c>
@@ -8855,42 +8868,42 @@
       <c r="E12" s="55">
         <v>867857039927244</v>
       </c>
-      <c r="F12" s="86"/>
+      <c r="F12" s="68"/>
       <c r="G12" s="54" t="s">
         <v>82</v>
       </c>
       <c r="H12" s="1"/>
-      <c r="I12" s="97" t="s">
-        <v>111</v>
+      <c r="I12" s="74" t="s">
+        <v>110</v>
       </c>
       <c r="J12" s="56" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="K12" s="1" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="L12" s="56" t="s">
         <v>86</v>
       </c>
       <c r="M12" s="56" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="N12" s="1"/>
       <c r="O12" s="56" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="P12" s="1" t="s">
         <v>76</v>
       </c>
       <c r="Q12" s="4" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="R12" s="54" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="S12" s="4"/>
       <c r="T12" s="64"/>
-      <c r="U12" s="75" t="s">
+      <c r="U12" s="78" t="s">
         <v>20</v>
       </c>
       <c r="V12" s="4" t="s">
@@ -8908,7 +8921,7 @@
       <c r="F13" s="54"/>
       <c r="G13" s="54"/>
       <c r="H13" s="15"/>
-      <c r="I13" s="96"/>
+      <c r="I13" s="73"/>
       <c r="J13" s="1"/>
       <c r="K13" s="1"/>
       <c r="L13" s="56"/>
@@ -8920,7 +8933,7 @@
       <c r="R13" s="11"/>
       <c r="S13" s="4"/>
       <c r="T13" s="64"/>
-      <c r="U13" s="76"/>
+      <c r="U13" s="79"/>
       <c r="V13" s="4" t="s">
         <v>38</v>
       </c>
@@ -8936,7 +8949,7 @@
       <c r="F14" s="54"/>
       <c r="G14" s="54"/>
       <c r="H14" s="1"/>
-      <c r="I14" s="96"/>
+      <c r="I14" s="73"/>
       <c r="J14" s="56"/>
       <c r="K14" s="1"/>
       <c r="L14" s="56"/>
@@ -8948,7 +8961,7 @@
       <c r="R14" s="54"/>
       <c r="S14" s="4"/>
       <c r="T14" s="64"/>
-      <c r="U14" s="76"/>
+      <c r="U14" s="79"/>
       <c r="V14" s="4" t="s">
         <v>37</v>
       </c>
@@ -8964,7 +8977,7 @@
       <c r="F15" s="54"/>
       <c r="G15" s="54"/>
       <c r="H15" s="1"/>
-      <c r="I15" s="97"/>
+      <c r="I15" s="74"/>
       <c r="J15" s="56"/>
       <c r="K15" s="1"/>
       <c r="L15" s="56"/>
@@ -8976,7 +8989,7 @@
       <c r="R15" s="54"/>
       <c r="S15" s="4"/>
       <c r="T15" s="16"/>
-      <c r="U15" s="76"/>
+      <c r="U15" s="79"/>
       <c r="V15" s="4" t="s">
         <v>25</v>
       </c>
@@ -8992,7 +9005,7 @@
       <c r="F16" s="54"/>
       <c r="G16" s="54"/>
       <c r="H16" s="1"/>
-      <c r="I16" s="97"/>
+      <c r="I16" s="74"/>
       <c r="J16" s="1"/>
       <c r="K16" s="1"/>
       <c r="L16" s="56"/>
@@ -9004,7 +9017,7 @@
       <c r="R16" s="54"/>
       <c r="S16" s="4"/>
       <c r="T16" s="16"/>
-      <c r="U16" s="77"/>
+      <c r="U16" s="80"/>
       <c r="V16" s="4" t="s">
         <v>26</v>
       </c>
@@ -9020,7 +9033,7 @@
       <c r="F17" s="54"/>
       <c r="G17" s="54"/>
       <c r="H17" s="1"/>
-      <c r="I17" s="96"/>
+      <c r="I17" s="73"/>
       <c r="J17" s="56"/>
       <c r="K17" s="1"/>
       <c r="L17" s="1"/>
@@ -9046,7 +9059,7 @@
       <c r="F18" s="54"/>
       <c r="G18" s="54"/>
       <c r="H18" s="1"/>
-      <c r="I18" s="97"/>
+      <c r="I18" s="74"/>
       <c r="J18" s="1"/>
       <c r="K18" s="1"/>
       <c r="L18" s="1"/>
@@ -9072,7 +9085,7 @@
       <c r="F19" s="54"/>
       <c r="G19" s="54"/>
       <c r="H19" s="1"/>
-      <c r="I19" s="97"/>
+      <c r="I19" s="74"/>
       <c r="J19" s="1"/>
       <c r="K19" s="1"/>
       <c r="L19" s="1"/>
@@ -9102,7 +9115,7 @@
       <c r="F20" s="54"/>
       <c r="G20" s="54"/>
       <c r="H20" s="1"/>
-      <c r="I20" s="97"/>
+      <c r="I20" s="74"/>
       <c r="J20" s="1"/>
       <c r="K20" s="1"/>
       <c r="L20" s="1"/>
@@ -9133,7 +9146,7 @@
       <c r="F21" s="54"/>
       <c r="G21" s="54"/>
       <c r="H21" s="1"/>
-      <c r="I21" s="97"/>
+      <c r="I21" s="74"/>
       <c r="J21" s="1"/>
       <c r="K21" s="1"/>
       <c r="L21" s="1"/>
@@ -9150,7 +9163,7 @@
       </c>
       <c r="V21" s="11">
         <f>COUNTIF($Q$6:$Q$51,"PC")</f>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="22" spans="1:22" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -9164,7 +9177,7 @@
       <c r="F22" s="54"/>
       <c r="G22" s="54"/>
       <c r="H22" s="11"/>
-      <c r="I22" s="97"/>
+      <c r="I22" s="74"/>
       <c r="J22" s="11"/>
       <c r="K22" s="11"/>
       <c r="L22" s="1"/>
@@ -9195,7 +9208,7 @@
       <c r="F23" s="54"/>
       <c r="G23" s="54"/>
       <c r="H23" s="11"/>
-      <c r="I23" s="97"/>
+      <c r="I23" s="74"/>
       <c r="J23" s="1"/>
       <c r="K23" s="11"/>
       <c r="L23" s="11"/>
@@ -9221,7 +9234,7 @@
       <c r="F24" s="54"/>
       <c r="G24" s="54"/>
       <c r="H24" s="11"/>
-      <c r="I24" s="97"/>
+      <c r="I24" s="74"/>
       <c r="J24" s="1"/>
       <c r="K24" s="11"/>
       <c r="L24" s="11"/>
@@ -9247,7 +9260,7 @@
       <c r="F25" s="54"/>
       <c r="G25" s="54"/>
       <c r="H25" s="11"/>
-      <c r="I25" s="97"/>
+      <c r="I25" s="74"/>
       <c r="J25" s="1"/>
       <c r="K25" s="11"/>
       <c r="L25" s="11"/>
@@ -9277,7 +9290,7 @@
       <c r="F26" s="54"/>
       <c r="G26" s="54"/>
       <c r="H26" s="11"/>
-      <c r="I26" s="97"/>
+      <c r="I26" s="74"/>
       <c r="J26" s="1"/>
       <c r="K26" s="11"/>
       <c r="L26" s="11"/>
@@ -9308,7 +9321,7 @@
       <c r="F27" s="54"/>
       <c r="G27" s="54"/>
       <c r="H27" s="11"/>
-      <c r="I27" s="97"/>
+      <c r="I27" s="74"/>
       <c r="J27" s="1"/>
       <c r="K27" s="11"/>
       <c r="L27" s="11"/>
@@ -9339,7 +9352,7 @@
       <c r="F28" s="54"/>
       <c r="G28" s="54"/>
       <c r="H28" s="1"/>
-      <c r="I28" s="97"/>
+      <c r="I28" s="74"/>
       <c r="J28" s="1"/>
       <c r="K28" s="1"/>
       <c r="L28" s="11"/>
@@ -9370,7 +9383,7 @@
       <c r="F29" s="54"/>
       <c r="G29" s="54"/>
       <c r="H29" s="1"/>
-      <c r="I29" s="97"/>
+      <c r="I29" s="74"/>
       <c r="J29" s="1"/>
       <c r="K29" s="1"/>
       <c r="L29" s="11"/>
@@ -9401,7 +9414,7 @@
       <c r="F30" s="11"/>
       <c r="G30" s="11"/>
       <c r="H30" s="1"/>
-      <c r="I30" s="97"/>
+      <c r="I30" s="74"/>
       <c r="J30" s="1"/>
       <c r="K30" s="1"/>
       <c r="L30" s="1"/>
@@ -9432,7 +9445,7 @@
       <c r="F31" s="11"/>
       <c r="G31" s="11"/>
       <c r="H31" s="1"/>
-      <c r="I31" s="97"/>
+      <c r="I31" s="74"/>
       <c r="J31" s="1"/>
       <c r="K31" s="1"/>
       <c r="L31" s="1"/>
@@ -9449,7 +9462,7 @@
       </c>
       <c r="V31" s="11">
         <f>COUNTIF($R$6:$R$51,"*LK*")</f>
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="32" spans="1:22" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -9463,7 +9476,7 @@
       <c r="F32" s="11"/>
       <c r="G32" s="11"/>
       <c r="H32" s="1"/>
-      <c r="I32" s="97"/>
+      <c r="I32" s="74"/>
       <c r="J32" s="1"/>
       <c r="K32" s="1"/>
       <c r="L32" s="1"/>
@@ -9494,7 +9507,7 @@
       <c r="F33" s="11"/>
       <c r="G33" s="11"/>
       <c r="H33" s="1"/>
-      <c r="I33" s="97"/>
+      <c r="I33" s="74"/>
       <c r="J33" s="1"/>
       <c r="K33" s="1"/>
       <c r="L33" s="1"/>
@@ -9525,7 +9538,7 @@
       <c r="F34" s="11"/>
       <c r="G34" s="11"/>
       <c r="H34" s="1"/>
-      <c r="I34" s="97"/>
+      <c r="I34" s="74"/>
       <c r="J34" s="1"/>
       <c r="K34" s="1"/>
       <c r="L34" s="1"/>
@@ -9556,7 +9569,7 @@
       <c r="F35" s="11"/>
       <c r="G35" s="11"/>
       <c r="H35" s="1"/>
-      <c r="I35" s="97"/>
+      <c r="I35" s="74"/>
       <c r="J35" s="1"/>
       <c r="K35" s="1"/>
       <c r="L35" s="1"/>
@@ -9587,7 +9600,7 @@
       <c r="F36" s="11"/>
       <c r="G36" s="11"/>
       <c r="H36" s="1"/>
-      <c r="I36" s="97"/>
+      <c r="I36" s="74"/>
       <c r="J36" s="1"/>
       <c r="K36" s="1"/>
       <c r="L36" s="1"/>
@@ -9618,7 +9631,7 @@
       <c r="F37" s="11"/>
       <c r="G37" s="11"/>
       <c r="H37" s="1"/>
-      <c r="I37" s="97"/>
+      <c r="I37" s="74"/>
       <c r="J37" s="1"/>
       <c r="K37" s="1"/>
       <c r="L37" s="1"/>
@@ -9635,7 +9648,7 @@
       </c>
       <c r="V37" s="11">
         <f>SUM(V26:V36)</f>
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="38" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -9649,7 +9662,7 @@
       <c r="F38" s="11"/>
       <c r="G38" s="11"/>
       <c r="H38" s="1"/>
-      <c r="I38" s="97"/>
+      <c r="I38" s="74"/>
       <c r="J38" s="1"/>
       <c r="K38" s="1"/>
       <c r="L38" s="1"/>
@@ -9675,7 +9688,7 @@
       <c r="F39" s="11"/>
       <c r="G39" s="11"/>
       <c r="H39" s="1"/>
-      <c r="I39" s="97"/>
+      <c r="I39" s="74"/>
       <c r="J39" s="1"/>
       <c r="K39" s="1"/>
       <c r="L39" s="1"/>
@@ -9701,7 +9714,7 @@
       <c r="F40" s="11"/>
       <c r="G40" s="11"/>
       <c r="H40" s="1"/>
-      <c r="I40" s="97"/>
+      <c r="I40" s="74"/>
       <c r="J40" s="1"/>
       <c r="K40" s="1"/>
       <c r="L40" s="1"/>
@@ -9732,7 +9745,7 @@
       <c r="F41" s="11"/>
       <c r="G41" s="11"/>
       <c r="H41" s="1"/>
-      <c r="I41" s="97"/>
+      <c r="I41" s="74"/>
       <c r="J41" s="1"/>
       <c r="K41" s="1"/>
       <c r="L41" s="1"/>
@@ -9763,7 +9776,7 @@
       <c r="F42" s="11"/>
       <c r="G42" s="11"/>
       <c r="H42" s="1"/>
-      <c r="I42" s="97"/>
+      <c r="I42" s="74"/>
       <c r="J42" s="1"/>
       <c r="K42" s="1"/>
       <c r="L42" s="1"/>
@@ -9789,7 +9802,7 @@
       <c r="F43" s="11"/>
       <c r="G43" s="11"/>
       <c r="H43" s="1"/>
-      <c r="I43" s="97"/>
+      <c r="I43" s="74"/>
       <c r="J43" s="1"/>
       <c r="K43" s="1"/>
       <c r="L43" s="1"/>
@@ -9815,7 +9828,7 @@
       <c r="F44" s="11"/>
       <c r="G44" s="11"/>
       <c r="H44" s="1"/>
-      <c r="I44" s="97"/>
+      <c r="I44" s="74"/>
       <c r="J44" s="1"/>
       <c r="K44" s="1"/>
       <c r="L44" s="1"/>
@@ -9851,7 +9864,7 @@
       <c r="F45" s="11"/>
       <c r="G45" s="11"/>
       <c r="H45" s="1"/>
-      <c r="I45" s="97"/>
+      <c r="I45" s="74"/>
       <c r="J45" s="1"/>
       <c r="K45" s="1"/>
       <c r="L45" s="1"/>
@@ -9890,7 +9903,7 @@
       <c r="F46" s="11"/>
       <c r="G46" s="11"/>
       <c r="H46" s="1"/>
-      <c r="I46" s="97"/>
+      <c r="I46" s="74"/>
       <c r="J46" s="1"/>
       <c r="K46" s="1"/>
       <c r="L46" s="1"/>
@@ -9929,7 +9942,7 @@
       <c r="F47" s="11"/>
       <c r="G47" s="11"/>
       <c r="H47" s="1"/>
-      <c r="I47" s="97"/>
+      <c r="I47" s="74"/>
       <c r="J47" s="1"/>
       <c r="K47" s="1"/>
       <c r="L47" s="1"/>
@@ -9968,7 +9981,7 @@
       <c r="F48" s="11"/>
       <c r="G48" s="11"/>
       <c r="H48" s="1"/>
-      <c r="I48" s="97"/>
+      <c r="I48" s="74"/>
       <c r="J48" s="1"/>
       <c r="K48" s="1"/>
       <c r="L48" s="1"/>
@@ -10010,7 +10023,7 @@
       <c r="F49" s="11"/>
       <c r="G49" s="11"/>
       <c r="H49" s="1"/>
-      <c r="I49" s="97"/>
+      <c r="I49" s="74"/>
       <c r="J49" s="1"/>
       <c r="K49" s="1"/>
       <c r="L49" s="1"/>
@@ -10022,9 +10035,9 @@
       <c r="R49" s="11"/>
       <c r="S49" s="4"/>
       <c r="T49" s="39"/>
-      <c r="U49" s="85"/>
-      <c r="V49" s="85"/>
-      <c r="W49" s="85"/>
+      <c r="U49" s="67"/>
+      <c r="V49" s="67"/>
+      <c r="W49" s="67"/>
       <c r="X49" s="37"/>
     </row>
     <row r="50" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -10038,7 +10051,7 @@
       <c r="F50" s="66"/>
       <c r="G50" s="66"/>
       <c r="H50" s="36"/>
-      <c r="I50" s="98"/>
+      <c r="I50" s="75"/>
       <c r="J50" s="36"/>
       <c r="K50" s="36"/>
       <c r="L50" s="36"/>
@@ -10050,9 +10063,9 @@
       <c r="R50" s="66"/>
       <c r="S50" s="33"/>
       <c r="T50" s="39"/>
-      <c r="U50" s="85"/>
-      <c r="V50" s="85"/>
-      <c r="W50" s="85"/>
+      <c r="U50" s="67"/>
+      <c r="V50" s="67"/>
+      <c r="W50" s="67"/>
       <c r="X50" s="37"/>
     </row>
     <row r="51" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -10066,7 +10079,7 @@
       <c r="F51" s="11"/>
       <c r="G51" s="11"/>
       <c r="H51" s="1"/>
-      <c r="I51" s="97"/>
+      <c r="I51" s="74"/>
       <c r="J51" s="1"/>
       <c r="K51" s="1"/>
       <c r="L51" s="1"/>
@@ -10078,9 +10091,9 @@
       <c r="R51" s="11"/>
       <c r="S51" s="11"/>
       <c r="T51" s="39"/>
-      <c r="U51" s="85"/>
-      <c r="V51" s="85"/>
-      <c r="W51" s="85"/>
+      <c r="U51" s="67"/>
+      <c r="V51" s="67"/>
+      <c r="W51" s="67"/>
       <c r="X51" s="37"/>
     </row>
     <row r="52" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -10094,7 +10107,7 @@
       <c r="F52" s="37"/>
       <c r="G52" s="37"/>
       <c r="H52" s="37"/>
-      <c r="I52" s="99"/>
+      <c r="I52" s="76"/>
       <c r="J52" s="37"/>
       <c r="K52" s="37"/>
       <c r="L52" s="38"/>
@@ -10106,9 +10119,9 @@
       <c r="R52" s="37"/>
       <c r="S52" s="37"/>
       <c r="T52" s="39"/>
-      <c r="U52" s="85"/>
-      <c r="V52" s="85"/>
-      <c r="W52" s="85"/>
+      <c r="U52" s="67"/>
+      <c r="V52" s="67"/>
+      <c r="W52" s="67"/>
       <c r="X52" s="37"/>
     </row>
     <row r="53" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -10122,7 +10135,7 @@
       <c r="F53" s="37"/>
       <c r="G53" s="37"/>
       <c r="H53" s="37"/>
-      <c r="I53" s="99"/>
+      <c r="I53" s="76"/>
       <c r="J53" s="37"/>
       <c r="K53" s="37"/>
       <c r="L53" s="38"/>
@@ -10134,9 +10147,9 @@
       <c r="R53" s="37"/>
       <c r="S53" s="37"/>
       <c r="T53" s="39"/>
-      <c r="U53" s="85"/>
-      <c r="V53" s="85"/>
-      <c r="W53" s="85"/>
+      <c r="U53" s="67"/>
+      <c r="V53" s="67"/>
+      <c r="W53" s="67"/>
       <c r="X53" s="37"/>
     </row>
     <row r="54" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -10150,7 +10163,7 @@
       <c r="F54" s="37"/>
       <c r="G54" s="37"/>
       <c r="H54" s="37"/>
-      <c r="I54" s="99"/>
+      <c r="I54" s="76"/>
       <c r="J54" s="37"/>
       <c r="K54" s="37"/>
       <c r="L54" s="38"/>
@@ -10162,9 +10175,9 @@
       <c r="R54" s="37"/>
       <c r="S54" s="37"/>
       <c r="T54" s="39"/>
-      <c r="U54" s="85"/>
-      <c r="V54" s="85"/>
-      <c r="W54" s="85"/>
+      <c r="U54" s="67"/>
+      <c r="V54" s="67"/>
+      <c r="W54" s="67"/>
       <c r="X54" s="37"/>
     </row>
     <row r="55" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -10178,7 +10191,7 @@
       <c r="F55" s="37"/>
       <c r="G55" s="37"/>
       <c r="H55" s="37"/>
-      <c r="I55" s="99"/>
+      <c r="I55" s="76"/>
       <c r="J55" s="37"/>
       <c r="K55" s="37"/>
       <c r="L55" s="38"/>
@@ -10190,9 +10203,9 @@
       <c r="R55" s="37"/>
       <c r="S55" s="37"/>
       <c r="T55" s="42"/>
-      <c r="U55" s="85"/>
-      <c r="V55" s="85"/>
-      <c r="W55" s="85"/>
+      <c r="U55" s="67"/>
+      <c r="V55" s="67"/>
+      <c r="W55" s="67"/>
       <c r="X55" s="37"/>
     </row>
     <row r="56" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -10205,13 +10218,6 @@
     </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="U6:U11"/>
-    <mergeCell ref="U12:U16"/>
-    <mergeCell ref="P4:P5"/>
-    <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="R4:R5"/>
-    <mergeCell ref="S4:S5"/>
-    <mergeCell ref="U4:U5"/>
     <mergeCell ref="V4:V5"/>
     <mergeCell ref="A1:V1"/>
     <mergeCell ref="A2:D2"/>
@@ -10223,6 +10229,13 @@
     <mergeCell ref="M4:M5"/>
     <mergeCell ref="N4:N5"/>
     <mergeCell ref="O4:O5"/>
+    <mergeCell ref="U6:U11"/>
+    <mergeCell ref="U12:U16"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="S4:S5"/>
+    <mergeCell ref="U4:U5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -10267,42 +10280,42 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:22" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="68" t="s">
+      <c r="A1" s="84" t="s">
         <v>67</v>
       </c>
-      <c r="B1" s="68"/>
-      <c r="C1" s="68"/>
-      <c r="D1" s="68"/>
-      <c r="E1" s="68"/>
-      <c r="F1" s="68"/>
-      <c r="G1" s="68"/>
-      <c r="H1" s="68"/>
-      <c r="I1" s="68"/>
-      <c r="J1" s="68"/>
-      <c r="K1" s="68"/>
-      <c r="L1" s="68"/>
-      <c r="M1" s="68"/>
-      <c r="N1" s="68"/>
-      <c r="O1" s="68"/>
-      <c r="P1" s="68"/>
-      <c r="Q1" s="68"/>
-      <c r="R1" s="68"/>
-      <c r="S1" s="68"/>
-      <c r="T1" s="68"/>
-      <c r="U1" s="68"/>
-      <c r="V1" s="68"/>
+      <c r="B1" s="84"/>
+      <c r="C1" s="84"/>
+      <c r="D1" s="84"/>
+      <c r="E1" s="84"/>
+      <c r="F1" s="84"/>
+      <c r="G1" s="84"/>
+      <c r="H1" s="84"/>
+      <c r="I1" s="84"/>
+      <c r="J1" s="84"/>
+      <c r="K1" s="84"/>
+      <c r="L1" s="84"/>
+      <c r="M1" s="84"/>
+      <c r="N1" s="84"/>
+      <c r="O1" s="84"/>
+      <c r="P1" s="84"/>
+      <c r="Q1" s="84"/>
+      <c r="R1" s="84"/>
+      <c r="S1" s="84"/>
+      <c r="T1" s="84"/>
+      <c r="U1" s="84"/>
+      <c r="V1" s="84"/>
     </row>
     <row r="2" spans="1:22" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="69" t="s">
+      <c r="A2" s="85" t="s">
         <v>10</v>
       </c>
-      <c r="B2" s="70"/>
-      <c r="C2" s="70"/>
-      <c r="D2" s="70"/>
-      <c r="E2" s="71" t="s">
+      <c r="B2" s="86"/>
+      <c r="C2" s="86"/>
+      <c r="D2" s="86"/>
+      <c r="E2" s="87" t="s">
         <v>68</v>
       </c>
-      <c r="F2" s="71"/>
+      <c r="F2" s="87"/>
       <c r="G2" s="6"/>
       <c r="H2" s="23"/>
       <c r="I2" s="23"/>
@@ -10345,57 +10358,57 @@
       <c r="V3" s="30"/>
     </row>
     <row r="4" spans="1:22" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="72" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="67" t="s">
+      <c r="A4" s="88" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="82" t="s">
         <v>9</v>
       </c>
-      <c r="C4" s="67"/>
-      <c r="D4" s="67"/>
-      <c r="E4" s="67"/>
-      <c r="F4" s="67"/>
-      <c r="G4" s="67"/>
-      <c r="H4" s="67"/>
-      <c r="I4" s="67"/>
-      <c r="J4" s="67" t="s">
+      <c r="C4" s="82"/>
+      <c r="D4" s="82"/>
+      <c r="E4" s="82"/>
+      <c r="F4" s="82"/>
+      <c r="G4" s="82"/>
+      <c r="H4" s="82"/>
+      <c r="I4" s="82"/>
+      <c r="J4" s="82" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="67" t="s">
+      <c r="K4" s="82" t="s">
         <v>12</v>
       </c>
-      <c r="L4" s="67"/>
-      <c r="M4" s="73" t="s">
+      <c r="L4" s="82"/>
+      <c r="M4" s="89" t="s">
         <v>43</v>
       </c>
-      <c r="N4" s="73" t="s">
+      <c r="N4" s="89" t="s">
         <v>11</v>
       </c>
-      <c r="O4" s="67" t="s">
+      <c r="O4" s="82" t="s">
         <v>8</v>
       </c>
-      <c r="P4" s="78" t="s">
+      <c r="P4" s="81" t="s">
         <v>15</v>
       </c>
-      <c r="Q4" s="67" t="s">
+      <c r="Q4" s="82" t="s">
         <v>40</v>
       </c>
-      <c r="R4" s="67" t="s">
+      <c r="R4" s="82" t="s">
         <v>62</v>
       </c>
-      <c r="S4" s="79" t="s">
+      <c r="S4" s="83" t="s">
         <v>63</v>
       </c>
       <c r="T4" s="29"/>
-      <c r="U4" s="67" t="s">
+      <c r="U4" s="82" t="s">
         <v>40</v>
       </c>
-      <c r="V4" s="67" t="s">
+      <c r="V4" s="82" t="s">
         <v>62</v>
       </c>
     </row>
     <row r="5" spans="1:22" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="72"/>
+      <c r="A5" s="88"/>
       <c r="B5" s="62" t="s">
         <v>1</v>
       </c>
@@ -10420,23 +10433,23 @@
       <c r="I5" s="62" t="s">
         <v>16</v>
       </c>
-      <c r="J5" s="67"/>
+      <c r="J5" s="82"/>
       <c r="K5" s="62" t="s">
         <v>13</v>
       </c>
       <c r="L5" s="62" t="s">
         <v>14</v>
       </c>
-      <c r="M5" s="74"/>
-      <c r="N5" s="74"/>
-      <c r="O5" s="67"/>
-      <c r="P5" s="78"/>
-      <c r="Q5" s="67"/>
-      <c r="R5" s="67"/>
-      <c r="S5" s="79"/>
+      <c r="M5" s="90"/>
+      <c r="N5" s="90"/>
+      <c r="O5" s="82"/>
+      <c r="P5" s="81"/>
+      <c r="Q5" s="82"/>
+      <c r="R5" s="82"/>
+      <c r="S5" s="83"/>
       <c r="T5" s="29"/>
-      <c r="U5" s="67"/>
-      <c r="V5" s="67"/>
+      <c r="U5" s="82"/>
+      <c r="V5" s="82"/>
     </row>
     <row r="6" spans="1:22" s="14" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="4">
@@ -10485,7 +10498,7 @@
       </c>
       <c r="S6" s="4"/>
       <c r="T6" s="61"/>
-      <c r="U6" s="75" t="s">
+      <c r="U6" s="78" t="s">
         <v>19</v>
       </c>
       <c r="V6" s="4" t="s">
@@ -10515,7 +10528,7 @@
       <c r="R7" s="54"/>
       <c r="S7" s="4"/>
       <c r="T7" s="61"/>
-      <c r="U7" s="76"/>
+      <c r="U7" s="79"/>
       <c r="V7" s="4" t="s">
         <v>36</v>
       </c>
@@ -10543,7 +10556,7 @@
       <c r="R8" s="54"/>
       <c r="S8" s="4"/>
       <c r="T8" s="61"/>
-      <c r="U8" s="76"/>
+      <c r="U8" s="79"/>
       <c r="V8" s="4" t="s">
         <v>22</v>
       </c>
@@ -10571,7 +10584,7 @@
       <c r="R9" s="54"/>
       <c r="S9" s="4"/>
       <c r="T9" s="61"/>
-      <c r="U9" s="76"/>
+      <c r="U9" s="79"/>
       <c r="V9" s="4" t="s">
         <v>60</v>
       </c>
@@ -10599,7 +10612,7 @@
       <c r="R10" s="54"/>
       <c r="S10" s="4"/>
       <c r="T10" s="61"/>
-      <c r="U10" s="76"/>
+      <c r="U10" s="79"/>
       <c r="V10" s="4" t="s">
         <v>32</v>
       </c>
@@ -10627,7 +10640,7 @@
       <c r="R11" s="54"/>
       <c r="S11" s="4"/>
       <c r="T11" s="61"/>
-      <c r="U11" s="76"/>
+      <c r="U11" s="79"/>
       <c r="V11" s="4" t="s">
         <v>31</v>
       </c>
@@ -10655,7 +10668,7 @@
       <c r="R12" s="54"/>
       <c r="S12" s="4"/>
       <c r="T12" s="61"/>
-      <c r="U12" s="75" t="s">
+      <c r="U12" s="78" t="s">
         <v>20</v>
       </c>
       <c r="V12" s="4" t="s">
@@ -10685,7 +10698,7 @@
       <c r="R13" s="11"/>
       <c r="S13" s="4"/>
       <c r="T13" s="61"/>
-      <c r="U13" s="76"/>
+      <c r="U13" s="79"/>
       <c r="V13" s="4" t="s">
         <v>38</v>
       </c>
@@ -10713,7 +10726,7 @@
       <c r="R14" s="54"/>
       <c r="S14" s="4"/>
       <c r="T14" s="61"/>
-      <c r="U14" s="76"/>
+      <c r="U14" s="79"/>
       <c r="V14" s="4" t="s">
         <v>37</v>
       </c>
@@ -10741,7 +10754,7 @@
       <c r="R15" s="54"/>
       <c r="S15" s="4"/>
       <c r="T15" s="16"/>
-      <c r="U15" s="76"/>
+      <c r="U15" s="79"/>
       <c r="V15" s="4" t="s">
         <v>25</v>
       </c>
@@ -10769,7 +10782,7 @@
       <c r="R16" s="54"/>
       <c r="S16" s="4"/>
       <c r="T16" s="16"/>
-      <c r="U16" s="77"/>
+      <c r="U16" s="80"/>
       <c r="V16" s="4" t="s">
         <v>26</v>
       </c>
@@ -11787,9 +11800,9 @@
       <c r="R49" s="11"/>
       <c r="S49" s="4"/>
       <c r="T49" s="39"/>
-      <c r="U49" s="85"/>
-      <c r="V49" s="85"/>
-      <c r="W49" s="85"/>
+      <c r="U49" s="67"/>
+      <c r="V49" s="67"/>
+      <c r="W49" s="67"/>
       <c r="X49" s="37"/>
     </row>
     <row r="50" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -11815,9 +11828,9 @@
       <c r="R50" s="63"/>
       <c r="S50" s="33"/>
       <c r="T50" s="39"/>
-      <c r="U50" s="85"/>
-      <c r="V50" s="85"/>
-      <c r="W50" s="85"/>
+      <c r="U50" s="67"/>
+      <c r="V50" s="67"/>
+      <c r="W50" s="67"/>
       <c r="X50" s="37"/>
     </row>
     <row r="51" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -11843,9 +11856,9 @@
       <c r="R51" s="11"/>
       <c r="S51" s="11"/>
       <c r="T51" s="39"/>
-      <c r="U51" s="85"/>
-      <c r="V51" s="85"/>
-      <c r="W51" s="85"/>
+      <c r="U51" s="67"/>
+      <c r="V51" s="67"/>
+      <c r="W51" s="67"/>
       <c r="X51" s="37"/>
     </row>
     <row r="52" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -11871,9 +11884,9 @@
       <c r="R52" s="37"/>
       <c r="S52" s="37"/>
       <c r="T52" s="39"/>
-      <c r="U52" s="85"/>
-      <c r="V52" s="85"/>
-      <c r="W52" s="85"/>
+      <c r="U52" s="67"/>
+      <c r="V52" s="67"/>
+      <c r="W52" s="67"/>
       <c r="X52" s="37"/>
     </row>
     <row r="53" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -11899,9 +11912,9 @@
       <c r="R53" s="37"/>
       <c r="S53" s="37"/>
       <c r="T53" s="39"/>
-      <c r="U53" s="85"/>
-      <c r="V53" s="85"/>
-      <c r="W53" s="85"/>
+      <c r="U53" s="67"/>
+      <c r="V53" s="67"/>
+      <c r="W53" s="67"/>
       <c r="X53" s="37"/>
     </row>
     <row r="54" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -11927,9 +11940,9 @@
       <c r="R54" s="37"/>
       <c r="S54" s="37"/>
       <c r="T54" s="39"/>
-      <c r="U54" s="85"/>
-      <c r="V54" s="85"/>
-      <c r="W54" s="85"/>
+      <c r="U54" s="67"/>
+      <c r="V54" s="67"/>
+      <c r="W54" s="67"/>
       <c r="X54" s="37"/>
     </row>
     <row r="55" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -11955,9 +11968,9 @@
       <c r="R55" s="37"/>
       <c r="S55" s="37"/>
       <c r="T55" s="42"/>
-      <c r="U55" s="85"/>
-      <c r="V55" s="85"/>
-      <c r="W55" s="85"/>
+      <c r="U55" s="67"/>
+      <c r="V55" s="67"/>
+      <c r="W55" s="67"/>
       <c r="X55" s="37"/>
     </row>
     <row r="56" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -11970,13 +11983,6 @@
     </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="U6:U11"/>
-    <mergeCell ref="U12:U16"/>
-    <mergeCell ref="P4:P5"/>
-    <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="R4:R5"/>
-    <mergeCell ref="S4:S5"/>
-    <mergeCell ref="U4:U5"/>
     <mergeCell ref="V4:V5"/>
     <mergeCell ref="A1:V1"/>
     <mergeCell ref="A2:D2"/>
@@ -11988,6 +11994,13 @@
     <mergeCell ref="M4:M5"/>
     <mergeCell ref="N4:N5"/>
     <mergeCell ref="O4:O5"/>
+    <mergeCell ref="U6:U11"/>
+    <mergeCell ref="U12:U16"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="S4:S5"/>
+    <mergeCell ref="U4:U5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -12030,41 +12043,41 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="68" t="s">
+      <c r="A1" s="84" t="s">
         <v>67</v>
       </c>
-      <c r="B1" s="68"/>
-      <c r="C1" s="68"/>
-      <c r="D1" s="68"/>
-      <c r="E1" s="68"/>
-      <c r="F1" s="68"/>
-      <c r="G1" s="68"/>
-      <c r="H1" s="68"/>
-      <c r="I1" s="68"/>
-      <c r="J1" s="68"/>
-      <c r="K1" s="68"/>
-      <c r="L1" s="68"/>
-      <c r="M1" s="68"/>
-      <c r="N1" s="68"/>
-      <c r="O1" s="68"/>
-      <c r="P1" s="68"/>
-      <c r="Q1" s="68"/>
-      <c r="R1" s="68"/>
-      <c r="S1" s="68"/>
-      <c r="T1" s="68"/>
-      <c r="U1" s="68"/>
-      <c r="V1" s="68"/>
-      <c r="W1" s="68"/>
+      <c r="B1" s="84"/>
+      <c r="C1" s="84"/>
+      <c r="D1" s="84"/>
+      <c r="E1" s="84"/>
+      <c r="F1" s="84"/>
+      <c r="G1" s="84"/>
+      <c r="H1" s="84"/>
+      <c r="I1" s="84"/>
+      <c r="J1" s="84"/>
+      <c r="K1" s="84"/>
+      <c r="L1" s="84"/>
+      <c r="M1" s="84"/>
+      <c r="N1" s="84"/>
+      <c r="O1" s="84"/>
+      <c r="P1" s="84"/>
+      <c r="Q1" s="84"/>
+      <c r="R1" s="84"/>
+      <c r="S1" s="84"/>
+      <c r="T1" s="84"/>
+      <c r="U1" s="84"/>
+      <c r="V1" s="84"/>
+      <c r="W1" s="84"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="69" t="s">
+      <c r="A2" s="85" t="s">
         <v>10</v>
       </c>
-      <c r="B2" s="70"/>
-      <c r="C2" s="70"/>
-      <c r="D2" s="70"/>
-      <c r="E2" s="71"/>
-      <c r="F2" s="71"/>
+      <c r="B2" s="86"/>
+      <c r="C2" s="86"/>
+      <c r="D2" s="86"/>
+      <c r="E2" s="87"/>
+      <c r="F2" s="87"/>
       <c r="G2" s="6"/>
       <c r="H2" s="23"/>
       <c r="I2" s="23"/>
@@ -12109,58 +12122,58 @@
       <c r="W3" s="30"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="72" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="67" t="s">
+      <c r="A4" s="88" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="82" t="s">
         <v>9</v>
       </c>
-      <c r="C4" s="67"/>
-      <c r="D4" s="67"/>
-      <c r="E4" s="67"/>
-      <c r="F4" s="67"/>
-      <c r="G4" s="67"/>
-      <c r="H4" s="67"/>
-      <c r="I4" s="67"/>
-      <c r="J4" s="67" t="s">
+      <c r="C4" s="82"/>
+      <c r="D4" s="82"/>
+      <c r="E4" s="82"/>
+      <c r="F4" s="82"/>
+      <c r="G4" s="82"/>
+      <c r="H4" s="82"/>
+      <c r="I4" s="82"/>
+      <c r="J4" s="82" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="67" t="s">
+      <c r="K4" s="82" t="s">
         <v>12</v>
       </c>
-      <c r="L4" s="67"/>
-      <c r="M4" s="73" t="s">
+      <c r="L4" s="82"/>
+      <c r="M4" s="89" t="s">
         <v>43</v>
       </c>
-      <c r="N4" s="73" t="s">
+      <c r="N4" s="89" t="s">
         <v>11</v>
       </c>
-      <c r="O4" s="67" t="s">
+      <c r="O4" s="82" t="s">
         <v>8</v>
       </c>
-      <c r="P4" s="78" t="s">
+      <c r="P4" s="81" t="s">
         <v>15</v>
       </c>
-      <c r="Q4" s="67" t="s">
+      <c r="Q4" s="82" t="s">
         <v>40</v>
       </c>
-      <c r="R4" s="67" t="s">
+      <c r="R4" s="82" t="s">
         <v>62</v>
       </c>
-      <c r="S4" s="83" t="s">
+      <c r="S4" s="99" t="s">
         <v>66</v>
       </c>
       <c r="T4" s="29"/>
       <c r="U4" s="29"/>
-      <c r="V4" s="67" t="s">
+      <c r="V4" s="82" t="s">
         <v>40</v>
       </c>
-      <c r="W4" s="67" t="s">
+      <c r="W4" s="82" t="s">
         <v>62</v>
       </c>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="72"/>
+      <c r="A5" s="88"/>
       <c r="B5" s="5" t="s">
         <v>1</v>
       </c>
@@ -12185,24 +12198,24 @@
       <c r="I5" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="J5" s="67"/>
+      <c r="J5" s="82"/>
       <c r="K5" s="5" t="s">
         <v>13</v>
       </c>
       <c r="L5" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="M5" s="74"/>
-      <c r="N5" s="74"/>
-      <c r="O5" s="67"/>
-      <c r="P5" s="78"/>
-      <c r="Q5" s="67"/>
-      <c r="R5" s="67"/>
-      <c r="S5" s="84"/>
+      <c r="M5" s="90"/>
+      <c r="N5" s="90"/>
+      <c r="O5" s="82"/>
+      <c r="P5" s="81"/>
+      <c r="Q5" s="82"/>
+      <c r="R5" s="82"/>
+      <c r="S5" s="100"/>
       <c r="T5" s="29"/>
       <c r="U5" s="29"/>
-      <c r="V5" s="67"/>
-      <c r="W5" s="67"/>
+      <c r="V5" s="82"/>
+      <c r="W5" s="82"/>
     </row>
     <row r="6" spans="1:23" s="14" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="4">
@@ -12228,7 +12241,7 @@
       <c r="S6" s="4"/>
       <c r="T6" s="29"/>
       <c r="U6" s="31"/>
-      <c r="V6" s="75" t="s">
+      <c r="V6" s="78" t="s">
         <v>19</v>
       </c>
       <c r="W6" s="4" t="s">
@@ -12259,7 +12272,7 @@
       <c r="S7" s="4"/>
       <c r="T7" s="29"/>
       <c r="U7" s="31"/>
-      <c r="V7" s="76"/>
+      <c r="V7" s="79"/>
       <c r="W7" s="4" t="s">
         <v>36</v>
       </c>
@@ -12288,7 +12301,7 @@
       <c r="S8" s="4"/>
       <c r="T8" s="29"/>
       <c r="U8" s="31"/>
-      <c r="V8" s="76"/>
+      <c r="V8" s="79"/>
       <c r="W8" s="4" t="s">
         <v>22</v>
       </c>
@@ -12317,7 +12330,7 @@
       <c r="S9" s="4"/>
       <c r="T9" s="31"/>
       <c r="U9" s="31"/>
-      <c r="V9" s="76"/>
+      <c r="V9" s="79"/>
       <c r="W9" s="4" t="s">
         <v>60</v>
       </c>
@@ -12346,7 +12359,7 @@
       <c r="S10" s="4"/>
       <c r="T10" s="31"/>
       <c r="U10" s="31"/>
-      <c r="V10" s="76"/>
+      <c r="V10" s="79"/>
       <c r="W10" s="4" t="s">
         <v>32</v>
       </c>
@@ -12375,7 +12388,7 @@
       <c r="S11" s="4"/>
       <c r="T11" s="31"/>
       <c r="U11" s="31"/>
-      <c r="V11" s="76"/>
+      <c r="V11" s="79"/>
       <c r="W11" s="4" t="s">
         <v>31</v>
       </c>
@@ -12404,7 +12417,7 @@
       <c r="S12" s="4"/>
       <c r="T12" s="31"/>
       <c r="U12" s="31"/>
-      <c r="V12" s="75" t="s">
+      <c r="V12" s="78" t="s">
         <v>20</v>
       </c>
       <c r="W12" s="4" t="s">
@@ -12435,7 +12448,7 @@
       <c r="S13" s="4"/>
       <c r="T13" s="31"/>
       <c r="U13" s="31"/>
-      <c r="V13" s="76"/>
+      <c r="V13" s="79"/>
       <c r="W13" s="4" t="s">
         <v>38</v>
       </c>
@@ -12464,7 +12477,7 @@
       <c r="S14" s="4"/>
       <c r="T14" s="31"/>
       <c r="U14" s="31"/>
-      <c r="V14" s="76"/>
+      <c r="V14" s="79"/>
       <c r="W14" s="4" t="s">
         <v>37</v>
       </c>
@@ -12493,7 +12506,7 @@
       <c r="S15" s="4"/>
       <c r="T15" s="31"/>
       <c r="U15" s="16"/>
-      <c r="V15" s="76"/>
+      <c r="V15" s="79"/>
       <c r="W15" s="4" t="s">
         <v>25</v>
       </c>
@@ -12522,7 +12535,7 @@
       <c r="S16" s="4"/>
       <c r="T16" s="31"/>
       <c r="U16" s="16"/>
-      <c r="V16" s="77"/>
+      <c r="V16" s="80"/>
       <c r="W16" s="4" t="s">
         <v>26</v>
       </c>
@@ -13756,10 +13769,10 @@
       <c r="S56" s="37"/>
       <c r="T56" s="49"/>
       <c r="U56" s="51"/>
-      <c r="V56" s="80" t="s">
+      <c r="V56" s="96" t="s">
         <v>65</v>
       </c>
-      <c r="W56" s="80">
+      <c r="W56" s="96">
         <f>SUM(COUNTIF($D$6:$D$106,"**")-SUM($W$45:$W$55))</f>
         <v>0</v>
       </c>
@@ -13788,8 +13801,8 @@
       <c r="S57" s="37"/>
       <c r="T57" s="49"/>
       <c r="U57" s="51"/>
-      <c r="V57" s="81"/>
-      <c r="W57" s="81"/>
+      <c r="V57" s="97"/>
+      <c r="W57" s="97"/>
     </row>
     <row r="58" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A58" s="4">
@@ -13815,8 +13828,8 @@
       <c r="S58" s="37"/>
       <c r="T58" s="49"/>
       <c r="U58" s="51"/>
-      <c r="V58" s="82"/>
-      <c r="W58" s="82"/>
+      <c r="V58" s="98"/>
+      <c r="W58" s="98"/>
     </row>
     <row r="59" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A59" s="4">
@@ -15103,6 +15116,16 @@
   </sheetData>
   <autoFilter ref="S1:S105"/>
   <mergeCells count="20">
+    <mergeCell ref="V6:V11"/>
+    <mergeCell ref="V12:V16"/>
+    <mergeCell ref="V56:V58"/>
+    <mergeCell ref="W56:W58"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="S4:S5"/>
+    <mergeCell ref="V4:V5"/>
+    <mergeCell ref="W4:W5"/>
     <mergeCell ref="A1:W1"/>
     <mergeCell ref="A2:D2"/>
     <mergeCell ref="E2:F2"/>
@@ -15113,16 +15136,6 @@
     <mergeCell ref="M4:M5"/>
     <mergeCell ref="N4:N5"/>
     <mergeCell ref="O4:O5"/>
-    <mergeCell ref="V6:V11"/>
-    <mergeCell ref="V12:V16"/>
-    <mergeCell ref="V56:V58"/>
-    <mergeCell ref="W56:W58"/>
-    <mergeCell ref="P4:P5"/>
-    <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="R4:R5"/>
-    <mergeCell ref="S4:S5"/>
-    <mergeCell ref="V4:V5"/>
-    <mergeCell ref="W4:W5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/5. WS/1. Bộ phận bảo hành/1. Thực hiện sửa chữa bảo hành/nam2021/Thang1/02.XuLyBH/XLBH2101_Techglobal.xlsx
+++ b/5. WS/1. Bộ phận bảo hành/1. Thực hiện sửa chữa bảo hành/nam2021/Thang1/02.XuLyBH/XLBH2101_Techglobal.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-15" yWindow="4035" windowWidth="10320" windowHeight="4065" activeTab="1"/>
+    <workbookView xWindow="-15" yWindow="4035" windowWidth="10320" windowHeight="4065" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="TG102" sheetId="26" r:id="rId1"/>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="669" uniqueCount="145">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="855" uniqueCount="145">
   <si>
     <t>STT</t>
   </si>
@@ -967,7 +967,22 @@
     <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -989,21 +1004,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1342,8 +1342,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:X57"/>
   <sheetViews>
-    <sheetView showZeros="0" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+    <sheetView showZeros="0" topLeftCell="E1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="B6" sqref="B6:S6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1376,42 +1376,42 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:22" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="79" t="s">
+      <c r="A1" s="84" t="s">
         <v>67</v>
       </c>
-      <c r="B1" s="79"/>
-      <c r="C1" s="79"/>
-      <c r="D1" s="79"/>
-      <c r="E1" s="79"/>
-      <c r="F1" s="79"/>
-      <c r="G1" s="79"/>
-      <c r="H1" s="79"/>
-      <c r="I1" s="79"/>
-      <c r="J1" s="79"/>
-      <c r="K1" s="79"/>
-      <c r="L1" s="79"/>
-      <c r="M1" s="79"/>
-      <c r="N1" s="79"/>
-      <c r="O1" s="79"/>
-      <c r="P1" s="79"/>
-      <c r="Q1" s="79"/>
-      <c r="R1" s="79"/>
-      <c r="S1" s="79"/>
-      <c r="T1" s="79"/>
-      <c r="U1" s="79"/>
-      <c r="V1" s="79"/>
+      <c r="B1" s="84"/>
+      <c r="C1" s="84"/>
+      <c r="D1" s="84"/>
+      <c r="E1" s="84"/>
+      <c r="F1" s="84"/>
+      <c r="G1" s="84"/>
+      <c r="H1" s="84"/>
+      <c r="I1" s="84"/>
+      <c r="J1" s="84"/>
+      <c r="K1" s="84"/>
+      <c r="L1" s="84"/>
+      <c r="M1" s="84"/>
+      <c r="N1" s="84"/>
+      <c r="O1" s="84"/>
+      <c r="P1" s="84"/>
+      <c r="Q1" s="84"/>
+      <c r="R1" s="84"/>
+      <c r="S1" s="84"/>
+      <c r="T1" s="84"/>
+      <c r="U1" s="84"/>
+      <c r="V1" s="84"/>
     </row>
     <row r="2" spans="1:22" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="80" t="s">
+      <c r="A2" s="85" t="s">
         <v>10</v>
       </c>
-      <c r="B2" s="81"/>
-      <c r="C2" s="81"/>
-      <c r="D2" s="81"/>
-      <c r="E2" s="82" t="s">
+      <c r="B2" s="86"/>
+      <c r="C2" s="86"/>
+      <c r="D2" s="86"/>
+      <c r="E2" s="87" t="s">
         <v>68</v>
       </c>
-      <c r="F2" s="82"/>
+      <c r="F2" s="87"/>
       <c r="G2" s="6"/>
       <c r="H2" s="23"/>
       <c r="I2" s="70"/>
@@ -1454,57 +1454,57 @@
       <c r="V3" s="30"/>
     </row>
     <row r="4" spans="1:22" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="83" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="78" t="s">
+      <c r="A4" s="88" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="82" t="s">
         <v>9</v>
       </c>
-      <c r="C4" s="78"/>
-      <c r="D4" s="78"/>
-      <c r="E4" s="78"/>
-      <c r="F4" s="78"/>
-      <c r="G4" s="78"/>
-      <c r="H4" s="78"/>
-      <c r="I4" s="78"/>
-      <c r="J4" s="78" t="s">
+      <c r="C4" s="82"/>
+      <c r="D4" s="82"/>
+      <c r="E4" s="82"/>
+      <c r="F4" s="82"/>
+      <c r="G4" s="82"/>
+      <c r="H4" s="82"/>
+      <c r="I4" s="82"/>
+      <c r="J4" s="82" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="78" t="s">
+      <c r="K4" s="82" t="s">
         <v>12</v>
       </c>
-      <c r="L4" s="78"/>
-      <c r="M4" s="84" t="s">
+      <c r="L4" s="82"/>
+      <c r="M4" s="89" t="s">
         <v>43</v>
       </c>
-      <c r="N4" s="84" t="s">
+      <c r="N4" s="89" t="s">
         <v>11</v>
       </c>
-      <c r="O4" s="78" t="s">
+      <c r="O4" s="82" t="s">
         <v>8</v>
       </c>
-      <c r="P4" s="89" t="s">
+      <c r="P4" s="81" t="s">
         <v>15</v>
       </c>
-      <c r="Q4" s="78" t="s">
+      <c r="Q4" s="82" t="s">
         <v>40</v>
       </c>
-      <c r="R4" s="78" t="s">
+      <c r="R4" s="82" t="s">
         <v>62</v>
       </c>
-      <c r="S4" s="90" t="s">
+      <c r="S4" s="83" t="s">
         <v>63</v>
       </c>
       <c r="T4" s="29"/>
-      <c r="U4" s="78" t="s">
+      <c r="U4" s="82" t="s">
         <v>40</v>
       </c>
-      <c r="V4" s="78" t="s">
+      <c r="V4" s="82" t="s">
         <v>62</v>
       </c>
     </row>
     <row r="5" spans="1:22" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="83"/>
+      <c r="A5" s="88"/>
       <c r="B5" s="65" t="s">
         <v>1</v>
       </c>
@@ -1529,23 +1529,23 @@
       <c r="I5" s="72" t="s">
         <v>16</v>
       </c>
-      <c r="J5" s="78"/>
+      <c r="J5" s="82"/>
       <c r="K5" s="65" t="s">
         <v>13</v>
       </c>
       <c r="L5" s="65" t="s">
         <v>14</v>
       </c>
-      <c r="M5" s="85"/>
-      <c r="N5" s="85"/>
-      <c r="O5" s="78"/>
-      <c r="P5" s="89"/>
-      <c r="Q5" s="78"/>
-      <c r="R5" s="78"/>
-      <c r="S5" s="90"/>
+      <c r="M5" s="90"/>
+      <c r="N5" s="90"/>
+      <c r="O5" s="82"/>
+      <c r="P5" s="81"/>
+      <c r="Q5" s="82"/>
+      <c r="R5" s="82"/>
+      <c r="S5" s="83"/>
       <c r="T5" s="29"/>
-      <c r="U5" s="78"/>
-      <c r="V5" s="78"/>
+      <c r="U5" s="82"/>
+      <c r="V5" s="82"/>
     </row>
     <row r="6" spans="1:22" s="14" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="4">
@@ -1598,7 +1598,7 @@
       </c>
       <c r="S6" s="4"/>
       <c r="T6" s="64"/>
-      <c r="U6" s="86" t="s">
+      <c r="U6" s="78" t="s">
         <v>19</v>
       </c>
       <c r="V6" s="4" t="s">
@@ -1628,7 +1628,7 @@
       <c r="R7" s="54"/>
       <c r="S7" s="4"/>
       <c r="T7" s="64"/>
-      <c r="U7" s="87"/>
+      <c r="U7" s="79"/>
       <c r="V7" s="4" t="s">
         <v>36</v>
       </c>
@@ -1656,7 +1656,7 @@
       <c r="R8" s="54"/>
       <c r="S8" s="4"/>
       <c r="T8" s="64"/>
-      <c r="U8" s="87"/>
+      <c r="U8" s="79"/>
       <c r="V8" s="4" t="s">
         <v>22</v>
       </c>
@@ -1684,7 +1684,7 @@
       <c r="R9" s="54"/>
       <c r="S9" s="4"/>
       <c r="T9" s="64"/>
-      <c r="U9" s="87"/>
+      <c r="U9" s="79"/>
       <c r="V9" s="4" t="s">
         <v>60</v>
       </c>
@@ -1712,7 +1712,7 @@
       <c r="R10" s="54"/>
       <c r="S10" s="4"/>
       <c r="T10" s="64"/>
-      <c r="U10" s="87"/>
+      <c r="U10" s="79"/>
       <c r="V10" s="4" t="s">
         <v>32</v>
       </c>
@@ -1740,7 +1740,7 @@
       <c r="R11" s="54"/>
       <c r="S11" s="4"/>
       <c r="T11" s="64"/>
-      <c r="U11" s="87"/>
+      <c r="U11" s="79"/>
       <c r="V11" s="4" t="s">
         <v>31</v>
       </c>
@@ -1768,7 +1768,7 @@
       <c r="R12" s="54"/>
       <c r="S12" s="4"/>
       <c r="T12" s="64"/>
-      <c r="U12" s="86" t="s">
+      <c r="U12" s="78" t="s">
         <v>20</v>
       </c>
       <c r="V12" s="4" t="s">
@@ -1798,7 +1798,7 @@
       <c r="R13" s="11"/>
       <c r="S13" s="4"/>
       <c r="T13" s="64"/>
-      <c r="U13" s="87"/>
+      <c r="U13" s="79"/>
       <c r="V13" s="4" t="s">
         <v>38</v>
       </c>
@@ -1826,7 +1826,7 @@
       <c r="R14" s="54"/>
       <c r="S14" s="4"/>
       <c r="T14" s="64"/>
-      <c r="U14" s="87"/>
+      <c r="U14" s="79"/>
       <c r="V14" s="4" t="s">
         <v>37</v>
       </c>
@@ -1854,7 +1854,7 @@
       <c r="R15" s="54"/>
       <c r="S15" s="4"/>
       <c r="T15" s="16"/>
-      <c r="U15" s="87"/>
+      <c r="U15" s="79"/>
       <c r="V15" s="4" t="s">
         <v>25</v>
       </c>
@@ -1882,7 +1882,7 @@
       <c r="R16" s="54"/>
       <c r="S16" s="4"/>
       <c r="T16" s="16"/>
-      <c r="U16" s="88"/>
+      <c r="U16" s="80"/>
       <c r="V16" s="4" t="s">
         <v>26</v>
       </c>
@@ -3080,13 +3080,6 @@
     </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="U6:U11"/>
-    <mergeCell ref="U12:U16"/>
-    <mergeCell ref="P4:P5"/>
-    <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="R4:R5"/>
-    <mergeCell ref="S4:S5"/>
-    <mergeCell ref="U4:U5"/>
     <mergeCell ref="V4:V5"/>
     <mergeCell ref="A1:V1"/>
     <mergeCell ref="A2:D2"/>
@@ -3098,6 +3091,13 @@
     <mergeCell ref="M4:M5"/>
     <mergeCell ref="N4:N5"/>
     <mergeCell ref="O4:O5"/>
+    <mergeCell ref="U6:U11"/>
+    <mergeCell ref="U12:U16"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="S4:S5"/>
+    <mergeCell ref="U4:U5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -3108,8 +3108,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:X57"/>
   <sheetViews>
-    <sheetView showZeros="0" tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="M6" sqref="M6"/>
+    <sheetView showZeros="0" topLeftCell="E1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="J61" sqref="J61"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -3142,42 +3142,42 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:22" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="79" t="s">
+      <c r="A1" s="84" t="s">
         <v>67</v>
       </c>
-      <c r="B1" s="79"/>
-      <c r="C1" s="79"/>
-      <c r="D1" s="79"/>
-      <c r="E1" s="79"/>
-      <c r="F1" s="79"/>
-      <c r="G1" s="79"/>
-      <c r="H1" s="79"/>
-      <c r="I1" s="79"/>
-      <c r="J1" s="79"/>
-      <c r="K1" s="79"/>
-      <c r="L1" s="79"/>
-      <c r="M1" s="79"/>
-      <c r="N1" s="79"/>
-      <c r="O1" s="79"/>
-      <c r="P1" s="79"/>
-      <c r="Q1" s="79"/>
-      <c r="R1" s="79"/>
-      <c r="S1" s="79"/>
-      <c r="T1" s="79"/>
-      <c r="U1" s="79"/>
-      <c r="V1" s="79"/>
+      <c r="B1" s="84"/>
+      <c r="C1" s="84"/>
+      <c r="D1" s="84"/>
+      <c r="E1" s="84"/>
+      <c r="F1" s="84"/>
+      <c r="G1" s="84"/>
+      <c r="H1" s="84"/>
+      <c r="I1" s="84"/>
+      <c r="J1" s="84"/>
+      <c r="K1" s="84"/>
+      <c r="L1" s="84"/>
+      <c r="M1" s="84"/>
+      <c r="N1" s="84"/>
+      <c r="O1" s="84"/>
+      <c r="P1" s="84"/>
+      <c r="Q1" s="84"/>
+      <c r="R1" s="84"/>
+      <c r="S1" s="84"/>
+      <c r="T1" s="84"/>
+      <c r="U1" s="84"/>
+      <c r="V1" s="84"/>
     </row>
     <row r="2" spans="1:22" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="80" t="s">
+      <c r="A2" s="85" t="s">
         <v>10</v>
       </c>
-      <c r="B2" s="81"/>
-      <c r="C2" s="81"/>
-      <c r="D2" s="81"/>
-      <c r="E2" s="82" t="s">
+      <c r="B2" s="86"/>
+      <c r="C2" s="86"/>
+      <c r="D2" s="86"/>
+      <c r="E2" s="87" t="s">
         <v>68</v>
       </c>
-      <c r="F2" s="82"/>
+      <c r="F2" s="87"/>
       <c r="G2" s="6"/>
       <c r="H2" s="23"/>
       <c r="I2" s="70"/>
@@ -3220,57 +3220,57 @@
       <c r="V3" s="30"/>
     </row>
     <row r="4" spans="1:22" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="83" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="78" t="s">
+      <c r="A4" s="88" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="82" t="s">
         <v>9</v>
       </c>
-      <c r="C4" s="78"/>
-      <c r="D4" s="78"/>
-      <c r="E4" s="78"/>
-      <c r="F4" s="78"/>
-      <c r="G4" s="78"/>
-      <c r="H4" s="78"/>
-      <c r="I4" s="78"/>
-      <c r="J4" s="78" t="s">
+      <c r="C4" s="82"/>
+      <c r="D4" s="82"/>
+      <c r="E4" s="82"/>
+      <c r="F4" s="82"/>
+      <c r="G4" s="82"/>
+      <c r="H4" s="82"/>
+      <c r="I4" s="82"/>
+      <c r="J4" s="82" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="78" t="s">
+      <c r="K4" s="82" t="s">
         <v>12</v>
       </c>
-      <c r="L4" s="78"/>
-      <c r="M4" s="84" t="s">
+      <c r="L4" s="82"/>
+      <c r="M4" s="89" t="s">
         <v>43</v>
       </c>
-      <c r="N4" s="84" t="s">
+      <c r="N4" s="89" t="s">
         <v>11</v>
       </c>
-      <c r="O4" s="78" t="s">
+      <c r="O4" s="82" t="s">
         <v>8</v>
       </c>
-      <c r="P4" s="89" t="s">
+      <c r="P4" s="81" t="s">
         <v>15</v>
       </c>
-      <c r="Q4" s="78" t="s">
+      <c r="Q4" s="82" t="s">
         <v>40</v>
       </c>
-      <c r="R4" s="78" t="s">
+      <c r="R4" s="82" t="s">
         <v>62</v>
       </c>
-      <c r="S4" s="90" t="s">
+      <c r="S4" s="83" t="s">
         <v>63</v>
       </c>
       <c r="T4" s="29"/>
-      <c r="U4" s="78" t="s">
+      <c r="U4" s="82" t="s">
         <v>40</v>
       </c>
-      <c r="V4" s="78" t="s">
+      <c r="V4" s="82" t="s">
         <v>62</v>
       </c>
     </row>
     <row r="5" spans="1:22" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="83"/>
+      <c r="A5" s="88"/>
       <c r="B5" s="65" t="s">
         <v>1</v>
       </c>
@@ -3295,23 +3295,23 @@
       <c r="I5" s="72" t="s">
         <v>16</v>
       </c>
-      <c r="J5" s="78"/>
+      <c r="J5" s="82"/>
       <c r="K5" s="65" t="s">
         <v>13</v>
       </c>
       <c r="L5" s="65" t="s">
         <v>14</v>
       </c>
-      <c r="M5" s="85"/>
-      <c r="N5" s="85"/>
-      <c r="O5" s="78"/>
-      <c r="P5" s="89"/>
-      <c r="Q5" s="78"/>
-      <c r="R5" s="78"/>
-      <c r="S5" s="90"/>
+      <c r="M5" s="90"/>
+      <c r="N5" s="90"/>
+      <c r="O5" s="82"/>
+      <c r="P5" s="81"/>
+      <c r="Q5" s="82"/>
+      <c r="R5" s="82"/>
+      <c r="S5" s="83"/>
       <c r="T5" s="29"/>
-      <c r="U5" s="78"/>
-      <c r="V5" s="78"/>
+      <c r="U5" s="82"/>
+      <c r="V5" s="82"/>
     </row>
     <row r="6" spans="1:22" s="14" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="4">
@@ -3366,7 +3366,7 @@
       </c>
       <c r="S6" s="4"/>
       <c r="T6" s="64"/>
-      <c r="U6" s="86" t="s">
+      <c r="U6" s="78" t="s">
         <v>19</v>
       </c>
       <c r="V6" s="4" t="s">
@@ -3418,7 +3418,7 @@
       </c>
       <c r="S7" s="4"/>
       <c r="T7" s="64"/>
-      <c r="U7" s="87"/>
+      <c r="U7" s="79"/>
       <c r="V7" s="4" t="s">
         <v>36</v>
       </c>
@@ -3446,7 +3446,7 @@
       <c r="R8" s="54"/>
       <c r="S8" s="4"/>
       <c r="T8" s="64"/>
-      <c r="U8" s="87"/>
+      <c r="U8" s="79"/>
       <c r="V8" s="4" t="s">
         <v>22</v>
       </c>
@@ -3474,7 +3474,7 @@
       <c r="R9" s="54"/>
       <c r="S9" s="4"/>
       <c r="T9" s="64"/>
-      <c r="U9" s="87"/>
+      <c r="U9" s="79"/>
       <c r="V9" s="4" t="s">
         <v>60</v>
       </c>
@@ -3502,7 +3502,7 @@
       <c r="R10" s="54"/>
       <c r="S10" s="4"/>
       <c r="T10" s="64"/>
-      <c r="U10" s="87"/>
+      <c r="U10" s="79"/>
       <c r="V10" s="4" t="s">
         <v>32</v>
       </c>
@@ -3530,7 +3530,7 @@
       <c r="R11" s="54"/>
       <c r="S11" s="4"/>
       <c r="T11" s="64"/>
-      <c r="U11" s="87"/>
+      <c r="U11" s="79"/>
       <c r="V11" s="4" t="s">
         <v>31</v>
       </c>
@@ -3558,7 +3558,7 @@
       <c r="R12" s="54"/>
       <c r="S12" s="4"/>
       <c r="T12" s="64"/>
-      <c r="U12" s="86" t="s">
+      <c r="U12" s="78" t="s">
         <v>20</v>
       </c>
       <c r="V12" s="4" t="s">
@@ -3588,7 +3588,7 @@
       <c r="R13" s="11"/>
       <c r="S13" s="4"/>
       <c r="T13" s="64"/>
-      <c r="U13" s="87"/>
+      <c r="U13" s="79"/>
       <c r="V13" s="4" t="s">
         <v>38</v>
       </c>
@@ -3616,7 +3616,7 @@
       <c r="R14" s="54"/>
       <c r="S14" s="4"/>
       <c r="T14" s="64"/>
-      <c r="U14" s="87"/>
+      <c r="U14" s="79"/>
       <c r="V14" s="4" t="s">
         <v>37</v>
       </c>
@@ -3644,7 +3644,7 @@
       <c r="R15" s="54"/>
       <c r="S15" s="4"/>
       <c r="T15" s="16"/>
-      <c r="U15" s="87"/>
+      <c r="U15" s="79"/>
       <c r="V15" s="4" t="s">
         <v>25</v>
       </c>
@@ -3672,7 +3672,7 @@
       <c r="R16" s="54"/>
       <c r="S16" s="4"/>
       <c r="T16" s="16"/>
-      <c r="U16" s="88"/>
+      <c r="U16" s="80"/>
       <c r="V16" s="4" t="s">
         <v>26</v>
       </c>
@@ -4870,13 +4870,6 @@
     </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="U6:U11"/>
-    <mergeCell ref="U12:U16"/>
-    <mergeCell ref="P4:P5"/>
-    <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="R4:R5"/>
-    <mergeCell ref="S4:S5"/>
-    <mergeCell ref="U4:U5"/>
     <mergeCell ref="V4:V5"/>
     <mergeCell ref="A1:V1"/>
     <mergeCell ref="A2:D2"/>
@@ -4888,6 +4881,13 @@
     <mergeCell ref="M4:M5"/>
     <mergeCell ref="N4:N5"/>
     <mergeCell ref="O4:O5"/>
+    <mergeCell ref="U6:U11"/>
+    <mergeCell ref="U12:U16"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="S4:S5"/>
+    <mergeCell ref="U4:U5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -4898,8 +4898,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:X57"/>
   <sheetViews>
-    <sheetView showZeros="0" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="E6" sqref="E6:E9"/>
+    <sheetView showZeros="0" topLeftCell="F1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="B6" sqref="B6:S9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -4932,42 +4932,42 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:22" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="79" t="s">
+      <c r="A1" s="84" t="s">
         <v>67</v>
       </c>
-      <c r="B1" s="79"/>
-      <c r="C1" s="79"/>
-      <c r="D1" s="79"/>
-      <c r="E1" s="79"/>
-      <c r="F1" s="79"/>
-      <c r="G1" s="79"/>
-      <c r="H1" s="79"/>
-      <c r="I1" s="79"/>
-      <c r="J1" s="79"/>
-      <c r="K1" s="79"/>
-      <c r="L1" s="79"/>
-      <c r="M1" s="79"/>
-      <c r="N1" s="79"/>
-      <c r="O1" s="79"/>
-      <c r="P1" s="79"/>
-      <c r="Q1" s="79"/>
-      <c r="R1" s="79"/>
-      <c r="S1" s="79"/>
-      <c r="T1" s="79"/>
-      <c r="U1" s="79"/>
-      <c r="V1" s="79"/>
+      <c r="B1" s="84"/>
+      <c r="C1" s="84"/>
+      <c r="D1" s="84"/>
+      <c r="E1" s="84"/>
+      <c r="F1" s="84"/>
+      <c r="G1" s="84"/>
+      <c r="H1" s="84"/>
+      <c r="I1" s="84"/>
+      <c r="J1" s="84"/>
+      <c r="K1" s="84"/>
+      <c r="L1" s="84"/>
+      <c r="M1" s="84"/>
+      <c r="N1" s="84"/>
+      <c r="O1" s="84"/>
+      <c r="P1" s="84"/>
+      <c r="Q1" s="84"/>
+      <c r="R1" s="84"/>
+      <c r="S1" s="84"/>
+      <c r="T1" s="84"/>
+      <c r="U1" s="84"/>
+      <c r="V1" s="84"/>
     </row>
     <row r="2" spans="1:22" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="80" t="s">
+      <c r="A2" s="85" t="s">
         <v>10</v>
       </c>
-      <c r="B2" s="81"/>
-      <c r="C2" s="81"/>
-      <c r="D2" s="81"/>
-      <c r="E2" s="82" t="s">
+      <c r="B2" s="86"/>
+      <c r="C2" s="86"/>
+      <c r="D2" s="86"/>
+      <c r="E2" s="87" t="s">
         <v>68</v>
       </c>
-      <c r="F2" s="82"/>
+      <c r="F2" s="87"/>
       <c r="G2" s="6"/>
       <c r="H2" s="23"/>
       <c r="I2" s="70"/>
@@ -5010,57 +5010,57 @@
       <c r="V3" s="30"/>
     </row>
     <row r="4" spans="1:22" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="83" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="78" t="s">
+      <c r="A4" s="88" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="82" t="s">
         <v>9</v>
       </c>
-      <c r="C4" s="78"/>
-      <c r="D4" s="78"/>
-      <c r="E4" s="78"/>
-      <c r="F4" s="78"/>
-      <c r="G4" s="78"/>
-      <c r="H4" s="78"/>
-      <c r="I4" s="78"/>
-      <c r="J4" s="78" t="s">
+      <c r="C4" s="82"/>
+      <c r="D4" s="82"/>
+      <c r="E4" s="82"/>
+      <c r="F4" s="82"/>
+      <c r="G4" s="82"/>
+      <c r="H4" s="82"/>
+      <c r="I4" s="82"/>
+      <c r="J4" s="82" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="78" t="s">
+      <c r="K4" s="82" t="s">
         <v>12</v>
       </c>
-      <c r="L4" s="78"/>
-      <c r="M4" s="84" t="s">
+      <c r="L4" s="82"/>
+      <c r="M4" s="89" t="s">
         <v>43</v>
       </c>
-      <c r="N4" s="84" t="s">
+      <c r="N4" s="89" t="s">
         <v>11</v>
       </c>
-      <c r="O4" s="78" t="s">
+      <c r="O4" s="82" t="s">
         <v>8</v>
       </c>
-      <c r="P4" s="89" t="s">
+      <c r="P4" s="81" t="s">
         <v>15</v>
       </c>
-      <c r="Q4" s="78" t="s">
+      <c r="Q4" s="82" t="s">
         <v>40</v>
       </c>
-      <c r="R4" s="78" t="s">
+      <c r="R4" s="82" t="s">
         <v>62</v>
       </c>
-      <c r="S4" s="90" t="s">
+      <c r="S4" s="83" t="s">
         <v>63</v>
       </c>
       <c r="T4" s="29"/>
-      <c r="U4" s="78" t="s">
+      <c r="U4" s="82" t="s">
         <v>40</v>
       </c>
-      <c r="V4" s="78" t="s">
+      <c r="V4" s="82" t="s">
         <v>62</v>
       </c>
     </row>
     <row r="5" spans="1:22" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="83"/>
+      <c r="A5" s="88"/>
       <c r="B5" s="65" t="s">
         <v>1</v>
       </c>
@@ -5085,23 +5085,23 @@
       <c r="I5" s="72" t="s">
         <v>16</v>
       </c>
-      <c r="J5" s="78"/>
+      <c r="J5" s="82"/>
       <c r="K5" s="65" t="s">
         <v>13</v>
       </c>
       <c r="L5" s="65" t="s">
         <v>14</v>
       </c>
-      <c r="M5" s="85"/>
-      <c r="N5" s="85"/>
-      <c r="O5" s="78"/>
-      <c r="P5" s="89"/>
-      <c r="Q5" s="78"/>
-      <c r="R5" s="78"/>
-      <c r="S5" s="90"/>
+      <c r="M5" s="90"/>
+      <c r="N5" s="90"/>
+      <c r="O5" s="82"/>
+      <c r="P5" s="81"/>
+      <c r="Q5" s="82"/>
+      <c r="R5" s="82"/>
+      <c r="S5" s="83"/>
       <c r="T5" s="29"/>
-      <c r="U5" s="78"/>
-      <c r="V5" s="78"/>
+      <c r="U5" s="82"/>
+      <c r="V5" s="82"/>
     </row>
     <row r="6" spans="1:22" s="14" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="4">
@@ -5154,7 +5154,7 @@
       </c>
       <c r="S6" s="4"/>
       <c r="T6" s="64"/>
-      <c r="U6" s="86" t="s">
+      <c r="U6" s="78" t="s">
         <v>19</v>
       </c>
       <c r="V6" s="4" t="s">
@@ -5212,7 +5212,7 @@
       </c>
       <c r="S7" s="4"/>
       <c r="T7" s="64"/>
-      <c r="U7" s="87"/>
+      <c r="U7" s="79"/>
       <c r="V7" s="4" t="s">
         <v>36</v>
       </c>
@@ -5270,7 +5270,7 @@
       </c>
       <c r="S8" s="4"/>
       <c r="T8" s="64"/>
-      <c r="U8" s="87"/>
+      <c r="U8" s="79"/>
       <c r="V8" s="4" t="s">
         <v>22</v>
       </c>
@@ -5320,7 +5320,7 @@
       </c>
       <c r="S9" s="4"/>
       <c r="T9" s="64"/>
-      <c r="U9" s="87"/>
+      <c r="U9" s="79"/>
       <c r="V9" s="4" t="s">
         <v>60</v>
       </c>
@@ -5348,7 +5348,7 @@
       <c r="R10" s="54"/>
       <c r="S10" s="4"/>
       <c r="T10" s="64"/>
-      <c r="U10" s="87"/>
+      <c r="U10" s="79"/>
       <c r="V10" s="4" t="s">
         <v>32</v>
       </c>
@@ -5376,7 +5376,7 @@
       <c r="R11" s="54"/>
       <c r="S11" s="4"/>
       <c r="T11" s="64"/>
-      <c r="U11" s="87"/>
+      <c r="U11" s="79"/>
       <c r="V11" s="4" t="s">
         <v>31</v>
       </c>
@@ -5404,7 +5404,7 @@
       <c r="R12" s="54"/>
       <c r="S12" s="4"/>
       <c r="T12" s="64"/>
-      <c r="U12" s="86" t="s">
+      <c r="U12" s="78" t="s">
         <v>20</v>
       </c>
       <c r="V12" s="4" t="s">
@@ -5434,7 +5434,7 @@
       <c r="R13" s="11"/>
       <c r="S13" s="4"/>
       <c r="T13" s="64"/>
-      <c r="U13" s="87"/>
+      <c r="U13" s="79"/>
       <c r="V13" s="4" t="s">
         <v>38</v>
       </c>
@@ -5462,7 +5462,7 @@
       <c r="R14" s="54"/>
       <c r="S14" s="4"/>
       <c r="T14" s="64"/>
-      <c r="U14" s="87"/>
+      <c r="U14" s="79"/>
       <c r="V14" s="4" t="s">
         <v>37</v>
       </c>
@@ -5490,7 +5490,7 @@
       <c r="R15" s="54"/>
       <c r="S15" s="4"/>
       <c r="T15" s="16"/>
-      <c r="U15" s="87"/>
+      <c r="U15" s="79"/>
       <c r="V15" s="4" t="s">
         <v>25</v>
       </c>
@@ -5518,7 +5518,7 @@
       <c r="R16" s="54"/>
       <c r="S16" s="4"/>
       <c r="T16" s="16"/>
-      <c r="U16" s="88"/>
+      <c r="U16" s="80"/>
       <c r="V16" s="4" t="s">
         <v>26</v>
       </c>
@@ -6719,13 +6719,6 @@
     </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="U6:U11"/>
-    <mergeCell ref="U12:U16"/>
-    <mergeCell ref="P4:P5"/>
-    <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="R4:R5"/>
-    <mergeCell ref="S4:S5"/>
-    <mergeCell ref="U4:U5"/>
     <mergeCell ref="V4:V5"/>
     <mergeCell ref="A1:V1"/>
     <mergeCell ref="A2:D2"/>
@@ -6737,6 +6730,13 @@
     <mergeCell ref="M4:M5"/>
     <mergeCell ref="N4:N5"/>
     <mergeCell ref="O4:O5"/>
+    <mergeCell ref="U6:U11"/>
+    <mergeCell ref="U12:U16"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="S4:S5"/>
+    <mergeCell ref="U4:U5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -6747,8 +6747,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:X57"/>
   <sheetViews>
-    <sheetView showZeros="0" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="J6" sqref="J6"/>
+    <sheetView showZeros="0" topLeftCell="E1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="B6" sqref="B6:S6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -6781,42 +6781,42 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:22" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="79" t="s">
+      <c r="A1" s="84" t="s">
         <v>67</v>
       </c>
-      <c r="B1" s="79"/>
-      <c r="C1" s="79"/>
-      <c r="D1" s="79"/>
-      <c r="E1" s="79"/>
-      <c r="F1" s="79"/>
-      <c r="G1" s="79"/>
-      <c r="H1" s="79"/>
-      <c r="I1" s="79"/>
-      <c r="J1" s="79"/>
-      <c r="K1" s="79"/>
-      <c r="L1" s="79"/>
-      <c r="M1" s="79"/>
-      <c r="N1" s="79"/>
-      <c r="O1" s="79"/>
-      <c r="P1" s="79"/>
-      <c r="Q1" s="79"/>
-      <c r="R1" s="79"/>
-      <c r="S1" s="79"/>
-      <c r="T1" s="79"/>
-      <c r="U1" s="79"/>
-      <c r="V1" s="79"/>
+      <c r="B1" s="84"/>
+      <c r="C1" s="84"/>
+      <c r="D1" s="84"/>
+      <c r="E1" s="84"/>
+      <c r="F1" s="84"/>
+      <c r="G1" s="84"/>
+      <c r="H1" s="84"/>
+      <c r="I1" s="84"/>
+      <c r="J1" s="84"/>
+      <c r="K1" s="84"/>
+      <c r="L1" s="84"/>
+      <c r="M1" s="84"/>
+      <c r="N1" s="84"/>
+      <c r="O1" s="84"/>
+      <c r="P1" s="84"/>
+      <c r="Q1" s="84"/>
+      <c r="R1" s="84"/>
+      <c r="S1" s="84"/>
+      <c r="T1" s="84"/>
+      <c r="U1" s="84"/>
+      <c r="V1" s="84"/>
     </row>
     <row r="2" spans="1:22" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="80" t="s">
+      <c r="A2" s="85" t="s">
         <v>10</v>
       </c>
-      <c r="B2" s="81"/>
-      <c r="C2" s="81"/>
-      <c r="D2" s="81"/>
-      <c r="E2" s="82" t="s">
+      <c r="B2" s="86"/>
+      <c r="C2" s="86"/>
+      <c r="D2" s="86"/>
+      <c r="E2" s="87" t="s">
         <v>68</v>
       </c>
-      <c r="F2" s="82"/>
+      <c r="F2" s="87"/>
       <c r="G2" s="6"/>
       <c r="H2" s="23"/>
       <c r="I2" s="70"/>
@@ -6859,57 +6859,57 @@
       <c r="V3" s="30"/>
     </row>
     <row r="4" spans="1:22" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="83" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="78" t="s">
+      <c r="A4" s="88" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="82" t="s">
         <v>9</v>
       </c>
-      <c r="C4" s="78"/>
-      <c r="D4" s="78"/>
-      <c r="E4" s="78"/>
-      <c r="F4" s="78"/>
-      <c r="G4" s="78"/>
-      <c r="H4" s="78"/>
-      <c r="I4" s="78"/>
-      <c r="J4" s="78" t="s">
+      <c r="C4" s="82"/>
+      <c r="D4" s="82"/>
+      <c r="E4" s="82"/>
+      <c r="F4" s="82"/>
+      <c r="G4" s="82"/>
+      <c r="H4" s="82"/>
+      <c r="I4" s="82"/>
+      <c r="J4" s="82" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="78" t="s">
+      <c r="K4" s="82" t="s">
         <v>12</v>
       </c>
-      <c r="L4" s="78"/>
-      <c r="M4" s="84" t="s">
+      <c r="L4" s="82"/>
+      <c r="M4" s="89" t="s">
         <v>43</v>
       </c>
-      <c r="N4" s="84" t="s">
+      <c r="N4" s="89" t="s">
         <v>11</v>
       </c>
-      <c r="O4" s="78" t="s">
+      <c r="O4" s="82" t="s">
         <v>8</v>
       </c>
-      <c r="P4" s="89" t="s">
+      <c r="P4" s="81" t="s">
         <v>15</v>
       </c>
-      <c r="Q4" s="78" t="s">
+      <c r="Q4" s="82" t="s">
         <v>40</v>
       </c>
-      <c r="R4" s="78" t="s">
+      <c r="R4" s="82" t="s">
         <v>62</v>
       </c>
-      <c r="S4" s="90" t="s">
+      <c r="S4" s="83" t="s">
         <v>63</v>
       </c>
       <c r="T4" s="29"/>
-      <c r="U4" s="78" t="s">
+      <c r="U4" s="82" t="s">
         <v>40</v>
       </c>
-      <c r="V4" s="78" t="s">
+      <c r="V4" s="82" t="s">
         <v>62</v>
       </c>
     </row>
     <row r="5" spans="1:22" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="83"/>
+      <c r="A5" s="88"/>
       <c r="B5" s="65" t="s">
         <v>1</v>
       </c>
@@ -6934,23 +6934,23 @@
       <c r="I5" s="72" t="s">
         <v>16</v>
       </c>
-      <c r="J5" s="78"/>
+      <c r="J5" s="82"/>
       <c r="K5" s="65" t="s">
         <v>13</v>
       </c>
       <c r="L5" s="65" t="s">
         <v>14</v>
       </c>
-      <c r="M5" s="85"/>
-      <c r="N5" s="85"/>
-      <c r="O5" s="78"/>
-      <c r="P5" s="89"/>
-      <c r="Q5" s="78"/>
-      <c r="R5" s="78"/>
-      <c r="S5" s="90"/>
+      <c r="M5" s="90"/>
+      <c r="N5" s="90"/>
+      <c r="O5" s="82"/>
+      <c r="P5" s="81"/>
+      <c r="Q5" s="82"/>
+      <c r="R5" s="82"/>
+      <c r="S5" s="83"/>
       <c r="T5" s="29"/>
-      <c r="U5" s="78"/>
-      <c r="V5" s="78"/>
+      <c r="U5" s="82"/>
+      <c r="V5" s="82"/>
     </row>
     <row r="6" spans="1:22" s="14" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="4">
@@ -7005,7 +7005,7 @@
         <v>118</v>
       </c>
       <c r="T6" s="64"/>
-      <c r="U6" s="86" t="s">
+      <c r="U6" s="78" t="s">
         <v>19</v>
       </c>
       <c r="V6" s="4" t="s">
@@ -7035,7 +7035,7 @@
       <c r="R7" s="54"/>
       <c r="S7" s="4"/>
       <c r="T7" s="64"/>
-      <c r="U7" s="87"/>
+      <c r="U7" s="79"/>
       <c r="V7" s="4" t="s">
         <v>36</v>
       </c>
@@ -7063,7 +7063,7 @@
       <c r="R8" s="54"/>
       <c r="S8" s="4"/>
       <c r="T8" s="64"/>
-      <c r="U8" s="87"/>
+      <c r="U8" s="79"/>
       <c r="V8" s="4" t="s">
         <v>22</v>
       </c>
@@ -7091,7 +7091,7 @@
       <c r="R9" s="54"/>
       <c r="S9" s="4"/>
       <c r="T9" s="64"/>
-      <c r="U9" s="87"/>
+      <c r="U9" s="79"/>
       <c r="V9" s="4" t="s">
         <v>60</v>
       </c>
@@ -7119,7 +7119,7 @@
       <c r="R10" s="54"/>
       <c r="S10" s="4"/>
       <c r="T10" s="64"/>
-      <c r="U10" s="87"/>
+      <c r="U10" s="79"/>
       <c r="V10" s="4" t="s">
         <v>32</v>
       </c>
@@ -7147,7 +7147,7 @@
       <c r="R11" s="54"/>
       <c r="S11" s="4"/>
       <c r="T11" s="64"/>
-      <c r="U11" s="87"/>
+      <c r="U11" s="79"/>
       <c r="V11" s="4" t="s">
         <v>31</v>
       </c>
@@ -7175,7 +7175,7 @@
       <c r="R12" s="54"/>
       <c r="S12" s="4"/>
       <c r="T12" s="64"/>
-      <c r="U12" s="86" t="s">
+      <c r="U12" s="78" t="s">
         <v>20</v>
       </c>
       <c r="V12" s="4" t="s">
@@ -7205,7 +7205,7 @@
       <c r="R13" s="11"/>
       <c r="S13" s="4"/>
       <c r="T13" s="64"/>
-      <c r="U13" s="87"/>
+      <c r="U13" s="79"/>
       <c r="V13" s="4" t="s">
         <v>38</v>
       </c>
@@ -7233,7 +7233,7 @@
       <c r="R14" s="54"/>
       <c r="S14" s="4"/>
       <c r="T14" s="64"/>
-      <c r="U14" s="87"/>
+      <c r="U14" s="79"/>
       <c r="V14" s="4" t="s">
         <v>37</v>
       </c>
@@ -7261,7 +7261,7 @@
       <c r="R15" s="54"/>
       <c r="S15" s="4"/>
       <c r="T15" s="16"/>
-      <c r="U15" s="87"/>
+      <c r="U15" s="79"/>
       <c r="V15" s="4" t="s">
         <v>25</v>
       </c>
@@ -7289,7 +7289,7 @@
       <c r="R16" s="54"/>
       <c r="S16" s="4"/>
       <c r="T16" s="16"/>
-      <c r="U16" s="88"/>
+      <c r="U16" s="80"/>
       <c r="V16" s="4" t="s">
         <v>26</v>
       </c>
@@ -8487,13 +8487,6 @@
     </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="U6:U11"/>
-    <mergeCell ref="U12:U16"/>
-    <mergeCell ref="P4:P5"/>
-    <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="R4:R5"/>
-    <mergeCell ref="S4:S5"/>
-    <mergeCell ref="U4:U5"/>
     <mergeCell ref="V4:V5"/>
     <mergeCell ref="A1:V1"/>
     <mergeCell ref="A2:D2"/>
@@ -8505,6 +8498,13 @@
     <mergeCell ref="M4:M5"/>
     <mergeCell ref="N4:N5"/>
     <mergeCell ref="O4:O5"/>
+    <mergeCell ref="U6:U11"/>
+    <mergeCell ref="U12:U16"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="S4:S5"/>
+    <mergeCell ref="U4:U5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -8515,8 +8515,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:X57"/>
   <sheetViews>
-    <sheetView showZeros="0" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="H7" sqref="H7"/>
+    <sheetView showZeros="0" topLeftCell="E1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="B6" sqref="B6:S12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -8549,42 +8549,42 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:22" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="79" t="s">
+      <c r="A1" s="84" t="s">
         <v>67</v>
       </c>
-      <c r="B1" s="79"/>
-      <c r="C1" s="79"/>
-      <c r="D1" s="79"/>
-      <c r="E1" s="79"/>
-      <c r="F1" s="79"/>
-      <c r="G1" s="79"/>
-      <c r="H1" s="79"/>
-      <c r="I1" s="79"/>
-      <c r="J1" s="79"/>
-      <c r="K1" s="79"/>
-      <c r="L1" s="79"/>
-      <c r="M1" s="79"/>
-      <c r="N1" s="79"/>
-      <c r="O1" s="79"/>
-      <c r="P1" s="79"/>
-      <c r="Q1" s="79"/>
-      <c r="R1" s="79"/>
-      <c r="S1" s="79"/>
-      <c r="T1" s="79"/>
-      <c r="U1" s="79"/>
-      <c r="V1" s="79"/>
+      <c r="B1" s="84"/>
+      <c r="C1" s="84"/>
+      <c r="D1" s="84"/>
+      <c r="E1" s="84"/>
+      <c r="F1" s="84"/>
+      <c r="G1" s="84"/>
+      <c r="H1" s="84"/>
+      <c r="I1" s="84"/>
+      <c r="J1" s="84"/>
+      <c r="K1" s="84"/>
+      <c r="L1" s="84"/>
+      <c r="M1" s="84"/>
+      <c r="N1" s="84"/>
+      <c r="O1" s="84"/>
+      <c r="P1" s="84"/>
+      <c r="Q1" s="84"/>
+      <c r="R1" s="84"/>
+      <c r="S1" s="84"/>
+      <c r="T1" s="84"/>
+      <c r="U1" s="84"/>
+      <c r="V1" s="84"/>
     </row>
     <row r="2" spans="1:22" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="80" t="s">
+      <c r="A2" s="85" t="s">
         <v>10</v>
       </c>
-      <c r="B2" s="81"/>
-      <c r="C2" s="81"/>
-      <c r="D2" s="81"/>
-      <c r="E2" s="82" t="s">
+      <c r="B2" s="86"/>
+      <c r="C2" s="86"/>
+      <c r="D2" s="86"/>
+      <c r="E2" s="87" t="s">
         <v>68</v>
       </c>
-      <c r="F2" s="82"/>
+      <c r="F2" s="87"/>
       <c r="G2" s="6"/>
       <c r="H2" s="23"/>
       <c r="I2" s="70"/>
@@ -8640,39 +8640,39 @@
       <c r="G4" s="94"/>
       <c r="H4" s="94"/>
       <c r="I4" s="95"/>
-      <c r="J4" s="84" t="s">
+      <c r="J4" s="89" t="s">
         <v>6</v>
       </c>
       <c r="K4" s="93" t="s">
         <v>12</v>
       </c>
       <c r="L4" s="95"/>
-      <c r="M4" s="84" t="s">
+      <c r="M4" s="89" t="s">
         <v>43</v>
       </c>
-      <c r="N4" s="84" t="s">
+      <c r="N4" s="89" t="s">
         <v>11</v>
       </c>
-      <c r="O4" s="78" t="s">
+      <c r="O4" s="82" t="s">
         <v>8</v>
       </c>
-      <c r="P4" s="89" t="s">
+      <c r="P4" s="81" t="s">
         <v>15</v>
       </c>
-      <c r="Q4" s="78" t="s">
+      <c r="Q4" s="82" t="s">
         <v>40</v>
       </c>
-      <c r="R4" s="78" t="s">
+      <c r="R4" s="82" t="s">
         <v>62</v>
       </c>
-      <c r="S4" s="90" t="s">
+      <c r="S4" s="83" t="s">
         <v>63</v>
       </c>
       <c r="T4" s="29"/>
-      <c r="U4" s="78" t="s">
+      <c r="U4" s="82" t="s">
         <v>40</v>
       </c>
-      <c r="V4" s="78" t="s">
+      <c r="V4" s="82" t="s">
         <v>62</v>
       </c>
     </row>
@@ -8702,23 +8702,23 @@
       <c r="I5" s="72" t="s">
         <v>16</v>
       </c>
-      <c r="J5" s="85"/>
+      <c r="J5" s="90"/>
       <c r="K5" s="65" t="s">
         <v>13</v>
       </c>
       <c r="L5" s="65" t="s">
         <v>14</v>
       </c>
-      <c r="M5" s="85"/>
-      <c r="N5" s="85"/>
-      <c r="O5" s="78"/>
-      <c r="P5" s="89"/>
-      <c r="Q5" s="78"/>
-      <c r="R5" s="78"/>
-      <c r="S5" s="90"/>
+      <c r="M5" s="90"/>
+      <c r="N5" s="90"/>
+      <c r="O5" s="82"/>
+      <c r="P5" s="81"/>
+      <c r="Q5" s="82"/>
+      <c r="R5" s="82"/>
+      <c r="S5" s="83"/>
       <c r="T5" s="29"/>
-      <c r="U5" s="78"/>
-      <c r="V5" s="78"/>
+      <c r="U5" s="82"/>
+      <c r="V5" s="82"/>
     </row>
     <row r="6" spans="1:22" s="14" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="4">
@@ -8767,7 +8767,7 @@
       </c>
       <c r="S6" s="4"/>
       <c r="T6" s="64"/>
-      <c r="U6" s="86" t="s">
+      <c r="U6" s="78" t="s">
         <v>19</v>
       </c>
       <c r="V6" s="4" t="s">
@@ -8825,7 +8825,7 @@
       </c>
       <c r="S7" s="4"/>
       <c r="T7" s="64"/>
-      <c r="U7" s="87"/>
+      <c r="U7" s="79"/>
       <c r="V7" s="4" t="s">
         <v>36</v>
       </c>
@@ -8881,7 +8881,7 @@
       </c>
       <c r="S8" s="4"/>
       <c r="T8" s="64"/>
-      <c r="U8" s="87"/>
+      <c r="U8" s="79"/>
       <c r="V8" s="4" t="s">
         <v>22</v>
       </c>
@@ -8937,7 +8937,7 @@
       </c>
       <c r="S9" s="4"/>
       <c r="T9" s="64"/>
-      <c r="U9" s="87"/>
+      <c r="U9" s="79"/>
       <c r="V9" s="4" t="s">
         <v>60</v>
       </c>
@@ -8995,7 +8995,7 @@
       </c>
       <c r="S10" s="4"/>
       <c r="T10" s="64"/>
-      <c r="U10" s="87"/>
+      <c r="U10" s="79"/>
       <c r="V10" s="4" t="s">
         <v>32</v>
       </c>
@@ -9055,7 +9055,7 @@
         <v>24</v>
       </c>
       <c r="T11" s="64"/>
-      <c r="U11" s="87"/>
+      <c r="U11" s="79"/>
       <c r="V11" s="4" t="s">
         <v>31</v>
       </c>
@@ -9111,7 +9111,7 @@
       </c>
       <c r="S12" s="4"/>
       <c r="T12" s="64"/>
-      <c r="U12" s="86" t="s">
+      <c r="U12" s="78" t="s">
         <v>20</v>
       </c>
       <c r="V12" s="4" t="s">
@@ -9141,7 +9141,7 @@
       <c r="R13" s="11"/>
       <c r="S13" s="4"/>
       <c r="T13" s="64"/>
-      <c r="U13" s="87"/>
+      <c r="U13" s="79"/>
       <c r="V13" s="4" t="s">
         <v>38</v>
       </c>
@@ -9169,7 +9169,7 @@
       <c r="R14" s="54"/>
       <c r="S14" s="4"/>
       <c r="T14" s="64"/>
-      <c r="U14" s="87"/>
+      <c r="U14" s="79"/>
       <c r="V14" s="4" t="s">
         <v>37</v>
       </c>
@@ -9197,7 +9197,7 @@
       <c r="R15" s="54"/>
       <c r="S15" s="4"/>
       <c r="T15" s="16"/>
-      <c r="U15" s="87"/>
+      <c r="U15" s="79"/>
       <c r="V15" s="4" t="s">
         <v>25</v>
       </c>
@@ -9225,7 +9225,7 @@
       <c r="R16" s="54"/>
       <c r="S16" s="4"/>
       <c r="T16" s="16"/>
-      <c r="U16" s="88"/>
+      <c r="U16" s="80"/>
       <c r="V16" s="4" t="s">
         <v>26</v>
       </c>
@@ -10426,13 +10426,6 @@
     </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="U6:U11"/>
-    <mergeCell ref="U12:U16"/>
-    <mergeCell ref="P4:P5"/>
-    <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="R4:R5"/>
-    <mergeCell ref="S4:S5"/>
-    <mergeCell ref="U4:U5"/>
     <mergeCell ref="V4:V5"/>
     <mergeCell ref="A1:V1"/>
     <mergeCell ref="A2:D2"/>
@@ -10444,6 +10437,13 @@
     <mergeCell ref="M4:M5"/>
     <mergeCell ref="N4:N5"/>
     <mergeCell ref="O4:O5"/>
+    <mergeCell ref="U6:U11"/>
+    <mergeCell ref="U12:U16"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="S4:S5"/>
+    <mergeCell ref="U4:U5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -10454,8 +10454,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:X57"/>
   <sheetViews>
-    <sheetView showZeros="0" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="D33" sqref="D33:D34"/>
+    <sheetView showZeros="0" topLeftCell="E1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="B6" sqref="B6:S6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -10488,42 +10488,42 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:22" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="79" t="s">
+      <c r="A1" s="84" t="s">
         <v>67</v>
       </c>
-      <c r="B1" s="79"/>
-      <c r="C1" s="79"/>
-      <c r="D1" s="79"/>
-      <c r="E1" s="79"/>
-      <c r="F1" s="79"/>
-      <c r="G1" s="79"/>
-      <c r="H1" s="79"/>
-      <c r="I1" s="79"/>
-      <c r="J1" s="79"/>
-      <c r="K1" s="79"/>
-      <c r="L1" s="79"/>
-      <c r="M1" s="79"/>
-      <c r="N1" s="79"/>
-      <c r="O1" s="79"/>
-      <c r="P1" s="79"/>
-      <c r="Q1" s="79"/>
-      <c r="R1" s="79"/>
-      <c r="S1" s="79"/>
-      <c r="T1" s="79"/>
-      <c r="U1" s="79"/>
-      <c r="V1" s="79"/>
+      <c r="B1" s="84"/>
+      <c r="C1" s="84"/>
+      <c r="D1" s="84"/>
+      <c r="E1" s="84"/>
+      <c r="F1" s="84"/>
+      <c r="G1" s="84"/>
+      <c r="H1" s="84"/>
+      <c r="I1" s="84"/>
+      <c r="J1" s="84"/>
+      <c r="K1" s="84"/>
+      <c r="L1" s="84"/>
+      <c r="M1" s="84"/>
+      <c r="N1" s="84"/>
+      <c r="O1" s="84"/>
+      <c r="P1" s="84"/>
+      <c r="Q1" s="84"/>
+      <c r="R1" s="84"/>
+      <c r="S1" s="84"/>
+      <c r="T1" s="84"/>
+      <c r="U1" s="84"/>
+      <c r="V1" s="84"/>
     </row>
     <row r="2" spans="1:22" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="80" t="s">
+      <c r="A2" s="85" t="s">
         <v>10</v>
       </c>
-      <c r="B2" s="81"/>
-      <c r="C2" s="81"/>
-      <c r="D2" s="81"/>
-      <c r="E2" s="82" t="s">
+      <c r="B2" s="86"/>
+      <c r="C2" s="86"/>
+      <c r="D2" s="86"/>
+      <c r="E2" s="87" t="s">
         <v>68</v>
       </c>
-      <c r="F2" s="82"/>
+      <c r="F2" s="87"/>
       <c r="G2" s="6"/>
       <c r="H2" s="23"/>
       <c r="I2" s="23"/>
@@ -10566,57 +10566,57 @@
       <c r="V3" s="30"/>
     </row>
     <row r="4" spans="1:22" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="83" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="78" t="s">
+      <c r="A4" s="88" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="82" t="s">
         <v>9</v>
       </c>
-      <c r="C4" s="78"/>
-      <c r="D4" s="78"/>
-      <c r="E4" s="78"/>
-      <c r="F4" s="78"/>
-      <c r="G4" s="78"/>
-      <c r="H4" s="78"/>
-      <c r="I4" s="78"/>
-      <c r="J4" s="78" t="s">
+      <c r="C4" s="82"/>
+      <c r="D4" s="82"/>
+      <c r="E4" s="82"/>
+      <c r="F4" s="82"/>
+      <c r="G4" s="82"/>
+      <c r="H4" s="82"/>
+      <c r="I4" s="82"/>
+      <c r="J4" s="82" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="78" t="s">
+      <c r="K4" s="82" t="s">
         <v>12</v>
       </c>
-      <c r="L4" s="78"/>
-      <c r="M4" s="84" t="s">
+      <c r="L4" s="82"/>
+      <c r="M4" s="89" t="s">
         <v>43</v>
       </c>
-      <c r="N4" s="84" t="s">
+      <c r="N4" s="89" t="s">
         <v>11</v>
       </c>
-      <c r="O4" s="78" t="s">
+      <c r="O4" s="82" t="s">
         <v>8</v>
       </c>
-      <c r="P4" s="89" t="s">
+      <c r="P4" s="81" t="s">
         <v>15</v>
       </c>
-      <c r="Q4" s="78" t="s">
+      <c r="Q4" s="82" t="s">
         <v>40</v>
       </c>
-      <c r="R4" s="78" t="s">
+      <c r="R4" s="82" t="s">
         <v>62</v>
       </c>
-      <c r="S4" s="90" t="s">
+      <c r="S4" s="83" t="s">
         <v>63</v>
       </c>
       <c r="T4" s="29"/>
-      <c r="U4" s="78" t="s">
+      <c r="U4" s="82" t="s">
         <v>40</v>
       </c>
-      <c r="V4" s="78" t="s">
+      <c r="V4" s="82" t="s">
         <v>62</v>
       </c>
     </row>
     <row r="5" spans="1:22" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="83"/>
+      <c r="A5" s="88"/>
       <c r="B5" s="62" t="s">
         <v>1</v>
       </c>
@@ -10641,23 +10641,23 @@
       <c r="I5" s="62" t="s">
         <v>16</v>
       </c>
-      <c r="J5" s="78"/>
+      <c r="J5" s="82"/>
       <c r="K5" s="62" t="s">
         <v>13</v>
       </c>
       <c r="L5" s="62" t="s">
         <v>14</v>
       </c>
-      <c r="M5" s="85"/>
-      <c r="N5" s="85"/>
-      <c r="O5" s="78"/>
-      <c r="P5" s="89"/>
-      <c r="Q5" s="78"/>
-      <c r="R5" s="78"/>
-      <c r="S5" s="90"/>
+      <c r="M5" s="90"/>
+      <c r="N5" s="90"/>
+      <c r="O5" s="82"/>
+      <c r="P5" s="81"/>
+      <c r="Q5" s="82"/>
+      <c r="R5" s="82"/>
+      <c r="S5" s="83"/>
       <c r="T5" s="29"/>
-      <c r="U5" s="78"/>
-      <c r="V5" s="78"/>
+      <c r="U5" s="82"/>
+      <c r="V5" s="82"/>
     </row>
     <row r="6" spans="1:22" s="14" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="4">
@@ -10706,7 +10706,7 @@
       </c>
       <c r="S6" s="4"/>
       <c r="T6" s="61"/>
-      <c r="U6" s="86" t="s">
+      <c r="U6" s="78" t="s">
         <v>19</v>
       </c>
       <c r="V6" s="4" t="s">
@@ -10736,7 +10736,7 @@
       <c r="R7" s="54"/>
       <c r="S7" s="4"/>
       <c r="T7" s="61"/>
-      <c r="U7" s="87"/>
+      <c r="U7" s="79"/>
       <c r="V7" s="4" t="s">
         <v>36</v>
       </c>
@@ -10764,7 +10764,7 @@
       <c r="R8" s="54"/>
       <c r="S8" s="4"/>
       <c r="T8" s="61"/>
-      <c r="U8" s="87"/>
+      <c r="U8" s="79"/>
       <c r="V8" s="4" t="s">
         <v>22</v>
       </c>
@@ -10792,7 +10792,7 @@
       <c r="R9" s="54"/>
       <c r="S9" s="4"/>
       <c r="T9" s="61"/>
-      <c r="U9" s="87"/>
+      <c r="U9" s="79"/>
       <c r="V9" s="4" t="s">
         <v>60</v>
       </c>
@@ -10820,7 +10820,7 @@
       <c r="R10" s="54"/>
       <c r="S10" s="4"/>
       <c r="T10" s="61"/>
-      <c r="U10" s="87"/>
+      <c r="U10" s="79"/>
       <c r="V10" s="4" t="s">
         <v>32</v>
       </c>
@@ -10848,7 +10848,7 @@
       <c r="R11" s="54"/>
       <c r="S11" s="4"/>
       <c r="T11" s="61"/>
-      <c r="U11" s="87"/>
+      <c r="U11" s="79"/>
       <c r="V11" s="4" t="s">
         <v>31</v>
       </c>
@@ -10876,7 +10876,7 @@
       <c r="R12" s="54"/>
       <c r="S12" s="4"/>
       <c r="T12" s="61"/>
-      <c r="U12" s="86" t="s">
+      <c r="U12" s="78" t="s">
         <v>20</v>
       </c>
       <c r="V12" s="4" t="s">
@@ -10906,7 +10906,7 @@
       <c r="R13" s="11"/>
       <c r="S13" s="4"/>
       <c r="T13" s="61"/>
-      <c r="U13" s="87"/>
+      <c r="U13" s="79"/>
       <c r="V13" s="4" t="s">
         <v>38</v>
       </c>
@@ -10934,7 +10934,7 @@
       <c r="R14" s="54"/>
       <c r="S14" s="4"/>
       <c r="T14" s="61"/>
-      <c r="U14" s="87"/>
+      <c r="U14" s="79"/>
       <c r="V14" s="4" t="s">
         <v>37</v>
       </c>
@@ -10962,7 +10962,7 @@
       <c r="R15" s="54"/>
       <c r="S15" s="4"/>
       <c r="T15" s="16"/>
-      <c r="U15" s="87"/>
+      <c r="U15" s="79"/>
       <c r="V15" s="4" t="s">
         <v>25</v>
       </c>
@@ -10990,7 +10990,7 @@
       <c r="R16" s="54"/>
       <c r="S16" s="4"/>
       <c r="T16" s="16"/>
-      <c r="U16" s="88"/>
+      <c r="U16" s="80"/>
       <c r="V16" s="4" t="s">
         <v>26</v>
       </c>
@@ -12191,13 +12191,6 @@
     </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="U6:U11"/>
-    <mergeCell ref="U12:U16"/>
-    <mergeCell ref="P4:P5"/>
-    <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="R4:R5"/>
-    <mergeCell ref="S4:S5"/>
-    <mergeCell ref="U4:U5"/>
     <mergeCell ref="V4:V5"/>
     <mergeCell ref="A1:V1"/>
     <mergeCell ref="A2:D2"/>
@@ -12209,6 +12202,13 @@
     <mergeCell ref="M4:M5"/>
     <mergeCell ref="N4:N5"/>
     <mergeCell ref="O4:O5"/>
+    <mergeCell ref="U6:U11"/>
+    <mergeCell ref="U12:U16"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="S4:S5"/>
+    <mergeCell ref="U4:U5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -12219,8 +12219,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:W105"/>
   <sheetViews>
-    <sheetView zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="F26" sqref="F26"/>
+    <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="B21" sqref="B21:S21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -12251,41 +12251,41 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="79" t="s">
+      <c r="A1" s="84" t="s">
         <v>67</v>
       </c>
-      <c r="B1" s="79"/>
-      <c r="C1" s="79"/>
-      <c r="D1" s="79"/>
-      <c r="E1" s="79"/>
-      <c r="F1" s="79"/>
-      <c r="G1" s="79"/>
-      <c r="H1" s="79"/>
-      <c r="I1" s="79"/>
-      <c r="J1" s="79"/>
-      <c r="K1" s="79"/>
-      <c r="L1" s="79"/>
-      <c r="M1" s="79"/>
-      <c r="N1" s="79"/>
-      <c r="O1" s="79"/>
-      <c r="P1" s="79"/>
-      <c r="Q1" s="79"/>
-      <c r="R1" s="79"/>
-      <c r="S1" s="79"/>
-      <c r="T1" s="79"/>
-      <c r="U1" s="79"/>
-      <c r="V1" s="79"/>
-      <c r="W1" s="79"/>
+      <c r="B1" s="84"/>
+      <c r="C1" s="84"/>
+      <c r="D1" s="84"/>
+      <c r="E1" s="84"/>
+      <c r="F1" s="84"/>
+      <c r="G1" s="84"/>
+      <c r="H1" s="84"/>
+      <c r="I1" s="84"/>
+      <c r="J1" s="84"/>
+      <c r="K1" s="84"/>
+      <c r="L1" s="84"/>
+      <c r="M1" s="84"/>
+      <c r="N1" s="84"/>
+      <c r="O1" s="84"/>
+      <c r="P1" s="84"/>
+      <c r="Q1" s="84"/>
+      <c r="R1" s="84"/>
+      <c r="S1" s="84"/>
+      <c r="T1" s="84"/>
+      <c r="U1" s="84"/>
+      <c r="V1" s="84"/>
+      <c r="W1" s="84"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="80" t="s">
+      <c r="A2" s="85" t="s">
         <v>10</v>
       </c>
-      <c r="B2" s="81"/>
-      <c r="C2" s="81"/>
-      <c r="D2" s="81"/>
-      <c r="E2" s="82"/>
-      <c r="F2" s="82"/>
+      <c r="B2" s="86"/>
+      <c r="C2" s="86"/>
+      <c r="D2" s="86"/>
+      <c r="E2" s="87"/>
+      <c r="F2" s="87"/>
       <c r="G2" s="6"/>
       <c r="H2" s="23"/>
       <c r="I2" s="23"/>
@@ -12330,42 +12330,42 @@
       <c r="W3" s="30"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="83" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="78" t="s">
+      <c r="A4" s="88" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="82" t="s">
         <v>9</v>
       </c>
-      <c r="C4" s="78"/>
-      <c r="D4" s="78"/>
-      <c r="E4" s="78"/>
-      <c r="F4" s="78"/>
-      <c r="G4" s="78"/>
-      <c r="H4" s="78"/>
-      <c r="I4" s="78"/>
-      <c r="J4" s="78" t="s">
+      <c r="C4" s="82"/>
+      <c r="D4" s="82"/>
+      <c r="E4" s="82"/>
+      <c r="F4" s="82"/>
+      <c r="G4" s="82"/>
+      <c r="H4" s="82"/>
+      <c r="I4" s="82"/>
+      <c r="J4" s="82" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="78" t="s">
+      <c r="K4" s="82" t="s">
         <v>12</v>
       </c>
-      <c r="L4" s="78"/>
-      <c r="M4" s="84" t="s">
+      <c r="L4" s="82"/>
+      <c r="M4" s="89" t="s">
         <v>43</v>
       </c>
-      <c r="N4" s="84" t="s">
+      <c r="N4" s="89" t="s">
         <v>11</v>
       </c>
-      <c r="O4" s="78" t="s">
+      <c r="O4" s="82" t="s">
         <v>8</v>
       </c>
-      <c r="P4" s="89" t="s">
+      <c r="P4" s="81" t="s">
         <v>15</v>
       </c>
-      <c r="Q4" s="78" t="s">
+      <c r="Q4" s="82" t="s">
         <v>40</v>
       </c>
-      <c r="R4" s="78" t="s">
+      <c r="R4" s="82" t="s">
         <v>62</v>
       </c>
       <c r="S4" s="99" t="s">
@@ -12373,15 +12373,15 @@
       </c>
       <c r="T4" s="29"/>
       <c r="U4" s="29"/>
-      <c r="V4" s="78" t="s">
+      <c r="V4" s="82" t="s">
         <v>40</v>
       </c>
-      <c r="W4" s="78" t="s">
+      <c r="W4" s="82" t="s">
         <v>62</v>
       </c>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="83"/>
+      <c r="A5" s="88"/>
       <c r="B5" s="5" t="s">
         <v>1</v>
       </c>
@@ -12406,50 +12406,78 @@
       <c r="I5" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="J5" s="78"/>
+      <c r="J5" s="82"/>
       <c r="K5" s="5" t="s">
         <v>13</v>
       </c>
       <c r="L5" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="M5" s="85"/>
-      <c r="N5" s="85"/>
-      <c r="O5" s="78"/>
-      <c r="P5" s="89"/>
-      <c r="Q5" s="78"/>
-      <c r="R5" s="78"/>
+      <c r="M5" s="90"/>
+      <c r="N5" s="90"/>
+      <c r="O5" s="82"/>
+      <c r="P5" s="81"/>
+      <c r="Q5" s="82"/>
+      <c r="R5" s="82"/>
       <c r="S5" s="100"/>
       <c r="T5" s="29"/>
       <c r="U5" s="29"/>
-      <c r="V5" s="78"/>
-      <c r="W5" s="78"/>
+      <c r="V5" s="82"/>
+      <c r="W5" s="82"/>
     </row>
     <row r="6" spans="1:23" s="14" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="4">
         <v>1</v>
       </c>
-      <c r="B6" s="53"/>
-      <c r="C6" s="53"/>
-      <c r="D6" s="54"/>
-      <c r="E6" s="55"/>
-      <c r="F6" s="54"/>
-      <c r="G6" s="54"/>
-      <c r="H6" s="54"/>
-      <c r="I6" s="56"/>
+      <c r="B6" s="53">
+        <v>44217</v>
+      </c>
+      <c r="C6" s="53" t="s">
+        <v>143</v>
+      </c>
+      <c r="D6" s="54" t="s">
+        <v>52</v>
+      </c>
+      <c r="E6" s="60" t="s">
+        <v>83</v>
+      </c>
+      <c r="F6" s="68"/>
+      <c r="G6" s="54" t="s">
+        <v>82</v>
+      </c>
+      <c r="H6" s="11" t="s">
+        <v>114</v>
+      </c>
+      <c r="I6" s="73" t="s">
+        <v>111</v>
+      </c>
       <c r="J6" s="56"/>
-      <c r="K6" s="59"/>
-      <c r="L6" s="56"/>
-      <c r="M6" s="56"/>
+      <c r="K6" s="59" t="s">
+        <v>112</v>
+      </c>
+      <c r="L6" s="56" t="s">
+        <v>115</v>
+      </c>
+      <c r="M6" s="56" t="s">
+        <v>113</v>
+      </c>
       <c r="N6" s="58"/>
-      <c r="O6" s="56"/>
-      <c r="P6" s="56"/>
-      <c r="Q6" s="3"/>
-      <c r="R6" s="54"/>
+      <c r="O6" s="56" t="s">
+        <v>89</v>
+      </c>
+      <c r="P6" s="56" t="s">
+        <v>76</v>
+      </c>
+      <c r="Q6" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="R6" s="54" t="s">
+        <v>25</v>
+      </c>
       <c r="S6" s="4"/>
       <c r="T6" s="29"/>
       <c r="U6" s="31"/>
-      <c r="V6" s="86" t="s">
+      <c r="V6" s="78" t="s">
         <v>19</v>
       </c>
       <c r="W6" s="4" t="s">
@@ -12460,27 +12488,57 @@
       <c r="A7" s="4">
         <v>2</v>
       </c>
-      <c r="B7" s="53"/>
-      <c r="C7" s="53"/>
-      <c r="D7" s="54"/>
-      <c r="E7" s="55"/>
-      <c r="F7" s="54"/>
-      <c r="G7" s="54"/>
-      <c r="H7" s="54"/>
-      <c r="I7" s="56"/>
-      <c r="J7" s="56"/>
-      <c r="K7" s="1"/>
+      <c r="B7" s="53">
+        <v>44217</v>
+      </c>
+      <c r="C7" s="53" t="s">
+        <v>143</v>
+      </c>
+      <c r="D7" s="54" t="s">
+        <v>45</v>
+      </c>
+      <c r="E7" s="55">
+        <v>867717030417993</v>
+      </c>
+      <c r="F7" s="68"/>
+      <c r="G7" s="54" t="s">
+        <v>82</v>
+      </c>
+      <c r="H7" s="11" t="s">
+        <v>138</v>
+      </c>
+      <c r="I7" s="73" t="s">
+        <v>85</v>
+      </c>
+      <c r="J7" s="56" t="s">
+        <v>93</v>
+      </c>
+      <c r="K7" s="69" t="s">
+        <v>86</v>
+      </c>
       <c r="L7" s="56"/>
-      <c r="M7" s="56"/>
-      <c r="N7" s="3"/>
-      <c r="O7" s="56"/>
-      <c r="P7" s="56"/>
-      <c r="Q7" s="3"/>
-      <c r="R7" s="59"/>
+      <c r="M7" s="56" t="s">
+        <v>144</v>
+      </c>
+      <c r="N7" s="58">
+        <v>300000</v>
+      </c>
+      <c r="O7" s="56" t="s">
+        <v>89</v>
+      </c>
+      <c r="P7" s="56" t="s">
+        <v>76</v>
+      </c>
+      <c r="Q7" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="R7" s="54" t="s">
+        <v>36</v>
+      </c>
       <c r="S7" s="4"/>
       <c r="T7" s="29"/>
       <c r="U7" s="31"/>
-      <c r="V7" s="87"/>
+      <c r="V7" s="79"/>
       <c r="W7" s="4" t="s">
         <v>36</v>
       </c>
@@ -12489,27 +12547,49 @@
       <c r="A8" s="4">
         <v>3</v>
       </c>
-      <c r="B8" s="53"/>
-      <c r="C8" s="53"/>
-      <c r="D8" s="54"/>
-      <c r="E8" s="55"/>
-      <c r="F8" s="54"/>
-      <c r="G8" s="54"/>
+      <c r="B8" s="53">
+        <v>44217</v>
+      </c>
+      <c r="C8" s="53" t="s">
+        <v>143</v>
+      </c>
+      <c r="D8" s="54" t="s">
+        <v>45</v>
+      </c>
+      <c r="E8" s="55">
+        <v>867717030624812</v>
+      </c>
+      <c r="F8" s="68"/>
+      <c r="G8" s="54" t="s">
+        <v>82</v>
+      </c>
       <c r="H8" s="54"/>
-      <c r="I8" s="56"/>
-      <c r="J8" s="56"/>
-      <c r="K8" s="59"/>
+      <c r="I8" s="73"/>
+      <c r="J8" s="56" t="s">
+        <v>84</v>
+      </c>
+      <c r="K8" s="1"/>
       <c r="L8" s="56"/>
-      <c r="M8" s="56"/>
-      <c r="N8" s="58"/>
-      <c r="O8" s="56"/>
-      <c r="P8" s="56"/>
-      <c r="Q8" s="3"/>
-      <c r="R8" s="54"/>
+      <c r="M8" s="56" t="s">
+        <v>87</v>
+      </c>
+      <c r="N8" s="1"/>
+      <c r="O8" s="56" t="s">
+        <v>88</v>
+      </c>
+      <c r="P8" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="Q8" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="R8" s="54" t="s">
+        <v>31</v>
+      </c>
       <c r="S8" s="4"/>
       <c r="T8" s="29"/>
       <c r="U8" s="31"/>
-      <c r="V8" s="87"/>
+      <c r="V8" s="79"/>
       <c r="W8" s="4" t="s">
         <v>22</v>
       </c>
@@ -12518,27 +12598,55 @@
       <c r="A9" s="4">
         <v>4</v>
       </c>
-      <c r="B9" s="53"/>
-      <c r="C9" s="53"/>
-      <c r="D9" s="54"/>
-      <c r="E9" s="55"/>
-      <c r="F9" s="54"/>
-      <c r="G9" s="54"/>
-      <c r="H9" s="54"/>
-      <c r="I9" s="56"/>
-      <c r="J9" s="56"/>
-      <c r="K9" s="1"/>
-      <c r="L9" s="59"/>
-      <c r="M9" s="56"/>
-      <c r="N9" s="3"/>
-      <c r="O9" s="56"/>
-      <c r="P9" s="56"/>
-      <c r="Q9" s="3"/>
-      <c r="R9" s="59"/>
+      <c r="B9" s="53">
+        <v>44217</v>
+      </c>
+      <c r="C9" s="53" t="s">
+        <v>143</v>
+      </c>
+      <c r="D9" s="54" t="s">
+        <v>50</v>
+      </c>
+      <c r="E9" s="55">
+        <v>861693036096345</v>
+      </c>
+      <c r="F9" s="68"/>
+      <c r="G9" s="54" t="s">
+        <v>82</v>
+      </c>
+      <c r="H9" s="11"/>
+      <c r="I9" s="73" t="s">
+        <v>126</v>
+      </c>
+      <c r="J9" s="56" t="s">
+        <v>137</v>
+      </c>
+      <c r="K9" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="L9" s="56"/>
+      <c r="M9" s="56" t="s">
+        <v>139</v>
+      </c>
+      <c r="N9" s="58">
+        <v>310000</v>
+      </c>
+      <c r="O9" s="56" t="s">
+        <v>89</v>
+      </c>
+      <c r="P9" s="56" t="s">
+        <v>76</v>
+      </c>
+      <c r="Q9" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="R9" s="54" t="s">
+        <v>22</v>
+      </c>
       <c r="S9" s="4"/>
       <c r="T9" s="31"/>
       <c r="U9" s="31"/>
-      <c r="V9" s="87"/>
+      <c r="V9" s="79"/>
       <c r="W9" s="4" t="s">
         <v>60</v>
       </c>
@@ -12547,27 +12655,55 @@
       <c r="A10" s="4">
         <v>5</v>
       </c>
-      <c r="B10" s="53"/>
-      <c r="C10" s="53"/>
-      <c r="D10" s="54"/>
-      <c r="E10" s="55"/>
-      <c r="F10" s="54"/>
-      <c r="G10" s="54"/>
+      <c r="B10" s="53">
+        <v>44217</v>
+      </c>
+      <c r="C10" s="53" t="s">
+        <v>143</v>
+      </c>
+      <c r="D10" s="54" t="s">
+        <v>50</v>
+      </c>
+      <c r="E10" s="55">
+        <v>867330029942128</v>
+      </c>
+      <c r="F10" s="68"/>
+      <c r="G10" s="54" t="s">
+        <v>82</v>
+      </c>
       <c r="H10" s="54"/>
-      <c r="I10" s="56"/>
-      <c r="J10" s="56"/>
-      <c r="K10" s="59"/>
+      <c r="I10" s="73" t="s">
+        <v>131</v>
+      </c>
+      <c r="J10" s="56" t="s">
+        <v>132</v>
+      </c>
+      <c r="K10" s="1" t="s">
+        <v>130</v>
+      </c>
       <c r="L10" s="56"/>
-      <c r="M10" s="56"/>
-      <c r="N10" s="58"/>
-      <c r="O10" s="56"/>
-      <c r="P10" s="56"/>
-      <c r="Q10" s="3"/>
-      <c r="R10" s="54"/>
+      <c r="M10" s="56" t="s">
+        <v>133</v>
+      </c>
+      <c r="N10" s="3">
+        <v>20000</v>
+      </c>
+      <c r="O10" s="56" t="s">
+        <v>89</v>
+      </c>
+      <c r="P10" s="56" t="s">
+        <v>76</v>
+      </c>
+      <c r="Q10" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="R10" s="54" t="s">
+        <v>32</v>
+      </c>
       <c r="S10" s="4"/>
       <c r="T10" s="31"/>
       <c r="U10" s="31"/>
-      <c r="V10" s="87"/>
+      <c r="V10" s="79"/>
       <c r="W10" s="4" t="s">
         <v>32</v>
       </c>
@@ -12576,27 +12712,57 @@
       <c r="A11" s="4">
         <v>6</v>
       </c>
-      <c r="B11" s="53"/>
-      <c r="C11" s="53"/>
-      <c r="D11" s="54"/>
-      <c r="E11" s="55"/>
-      <c r="F11" s="54"/>
-      <c r="G11" s="54"/>
+      <c r="B11" s="53">
+        <v>44217</v>
+      </c>
+      <c r="C11" s="53" t="s">
+        <v>143</v>
+      </c>
+      <c r="D11" s="54" t="s">
+        <v>50</v>
+      </c>
+      <c r="E11" s="55">
+        <v>861693037607785</v>
+      </c>
+      <c r="F11" s="68"/>
+      <c r="G11" s="54" t="s">
+        <v>82</v>
+      </c>
       <c r="H11" s="54"/>
-      <c r="I11" s="56"/>
-      <c r="J11" s="56"/>
-      <c r="K11" s="59"/>
-      <c r="L11" s="1"/>
-      <c r="M11" s="56"/>
-      <c r="N11" s="58"/>
-      <c r="O11" s="56"/>
-      <c r="P11" s="56"/>
-      <c r="Q11" s="3"/>
-      <c r="R11" s="54"/>
+      <c r="I11" s="73" t="s">
+        <v>126</v>
+      </c>
+      <c r="J11" s="56" t="s">
+        <v>124</v>
+      </c>
+      <c r="K11" s="57" t="s">
+        <v>123</v>
+      </c>
+      <c r="L11" s="56" t="s">
+        <v>127</v>
+      </c>
+      <c r="M11" s="56" t="s">
+        <v>122</v>
+      </c>
+      <c r="N11" s="13">
+        <v>10000</v>
+      </c>
+      <c r="O11" s="56" t="s">
+        <v>89</v>
+      </c>
+      <c r="P11" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="Q11" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="R11" s="54" t="s">
+        <v>104</v>
+      </c>
       <c r="S11" s="4"/>
       <c r="T11" s="31"/>
       <c r="U11" s="31"/>
-      <c r="V11" s="87"/>
+      <c r="V11" s="79"/>
       <c r="W11" s="4" t="s">
         <v>31</v>
       </c>
@@ -12605,27 +12771,49 @@
       <c r="A12" s="4">
         <v>7</v>
       </c>
-      <c r="B12" s="53"/>
-      <c r="C12" s="53"/>
-      <c r="D12" s="54"/>
-      <c r="E12" s="60"/>
-      <c r="F12" s="54"/>
-      <c r="G12" s="54"/>
-      <c r="H12" s="54"/>
-      <c r="I12" s="56"/>
-      <c r="J12" s="56"/>
-      <c r="K12" s="1"/>
-      <c r="L12" s="59"/>
-      <c r="M12" s="56"/>
-      <c r="N12" s="3"/>
-      <c r="O12" s="56"/>
-      <c r="P12" s="56"/>
-      <c r="Q12" s="3"/>
-      <c r="R12" s="59"/>
+      <c r="B12" s="53">
+        <v>44217</v>
+      </c>
+      <c r="C12" s="53" t="s">
+        <v>143</v>
+      </c>
+      <c r="D12" s="54" t="s">
+        <v>50</v>
+      </c>
+      <c r="E12" s="55">
+        <v>866593020394372</v>
+      </c>
+      <c r="F12" s="68"/>
+      <c r="G12" s="54" t="s">
+        <v>82</v>
+      </c>
+      <c r="H12" s="2"/>
+      <c r="I12" s="73"/>
+      <c r="J12" s="56" t="s">
+        <v>125</v>
+      </c>
+      <c r="K12" s="56"/>
+      <c r="L12" s="56"/>
+      <c r="M12" s="56" t="s">
+        <v>87</v>
+      </c>
+      <c r="N12" s="1"/>
+      <c r="O12" s="56" t="s">
+        <v>88</v>
+      </c>
+      <c r="P12" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="Q12" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="R12" s="54" t="s">
+        <v>31</v>
+      </c>
       <c r="S12" s="4"/>
       <c r="T12" s="31"/>
       <c r="U12" s="31"/>
-      <c r="V12" s="86" t="s">
+      <c r="V12" s="78" t="s">
         <v>20</v>
       </c>
       <c r="W12" s="4" t="s">
@@ -12636,27 +12824,57 @@
       <c r="A13" s="4">
         <v>8</v>
       </c>
-      <c r="B13" s="53"/>
-      <c r="C13" s="53"/>
-      <c r="D13" s="54"/>
-      <c r="E13" s="55"/>
-      <c r="F13" s="54"/>
-      <c r="G13" s="54"/>
-      <c r="H13" s="54"/>
-      <c r="I13" s="56"/>
-      <c r="J13" s="56"/>
-      <c r="K13" s="57"/>
-      <c r="L13" s="1"/>
-      <c r="M13" s="1"/>
-      <c r="N13" s="1"/>
-      <c r="O13" s="56"/>
-      <c r="P13" s="1"/>
-      <c r="Q13" s="3"/>
-      <c r="R13" s="11"/>
-      <c r="S13" s="4"/>
+      <c r="B13" s="53">
+        <v>44217</v>
+      </c>
+      <c r="C13" s="53" t="s">
+        <v>143</v>
+      </c>
+      <c r="D13" s="54" t="s">
+        <v>47</v>
+      </c>
+      <c r="E13" s="55">
+        <v>868926033958676</v>
+      </c>
+      <c r="F13" s="68"/>
+      <c r="G13" s="54" t="s">
+        <v>82</v>
+      </c>
+      <c r="H13" s="11"/>
+      <c r="I13" s="73" t="s">
+        <v>85</v>
+      </c>
+      <c r="J13" s="56" t="s">
+        <v>128</v>
+      </c>
+      <c r="K13" s="59" t="s">
+        <v>117</v>
+      </c>
+      <c r="L13" s="56" t="s">
+        <v>119</v>
+      </c>
+      <c r="M13" s="56" t="s">
+        <v>129</v>
+      </c>
+      <c r="N13" s="58"/>
+      <c r="O13" s="56" t="s">
+        <v>89</v>
+      </c>
+      <c r="P13" s="56" t="s">
+        <v>76</v>
+      </c>
+      <c r="Q13" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="R13" s="54" t="s">
+        <v>106</v>
+      </c>
+      <c r="S13" s="4" t="s">
+        <v>118</v>
+      </c>
       <c r="T13" s="31"/>
       <c r="U13" s="31"/>
-      <c r="V13" s="87"/>
+      <c r="V13" s="79"/>
       <c r="W13" s="4" t="s">
         <v>38</v>
       </c>
@@ -12665,27 +12883,51 @@
       <c r="A14" s="4">
         <v>9</v>
       </c>
-      <c r="B14" s="53"/>
-      <c r="C14" s="53"/>
-      <c r="D14" s="54"/>
-      <c r="E14" s="55"/>
-      <c r="F14" s="54"/>
-      <c r="G14" s="54"/>
-      <c r="H14" s="54"/>
-      <c r="I14" s="2"/>
-      <c r="J14" s="1"/>
-      <c r="K14" s="56"/>
-      <c r="L14" s="1"/>
-      <c r="M14" s="1"/>
-      <c r="N14" s="1"/>
-      <c r="O14" s="56"/>
-      <c r="P14" s="1"/>
-      <c r="Q14" s="3"/>
-      <c r="R14" s="11"/>
+      <c r="B14" s="53">
+        <v>44217</v>
+      </c>
+      <c r="C14" s="53" t="s">
+        <v>143</v>
+      </c>
+      <c r="D14" s="54" t="s">
+        <v>46</v>
+      </c>
+      <c r="E14" s="55">
+        <v>868183037819989</v>
+      </c>
+      <c r="F14" s="68"/>
+      <c r="G14" s="54" t="s">
+        <v>72</v>
+      </c>
+      <c r="H14" s="11"/>
+      <c r="I14" s="73" t="s">
+        <v>116</v>
+      </c>
+      <c r="J14" s="56"/>
+      <c r="K14" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="L14" s="56"/>
+      <c r="M14" s="56" t="s">
+        <v>136</v>
+      </c>
+      <c r="N14" s="58"/>
+      <c r="O14" s="56" t="s">
+        <v>89</v>
+      </c>
+      <c r="P14" s="56" t="s">
+        <v>76</v>
+      </c>
+      <c r="Q14" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="R14" s="54" t="s">
+        <v>26</v>
+      </c>
       <c r="S14" s="4"/>
       <c r="T14" s="31"/>
       <c r="U14" s="31"/>
-      <c r="V14" s="87"/>
+      <c r="V14" s="79"/>
       <c r="W14" s="4" t="s">
         <v>37</v>
       </c>
@@ -12694,27 +12936,55 @@
       <c r="A15" s="4">
         <v>10</v>
       </c>
-      <c r="B15" s="53"/>
-      <c r="C15" s="53"/>
-      <c r="D15" s="54"/>
-      <c r="E15" s="60"/>
-      <c r="F15" s="54"/>
-      <c r="G15" s="54"/>
-      <c r="H15" s="54"/>
-      <c r="I15" s="2"/>
-      <c r="J15" s="1"/>
-      <c r="K15" s="1"/>
-      <c r="L15" s="1"/>
-      <c r="M15" s="1"/>
-      <c r="N15" s="13"/>
-      <c r="O15" s="56"/>
-      <c r="P15" s="1"/>
-      <c r="Q15" s="3"/>
-      <c r="R15" s="11"/>
+      <c r="B15" s="53">
+        <v>44217</v>
+      </c>
+      <c r="C15" s="53" t="s">
+        <v>143</v>
+      </c>
+      <c r="D15" s="54" t="s">
+        <v>46</v>
+      </c>
+      <c r="E15" s="55">
+        <v>868183038549452</v>
+      </c>
+      <c r="F15" s="68"/>
+      <c r="G15" s="54" t="s">
+        <v>72</v>
+      </c>
+      <c r="H15" s="54" t="s">
+        <v>78</v>
+      </c>
+      <c r="I15" s="73" t="s">
+        <v>116</v>
+      </c>
+      <c r="J15" s="56" t="s">
+        <v>120</v>
+      </c>
+      <c r="K15" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="L15" s="56"/>
+      <c r="M15" s="56" t="s">
+        <v>121</v>
+      </c>
+      <c r="N15" s="3"/>
+      <c r="O15" s="56" t="s">
+        <v>89</v>
+      </c>
+      <c r="P15" s="56" t="s">
+        <v>76</v>
+      </c>
+      <c r="Q15" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="R15" s="54" t="s">
+        <v>31</v>
+      </c>
       <c r="S15" s="4"/>
       <c r="T15" s="31"/>
       <c r="U15" s="16"/>
-      <c r="V15" s="87"/>
+      <c r="V15" s="79"/>
       <c r="W15" s="4" t="s">
         <v>25</v>
       </c>
@@ -12723,27 +12993,55 @@
       <c r="A16" s="4">
         <v>11</v>
       </c>
-      <c r="B16" s="53"/>
-      <c r="C16" s="53"/>
-      <c r="D16" s="54"/>
-      <c r="E16" s="55"/>
-      <c r="F16" s="54"/>
-      <c r="G16" s="54"/>
-      <c r="H16" s="11"/>
-      <c r="I16" s="2"/>
-      <c r="J16" s="1"/>
-      <c r="K16" s="1"/>
-      <c r="L16" s="1"/>
-      <c r="M16" s="1"/>
+      <c r="B16" s="53">
+        <v>44217</v>
+      </c>
+      <c r="C16" s="53" t="s">
+        <v>143</v>
+      </c>
+      <c r="D16" s="54" t="s">
+        <v>46</v>
+      </c>
+      <c r="E16" s="55">
+        <v>868183034630199</v>
+      </c>
+      <c r="F16" s="68"/>
+      <c r="G16" s="54" t="s">
+        <v>82</v>
+      </c>
+      <c r="H16" s="54"/>
+      <c r="I16" s="73" t="s">
+        <v>100</v>
+      </c>
+      <c r="J16" s="56" t="s">
+        <v>97</v>
+      </c>
+      <c r="K16" s="57" t="s">
+        <v>99</v>
+      </c>
+      <c r="L16" s="56" t="s">
+        <v>86</v>
+      </c>
+      <c r="M16" s="56" t="s">
+        <v>103</v>
+      </c>
       <c r="N16" s="1"/>
-      <c r="O16" s="56"/>
-      <c r="P16" s="1"/>
-      <c r="Q16" s="3"/>
-      <c r="R16" s="11"/>
+      <c r="O16" s="56" t="s">
+        <v>89</v>
+      </c>
+      <c r="P16" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="Q16" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="R16" s="54" t="s">
+        <v>104</v>
+      </c>
       <c r="S16" s="4"/>
       <c r="T16" s="31"/>
       <c r="U16" s="16"/>
-      <c r="V16" s="88"/>
+      <c r="V16" s="80"/>
       <c r="W16" s="4" t="s">
         <v>26</v>
       </c>
@@ -12752,23 +13050,51 @@
       <c r="A17" s="4">
         <v>12</v>
       </c>
-      <c r="B17" s="53"/>
-      <c r="C17" s="53"/>
-      <c r="D17" s="54"/>
-      <c r="E17" s="55"/>
-      <c r="F17" s="54"/>
-      <c r="G17" s="54"/>
-      <c r="H17" s="54"/>
-      <c r="I17" s="1"/>
-      <c r="J17" s="1"/>
-      <c r="K17" s="1"/>
-      <c r="L17" s="1"/>
-      <c r="M17" s="1"/>
+      <c r="B17" s="53">
+        <v>44217</v>
+      </c>
+      <c r="C17" s="53" t="s">
+        <v>143</v>
+      </c>
+      <c r="D17" s="54" t="s">
+        <v>46</v>
+      </c>
+      <c r="E17" s="55">
+        <v>868183038074170</v>
+      </c>
+      <c r="F17" s="68"/>
+      <c r="G17" s="54" t="s">
+        <v>72</v>
+      </c>
+      <c r="H17" s="2"/>
+      <c r="I17" s="73" t="s">
+        <v>102</v>
+      </c>
+      <c r="J17" s="56" t="s">
+        <v>98</v>
+      </c>
+      <c r="K17" s="56" t="s">
+        <v>101</v>
+      </c>
+      <c r="L17" s="56" t="s">
+        <v>86</v>
+      </c>
+      <c r="M17" s="56" t="s">
+        <v>105</v>
+      </c>
       <c r="N17" s="1"/>
-      <c r="O17" s="56"/>
-      <c r="P17" s="1"/>
-      <c r="Q17" s="4"/>
-      <c r="R17" s="11"/>
+      <c r="O17" s="56" t="s">
+        <v>89</v>
+      </c>
+      <c r="P17" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="Q17" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="R17" s="54" t="s">
+        <v>106</v>
+      </c>
       <c r="S17" s="4"/>
       <c r="T17" s="31"/>
       <c r="U17" s="16"/>
@@ -12779,23 +13105,53 @@
       <c r="A18" s="4">
         <v>13</v>
       </c>
-      <c r="B18" s="53"/>
-      <c r="C18" s="53"/>
-      <c r="D18" s="54"/>
-      <c r="E18" s="55"/>
-      <c r="F18" s="54"/>
-      <c r="G18" s="54"/>
-      <c r="H18" s="54"/>
-      <c r="I18" s="15"/>
-      <c r="J18" s="15"/>
-      <c r="K18" s="15"/>
-      <c r="L18" s="1"/>
-      <c r="M18" s="1"/>
-      <c r="N18" s="15"/>
-      <c r="O18" s="56"/>
-      <c r="P18" s="1"/>
-      <c r="Q18" s="4"/>
-      <c r="R18" s="11"/>
+      <c r="B18" s="53">
+        <v>44217</v>
+      </c>
+      <c r="C18" s="53" t="s">
+        <v>143</v>
+      </c>
+      <c r="D18" s="54" t="s">
+        <v>46</v>
+      </c>
+      <c r="E18" s="55">
+        <v>867717030626163</v>
+      </c>
+      <c r="F18" s="68"/>
+      <c r="G18" s="54" t="s">
+        <v>82</v>
+      </c>
+      <c r="H18" s="2"/>
+      <c r="I18" s="73" t="s">
+        <v>95</v>
+      </c>
+      <c r="J18" s="56" t="s">
+        <v>107</v>
+      </c>
+      <c r="K18" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="L18" s="56" t="s">
+        <v>86</v>
+      </c>
+      <c r="M18" s="56" t="s">
+        <v>134</v>
+      </c>
+      <c r="N18" s="13">
+        <v>10000</v>
+      </c>
+      <c r="O18" s="56" t="s">
+        <v>89</v>
+      </c>
+      <c r="P18" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="Q18" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="R18" s="54" t="s">
+        <v>135</v>
+      </c>
       <c r="S18" s="4"/>
       <c r="T18" s="31"/>
       <c r="U18" s="16"/>
@@ -12806,24 +13162,56 @@
       <c r="A19" s="4">
         <v>14</v>
       </c>
-      <c r="B19" s="10"/>
-      <c r="C19" s="1"/>
-      <c r="D19" s="11"/>
-      <c r="E19" s="12"/>
-      <c r="F19" s="11"/>
-      <c r="G19" s="11"/>
-      <c r="H19" s="1"/>
-      <c r="I19" s="1"/>
-      <c r="J19" s="1"/>
-      <c r="K19" s="1"/>
-      <c r="L19" s="1"/>
-      <c r="M19" s="1"/>
+      <c r="B19" s="53">
+        <v>44217</v>
+      </c>
+      <c r="C19" s="53" t="s">
+        <v>143</v>
+      </c>
+      <c r="D19" s="54" t="s">
+        <v>46</v>
+      </c>
+      <c r="E19" s="55">
+        <v>868183094567599</v>
+      </c>
+      <c r="F19" s="68"/>
+      <c r="G19" s="54" t="s">
+        <v>72</v>
+      </c>
+      <c r="H19" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="I19" s="73" t="s">
+        <v>92</v>
+      </c>
+      <c r="J19" s="56" t="s">
+        <v>96</v>
+      </c>
+      <c r="K19" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="L19" s="56" t="s">
+        <v>86</v>
+      </c>
+      <c r="M19" s="56" t="s">
+        <v>141</v>
+      </c>
       <c r="N19" s="1"/>
-      <c r="O19" s="1"/>
-      <c r="P19" s="1"/>
-      <c r="Q19" s="4"/>
-      <c r="R19" s="11"/>
-      <c r="S19" s="4"/>
+      <c r="O19" s="56" t="s">
+        <v>89</v>
+      </c>
+      <c r="P19" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="Q19" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="R19" s="54" t="s">
+        <v>142</v>
+      </c>
+      <c r="S19" s="4" t="s">
+        <v>24</v>
+      </c>
       <c r="T19" s="31"/>
       <c r="U19" s="16"/>
       <c r="V19" s="5" t="s">
@@ -12837,23 +13225,51 @@
       <c r="A20" s="4">
         <v>15</v>
       </c>
-      <c r="B20" s="10"/>
-      <c r="C20" s="1"/>
-      <c r="D20" s="11"/>
-      <c r="E20" s="12"/>
-      <c r="F20" s="11"/>
-      <c r="G20" s="11"/>
+      <c r="B20" s="53">
+        <v>44217</v>
+      </c>
+      <c r="C20" s="53" t="s">
+        <v>143</v>
+      </c>
+      <c r="D20" s="54" t="s">
+        <v>46</v>
+      </c>
+      <c r="E20" s="55">
+        <v>867857039927244</v>
+      </c>
+      <c r="F20" s="68"/>
+      <c r="G20" s="54" t="s">
+        <v>82</v>
+      </c>
       <c r="H20" s="1"/>
-      <c r="I20" s="1"/>
-      <c r="J20" s="1"/>
-      <c r="K20" s="1"/>
-      <c r="L20" s="1"/>
-      <c r="M20" s="11"/>
+      <c r="I20" s="74" t="s">
+        <v>109</v>
+      </c>
+      <c r="J20" s="56" t="s">
+        <v>108</v>
+      </c>
+      <c r="K20" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="L20" s="56" t="s">
+        <v>86</v>
+      </c>
+      <c r="M20" s="56" t="s">
+        <v>110</v>
+      </c>
       <c r="N20" s="1"/>
-      <c r="O20" s="1"/>
-      <c r="P20" s="1"/>
-      <c r="Q20" s="4"/>
-      <c r="R20" s="11"/>
+      <c r="O20" s="56" t="s">
+        <v>89</v>
+      </c>
+      <c r="P20" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="Q20" s="4" t="s">
+        <v>90</v>
+      </c>
+      <c r="R20" s="54" t="s">
+        <v>106</v>
+      </c>
       <c r="S20" s="4"/>
       <c r="T20" s="31"/>
       <c r="U20" s="16"/>
@@ -12862,30 +13278,54 @@
       </c>
       <c r="W20" s="11">
         <f>COUNTIF($Q$6:$Q$105,"PM")</f>
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="21" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="4">
         <v>16</v>
       </c>
-      <c r="B21" s="10"/>
-      <c r="C21" s="1"/>
-      <c r="D21" s="11"/>
-      <c r="E21" s="12"/>
-      <c r="F21" s="11"/>
-      <c r="G21" s="11"/>
-      <c r="H21" s="1"/>
-      <c r="I21" s="1"/>
-      <c r="J21" s="1"/>
-      <c r="K21" s="1"/>
-      <c r="L21" s="1"/>
-      <c r="M21" s="1"/>
-      <c r="N21" s="1"/>
-      <c r="O21" s="1"/>
-      <c r="P21" s="1"/>
-      <c r="Q21" s="4"/>
-      <c r="R21" s="11"/>
+      <c r="B21" s="53" t="s">
+        <v>69</v>
+      </c>
+      <c r="C21" s="53" t="s">
+        <v>69</v>
+      </c>
+      <c r="D21" s="54" t="s">
+        <v>70</v>
+      </c>
+      <c r="E21" s="55" t="s">
+        <v>71</v>
+      </c>
+      <c r="F21" s="54"/>
+      <c r="G21" s="54" t="s">
+        <v>72</v>
+      </c>
+      <c r="H21" s="11" t="s">
+        <v>77</v>
+      </c>
+      <c r="I21" s="56"/>
+      <c r="J21" s="56" t="s">
+        <v>73</v>
+      </c>
+      <c r="K21" s="59"/>
+      <c r="L21" s="56"/>
+      <c r="M21" s="56" t="s">
+        <v>74</v>
+      </c>
+      <c r="N21" s="58"/>
+      <c r="O21" s="56" t="s">
+        <v>75</v>
+      </c>
+      <c r="P21" s="56" t="s">
+        <v>76</v>
+      </c>
+      <c r="Q21" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="R21" s="54" t="s">
+        <v>32</v>
+      </c>
       <c r="S21" s="4"/>
       <c r="T21" s="31"/>
       <c r="U21" s="16"/>
@@ -12894,7 +13334,7 @@
       </c>
       <c r="W21" s="11">
         <f>COUNTIF($Q$6:$Q$105,"PC")</f>
-        <v>0</v>
+        <v>6</v>
       </c>
     </row>
     <row r="22" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -12926,7 +13366,7 @@
       </c>
       <c r="W22" s="11">
         <f>COUNTIF($Q$6:$Q$105,"PC+PM")</f>
-        <v>0</v>
+        <v>8</v>
       </c>
     </row>
     <row r="23" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -13075,7 +13515,7 @@
       </c>
       <c r="W27" s="11">
         <f>COUNTIF($R$6:$R$51,"*GSM*")</f>
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="28" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -13107,7 +13547,7 @@
       </c>
       <c r="W28" s="11">
         <f>COUNTIF($R$6:$R$51,"*GPS*")</f>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="29" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -13171,7 +13611,7 @@
       </c>
       <c r="W30" s="11">
         <f>COUNTIF($R$6:$R$51,"*NG*")</f>
-        <v>0</v>
+        <v>5</v>
       </c>
     </row>
     <row r="31" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -13203,7 +13643,7 @@
       </c>
       <c r="W31" s="11">
         <f>COUNTIF($R$6:$R$51,"*LK*")</f>
-        <v>0</v>
+        <v>6</v>
       </c>
     </row>
     <row r="32" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -13331,7 +13771,7 @@
       </c>
       <c r="W35" s="11">
         <f>COUNTIF($R$6:$R$51,"*NCFW*")</f>
-        <v>0</v>
+        <v>8</v>
       </c>
     </row>
     <row r="36" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -13363,7 +13803,7 @@
       </c>
       <c r="W36" s="11">
         <f>COUNTIF($R$6:$R$51,"*KL*")</f>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="37" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -13395,7 +13835,7 @@
       </c>
       <c r="W37" s="11">
         <f>SUM(W26:W36)</f>
-        <v>0</v>
+        <v>23</v>
       </c>
     </row>
     <row r="38" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -13481,7 +13921,7 @@
       </c>
       <c r="W40" s="11">
         <f>COUNTIF($O$6:$O$51,"*DM*")</f>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="41" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -13513,7 +13953,7 @@
       </c>
       <c r="W41" s="11">
         <f>COUNTIF($O$6:$O$51,"*KS*")</f>
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="42" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -13662,7 +14102,7 @@
       </c>
       <c r="W46" s="11">
         <f>COUNTIF($D$6:$D$105,"TG102LE")</f>
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="47" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -13694,7 +14134,7 @@
       </c>
       <c r="W47" s="11">
         <f>COUNTIF($D$6:$D$105,"TG007X")</f>
-        <v>0</v>
+        <v>7</v>
       </c>
     </row>
     <row r="48" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -13726,7 +14166,7 @@
       </c>
       <c r="W48" s="11">
         <f>COUNTIF($D$6:$D$105,"TG102V")</f>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="49" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -13822,7 +14262,7 @@
       </c>
       <c r="W51" s="11">
         <f>COUNTIF($D$6:$D$105,"TG007")</f>
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="52" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -13854,7 +14294,7 @@
       </c>
       <c r="W52" s="11">
         <f>COUNTIF($D$6:$D$105,"TG102")</f>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="53" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -13982,7 +14422,7 @@
       </c>
       <c r="W56" s="96">
         <f>SUM(COUNTIF($D$6:$D$106,"**")-SUM($W$45:$W$55))</f>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="57" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -14122,7 +14562,7 @@
       </c>
       <c r="W61" s="11">
         <f>COUNTIF($O$6:$O$105,"*DM*")</f>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="62" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -14154,7 +14594,7 @@
       </c>
       <c r="W62" s="11">
         <f>COUNTIF($O$6:$O$105,"*KS*")</f>
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="63" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -15324,6 +15764,16 @@
   </sheetData>
   <autoFilter ref="S1:S105"/>
   <mergeCells count="20">
+    <mergeCell ref="V6:V11"/>
+    <mergeCell ref="V12:V16"/>
+    <mergeCell ref="V56:V58"/>
+    <mergeCell ref="W56:W58"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="S4:S5"/>
+    <mergeCell ref="V4:V5"/>
+    <mergeCell ref="W4:W5"/>
     <mergeCell ref="A1:W1"/>
     <mergeCell ref="A2:D2"/>
     <mergeCell ref="E2:F2"/>
@@ -15334,16 +15784,6 @@
     <mergeCell ref="M4:M5"/>
     <mergeCell ref="N4:N5"/>
     <mergeCell ref="O4:O5"/>
-    <mergeCell ref="V6:V11"/>
-    <mergeCell ref="V12:V16"/>
-    <mergeCell ref="V56:V58"/>
-    <mergeCell ref="W56:W58"/>
-    <mergeCell ref="P4:P5"/>
-    <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="R4:R5"/>
-    <mergeCell ref="S4:S5"/>
-    <mergeCell ref="V4:V5"/>
-    <mergeCell ref="W4:W5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
